--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['53', '55']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -698,6 +701,9 @@
   </si>
   <si>
     <t>['3', '14']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1324,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2348,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3172,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3584,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3790,7 +3796,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3868,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.57</v>
@@ -3996,7 +4002,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4408,7 +4414,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4489,7 +4495,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4820,7 +4826,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5026,7 +5032,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5438,7 +5444,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5644,7 +5650,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5722,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -6056,7 +6062,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6468,7 +6474,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6674,7 +6680,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6755,7 +6761,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -6880,7 +6886,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7910,7 +7916,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8116,7 +8122,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8194,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8322,7 +8328,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9352,7 +9358,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9558,7 +9564,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9639,7 +9645,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -10176,7 +10182,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10794,7 +10800,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11000,7 +11006,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11206,7 +11212,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11412,7 +11418,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11696,7 +11702,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12442,7 +12448,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12854,7 +12860,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13060,7 +13066,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13472,7 +13478,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13965,7 +13971,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14090,7 +14096,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14296,7 +14302,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14502,7 +14508,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14708,7 +14714,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14914,7 +14920,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15120,7 +15126,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15404,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>0.14</v>
@@ -15944,7 +15950,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16150,7 +16156,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16562,7 +16568,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17258,7 +17264,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -17592,7 +17598,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17798,7 +17804,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18004,7 +18010,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18291,7 +18297,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18622,7 +18628,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19034,7 +19040,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19652,7 +19658,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19858,7 +19864,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20270,7 +20276,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20554,7 +20560,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.57</v>
@@ -20682,7 +20688,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20888,7 +20894,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21175,7 +21181,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21300,7 +21306,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21506,7 +21512,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21712,7 +21718,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22742,7 +22748,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22948,7 +22954,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23154,7 +23160,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23566,7 +23572,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24184,7 +24190,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24341,6 +24347,212 @@
       </c>
       <c r="BP113">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7453540</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45618.69791666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>82</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>172</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q114">
+        <v>1.95</v>
+      </c>
+      <c r="R114">
+        <v>2.38</v>
+      </c>
+      <c r="S114">
+        <v>5.5</v>
+      </c>
+      <c r="T114">
+        <v>1.3</v>
+      </c>
+      <c r="U114">
+        <v>3.2</v>
+      </c>
+      <c r="V114">
+        <v>2.4</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.11</v>
+      </c>
+      <c r="Z114">
+        <v>1.45</v>
+      </c>
+      <c r="AA114">
+        <v>4.7</v>
+      </c>
+      <c r="AB114">
+        <v>6.25</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>10</v>
+      </c>
+      <c r="AE114">
+        <v>1.2</v>
+      </c>
+      <c r="AF114">
+        <v>4.33</v>
+      </c>
+      <c r="AG114">
+        <v>1.64</v>
+      </c>
+      <c r="AH114">
+        <v>2.28</v>
+      </c>
+      <c r="AI114">
+        <v>1.7</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>1.12</v>
+      </c>
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>2.5</v>
+      </c>
+      <c r="AN114">
+        <v>2.14</v>
+      </c>
+      <c r="AO114">
+        <v>1.33</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>1.29</v>
+      </c>
+      <c r="AR114">
+        <v>1.76</v>
+      </c>
+      <c r="AS114">
+        <v>1.13</v>
+      </c>
+      <c r="AT114">
+        <v>2.89</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>28</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>9</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>11</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,15 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['12', '22', '42', '48', '51', '57', '77']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['77', '83', '90']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
   </si>
   <si>
     <t>['40', '44', '47', '64']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['90+8']</t>
@@ -1065,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1330,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1402,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -2023,7 +2029,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2354,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2847,7 +2853,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3178,7 +3184,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3590,7 +3596,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3671,7 +3677,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3796,7 +3802,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4002,7 +4008,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4286,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4414,7 +4420,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4698,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>1.14</v>
@@ -4826,7 +4832,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5032,7 +5038,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5444,7 +5450,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5522,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5650,7 +5656,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5731,7 +5737,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6062,7 +6068,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6349,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6474,7 +6480,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6680,7 +6686,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6886,7 +6892,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7170,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.57</v>
@@ -7379,7 +7385,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -7916,7 +7922,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8122,7 +8128,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8328,7 +8334,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8818,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ38">
         <v>0.14</v>
@@ -9230,7 +9236,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9358,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9439,7 +9445,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -9564,7 +9570,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10054,10 +10060,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>1.89</v>
@@ -10182,7 +10188,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10675,7 +10681,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10800,7 +10806,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11006,7 +11012,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11212,7 +11218,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11418,7 +11424,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12448,7 +12454,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12732,7 +12738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57">
         <v>0.71</v>
@@ -12860,7 +12866,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12941,7 +12947,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13066,7 +13072,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13353,7 +13359,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13478,7 +13484,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13556,7 +13562,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13765,7 +13771,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR62">
         <v>1.5</v>
@@ -13968,7 +13974,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14096,7 +14102,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14302,7 +14308,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14508,7 +14514,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14714,7 +14720,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14792,7 +14798,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ67">
         <v>1.14</v>
@@ -14920,7 +14926,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -14998,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15126,7 +15132,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15950,7 +15956,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16031,7 +16037,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16156,7 +16162,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16568,7 +16574,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16855,7 +16861,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17267,7 +17273,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR79">
         <v>1.88</v>
@@ -17470,7 +17476,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>0.71</v>
@@ -17598,7 +17604,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17804,7 +17810,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18010,7 +18016,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18628,7 +18634,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18706,10 +18712,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19040,7 +19046,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19118,10 +19124,10 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19658,7 +19664,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19864,7 +19870,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20276,7 +20282,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20354,7 +20360,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20688,7 +20694,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20894,7 +20900,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20975,7 +20981,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21306,7 +21312,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21384,10 +21390,10 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21512,7 +21518,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21718,7 +21724,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22002,7 +22008,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ102">
         <v>1.57</v>
@@ -22211,7 +22217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -22748,7 +22754,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22954,7 +22960,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23160,7 +23166,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23572,7 +23578,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24190,7 +24196,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24363,7 +24369,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45618.69791666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F114">
         <v>15</v>
@@ -24396,7 +24402,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24552,6 +24558,624 @@
         <v>0</v>
       </c>
       <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7453538</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>7</v>
+      </c>
+      <c r="O115" t="s">
+        <v>173</v>
+      </c>
+      <c r="P115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q115">
+        <v>1.83</v>
+      </c>
+      <c r="R115">
+        <v>2.6</v>
+      </c>
+      <c r="S115">
+        <v>6.5</v>
+      </c>
+      <c r="T115">
+        <v>1.25</v>
+      </c>
+      <c r="U115">
+        <v>3.75</v>
+      </c>
+      <c r="V115">
+        <v>2.25</v>
+      </c>
+      <c r="W115">
+        <v>1.57</v>
+      </c>
+      <c r="X115">
+        <v>5.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.14</v>
+      </c>
+      <c r="Z115">
+        <v>1.29</v>
+      </c>
+      <c r="AA115">
+        <v>6.96</v>
+      </c>
+      <c r="AB115">
+        <v>5.19</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>1.5</v>
+      </c>
+      <c r="AH115">
+        <v>2.4</v>
+      </c>
+      <c r="AI115">
+        <v>1.75</v>
+      </c>
+      <c r="AJ115">
+        <v>2</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1.83</v>
+      </c>
+      <c r="AO115">
+        <v>0.71</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>0.63</v>
+      </c>
+      <c r="AR115">
+        <v>2.07</v>
+      </c>
+      <c r="AS115">
+        <v>1.31</v>
+      </c>
+      <c r="AT115">
+        <v>3.38</v>
+      </c>
+      <c r="AU115">
+        <v>12</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>20</v>
+      </c>
+      <c r="AZ115">
+        <v>10</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7453541</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45619.59375</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>83</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>174</v>
+      </c>
+      <c r="P116" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q116">
+        <v>3.25</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>3.4</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.85</v>
+      </c>
+      <c r="V116">
+        <v>2.95</v>
+      </c>
+      <c r="W116">
+        <v>1.38</v>
+      </c>
+      <c r="X116">
+        <v>7.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>2</v>
+      </c>
+      <c r="AA116">
+        <v>5.21</v>
+      </c>
+      <c r="AB116">
+        <v>2.4</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE116">
+        <v>1.31</v>
+      </c>
+      <c r="AF116">
+        <v>3.32</v>
+      </c>
+      <c r="AG116">
+        <v>2.01</v>
+      </c>
+      <c r="AH116">
+        <v>1.83</v>
+      </c>
+      <c r="AI116">
+        <v>1.75</v>
+      </c>
+      <c r="AJ116">
+        <v>2.05</v>
+      </c>
+      <c r="AK116">
+        <v>1.47</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.53</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.67</v>
+      </c>
+      <c r="AP116">
+        <v>2.13</v>
+      </c>
+      <c r="AQ116">
+        <v>0.57</v>
+      </c>
+      <c r="AR116">
+        <v>1.18</v>
+      </c>
+      <c r="AS116">
+        <v>1.28</v>
+      </c>
+      <c r="AT116">
+        <v>2.46</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>12</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>5</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7453539</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45619.69791666666</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>175</v>
+      </c>
+      <c r="P117" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q117">
+        <v>2.1</v>
+      </c>
+      <c r="R117">
+        <v>2.4</v>
+      </c>
+      <c r="S117">
+        <v>5.5</v>
+      </c>
+      <c r="T117">
+        <v>1.32</v>
+      </c>
+      <c r="U117">
+        <v>3.4</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.52</v>
+      </c>
+      <c r="X117">
+        <v>6</v>
+      </c>
+      <c r="Y117">
+        <v>1.12</v>
+      </c>
+      <c r="Z117">
+        <v>1.51</v>
+      </c>
+      <c r="AA117">
+        <v>4.35</v>
+      </c>
+      <c r="AB117">
+        <v>5.3</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>15</v>
+      </c>
+      <c r="AE117">
+        <v>1.21</v>
+      </c>
+      <c r="AF117">
+        <v>4.25</v>
+      </c>
+      <c r="AG117">
+        <v>1.68</v>
+      </c>
+      <c r="AH117">
+        <v>2.18</v>
+      </c>
+      <c r="AI117">
+        <v>1.75</v>
+      </c>
+      <c r="AJ117">
+        <v>2.05</v>
+      </c>
+      <c r="AK117">
+        <v>1.14</v>
+      </c>
+      <c r="AL117">
+        <v>1.19</v>
+      </c>
+      <c r="AM117">
+        <v>2.5</v>
+      </c>
+      <c r="AN117">
+        <v>2.71</v>
+      </c>
+      <c r="AO117">
+        <v>0.57</v>
+      </c>
+      <c r="AP117">
+        <v>2.75</v>
+      </c>
+      <c r="AQ117">
+        <v>0.5</v>
+      </c>
+      <c r="AR117">
+        <v>1.85</v>
+      </c>
+      <c r="AS117">
+        <v>1.33</v>
+      </c>
+      <c r="AT117">
+        <v>3.18</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>7</v>
+      </c>
+      <c r="AX117">
+        <v>5</v>
+      </c>
+      <c r="AY117">
+        <v>19</v>
+      </c>
+      <c r="AZ117">
+        <v>15</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['77', '83', '90']</t>
   </si>
   <si>
+    <t>['41', '71', '90+2']</t>
+  </si>
+  <si>
+    <t>['49', '70', '74', '90']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -710,6 +716,9 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1339,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1617,7 +1626,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2360,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2850,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -3059,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3184,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3262,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3468,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -3596,7 +3605,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3802,7 +3811,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4008,7 +4017,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4089,7 +4098,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4420,7 +4429,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4832,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4913,7 +4922,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -5038,7 +5047,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5116,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5450,7 +5459,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5656,7 +5665,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6068,7 +6077,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6149,7 +6158,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6480,7 +6489,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6686,7 +6695,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6892,7 +6901,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6970,7 +6979,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.57</v>
@@ -7382,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -7922,7 +7931,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8000,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8128,7 +8137,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8334,7 +8343,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8621,7 +8630,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -8827,7 +8836,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9033,7 +9042,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9364,7 +9373,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9442,7 +9451,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9570,7 +9579,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9854,7 +9863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>0.57</v>
@@ -10188,7 +10197,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10806,7 +10815,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11012,7 +11021,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11218,7 +11227,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11424,7 +11433,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11711,7 +11720,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12123,7 +12132,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12454,7 +12463,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12741,7 +12750,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -12866,7 +12875,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13072,7 +13081,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13150,7 +13159,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>1.57</v>
@@ -13484,7 +13493,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13768,7 +13777,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -14180,10 +14189,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14308,7 +14317,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14514,7 +14523,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14720,7 +14729,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14926,7 +14935,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15132,7 +15141,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15419,7 +15428,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -15625,7 +15634,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15956,7 +15965,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16162,7 +16171,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16240,10 +16249,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -16446,7 +16455,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16574,7 +16583,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17479,7 +17488,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17604,7 +17613,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17810,7 +17819,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18016,7 +18025,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18094,7 +18103,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18634,7 +18643,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18918,7 +18927,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19046,7 +19055,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19330,10 +19339,10 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19539,7 +19548,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ90">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19664,7 +19673,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19870,7 +19879,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20282,7 +20291,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20694,7 +20703,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20900,7 +20909,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21184,7 +21193,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
         <v>1.29</v>
@@ -21312,7 +21321,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21518,7 +21527,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21596,7 +21605,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -21724,7 +21733,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21802,10 +21811,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22423,7 +22432,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22754,7 +22763,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22960,7 +22969,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23166,7 +23175,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23578,7 +23587,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24196,7 +24205,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24402,7 +24411,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24575,7 +24584,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F115">
         <v>15</v>
@@ -25177,6 +25186,624 @@
       </c>
       <c r="BP117">
         <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7453543</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>176</v>
+      </c>
+      <c r="P118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q118">
+        <v>1.91</v>
+      </c>
+      <c r="R118">
+        <v>2.63</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>1.22</v>
+      </c>
+      <c r="U118">
+        <v>4</v>
+      </c>
+      <c r="V118">
+        <v>2.1</v>
+      </c>
+      <c r="W118">
+        <v>1.67</v>
+      </c>
+      <c r="X118">
+        <v>4.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.18</v>
+      </c>
+      <c r="Z118">
+        <v>1.41</v>
+      </c>
+      <c r="AA118">
+        <v>4.9</v>
+      </c>
+      <c r="AB118">
+        <v>5.9</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>1.42</v>
+      </c>
+      <c r="AH118">
+        <v>2.74</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1.86</v>
+      </c>
+      <c r="AO118">
+        <v>0.14</v>
+      </c>
+      <c r="AP118">
+        <v>2</v>
+      </c>
+      <c r="AQ118">
+        <v>0.13</v>
+      </c>
+      <c r="AR118">
+        <v>1.51</v>
+      </c>
+      <c r="AS118">
+        <v>0.95</v>
+      </c>
+      <c r="AT118">
+        <v>2.46</v>
+      </c>
+      <c r="AU118">
+        <v>11</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>17</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7453542</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45620.5</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>78</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>150</v>
+      </c>
+      <c r="P119" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q119">
+        <v>4.5</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>2.6</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>3.6</v>
+      </c>
+      <c r="AA119">
+        <v>3.35</v>
+      </c>
+      <c r="AB119">
+        <v>1.99</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>2.01</v>
+      </c>
+      <c r="AH119">
+        <v>1.83</v>
+      </c>
+      <c r="AI119">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.71</v>
+      </c>
+      <c r="AP119">
+        <v>1.43</v>
+      </c>
+      <c r="AQ119">
+        <v>0.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.42</v>
+      </c>
+      <c r="AT119">
+        <v>2.75</v>
+      </c>
+      <c r="AU119">
+        <v>2</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7453544</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45620.63541666666</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>177</v>
+      </c>
+      <c r="P120" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q120">
+        <v>2.2</v>
+      </c>
+      <c r="R120">
+        <v>2.4</v>
+      </c>
+      <c r="S120">
+        <v>4.75</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.4</v>
+      </c>
+      <c r="V120">
+        <v>2.38</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.13</v>
+      </c>
+      <c r="Z120">
+        <v>1.63</v>
+      </c>
+      <c r="AA120">
+        <v>3.82</v>
+      </c>
+      <c r="AB120">
+        <v>4.44</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>15</v>
+      </c>
+      <c r="AE120">
+        <v>1.19</v>
+      </c>
+      <c r="AF120">
+        <v>5</v>
+      </c>
+      <c r="AG120">
+        <v>1.6</v>
+      </c>
+      <c r="AH120">
+        <v>2.15</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>2.15</v>
+      </c>
+      <c r="AN120">
+        <v>1.57</v>
+      </c>
+      <c r="AO120">
+        <v>0.57</v>
+      </c>
+      <c r="AP120">
+        <v>1.75</v>
+      </c>
+      <c r="AQ120">
+        <v>0.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.8</v>
+      </c>
+      <c r="AS120">
+        <v>1.01</v>
+      </c>
+      <c r="AT120">
+        <v>2.81</v>
+      </c>
+      <c r="AU120">
+        <v>10</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>22</v>
+      </c>
+      <c r="AZ120">
+        <v>9</v>
+      </c>
+      <c r="BA120">
+        <v>8</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>14</v>
+      </c>
+      <c r="BD120">
+        <v>1.3</v>
+      </c>
+      <c r="BE120">
+        <v>8.6</v>
+      </c>
+      <c r="BF120">
+        <v>4.1</v>
+      </c>
+      <c r="BG120">
+        <v>1.12</v>
+      </c>
+      <c r="BH120">
+        <v>4.45</v>
+      </c>
+      <c r="BI120">
+        <v>1.25</v>
+      </c>
+      <c r="BJ120">
+        <v>3.5</v>
+      </c>
+      <c r="BK120">
+        <v>1.48</v>
+      </c>
+      <c r="BL120">
+        <v>2.42</v>
+      </c>
+      <c r="BM120">
+        <v>1.82</v>
+      </c>
+      <c r="BN120">
+        <v>1.82</v>
+      </c>
+      <c r="BO120">
+        <v>2.42</v>
+      </c>
+      <c r="BP120">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,19 +532,10 @@
     <t>['53', '55']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
-    <t>['12', '22', '42', '48', '51', '57', '77']</t>
+    <t>['77', '83', '90']</t>
   </si>
   <si>
     <t>['57']</t>
-  </si>
-  <si>
-    <t>['77', '83', '90']</t>
-  </si>
-  <si>
-    <t>['41', '71', '90+2']</t>
   </si>
   <si>
     <t>['49', '70', '74', '90']</t>
@@ -713,9 +704,6 @@
   </si>
   <si>
     <t>['3', '14']</t>
-  </si>
-  <si>
-    <t>['3']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1080,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1417,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -2038,7 +2026,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2369,7 +2357,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3068,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3193,7 +3181,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3271,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3605,7 +3593,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3811,7 +3799,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3889,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
         <v>1.57</v>
@@ -4017,7 +4005,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4429,7 +4417,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4510,7 +4498,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4841,7 +4829,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5047,7 +5035,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5459,7 +5447,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5665,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5743,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6077,7 +6065,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6158,7 +6146,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6489,7 +6477,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6695,7 +6683,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6776,7 +6764,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -6901,7 +6889,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6979,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
         <v>1.57</v>
@@ -7185,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
         <v>1.57</v>
@@ -7931,7 +7919,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8137,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8215,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8343,7 +8331,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8836,7 +8824,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ38">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9373,7 +9361,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9451,7 +9439,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9579,7 +9567,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9660,7 +9648,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -10069,7 +10057,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10197,7 +10185,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10690,7 +10678,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10815,7 +10803,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11021,7 +11009,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11227,7 +11215,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11433,7 +11421,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11717,7 +11705,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12132,7 +12120,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12463,7 +12451,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12875,7 +12863,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12956,7 +12944,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13081,7 +13069,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13493,7 +13481,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13571,7 +13559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13777,7 +13765,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -13986,7 +13974,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14111,7 +14099,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14317,7 +14305,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14523,7 +14511,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14729,7 +14717,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14935,7 +14923,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15141,7 +15129,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15425,10 +15413,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ70">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -15965,7 +15953,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16046,7 +16034,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16171,7 +16159,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16252,7 +16240,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -16455,7 +16443,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16583,7 +16571,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17279,7 +17267,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ79">
         <v>0.57</v>
@@ -17485,7 +17473,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17613,7 +17601,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17819,7 +17807,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18025,7 +18013,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18312,7 +18300,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18643,7 +18631,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18724,7 +18712,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19055,7 +19043,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19339,7 +19327,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19548,7 +19536,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ90">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19673,7 +19661,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19879,7 +19867,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20291,7 +20279,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20369,7 +20357,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20575,7 +20563,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95">
         <v>0.57</v>
@@ -20703,7 +20691,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20909,7 +20897,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21196,7 +21184,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21321,7 +21309,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21402,7 +21390,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21527,7 +21515,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21733,7 +21721,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21811,7 +21799,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22763,7 +22751,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22969,7 +22957,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23175,7 +23163,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23587,7 +23575,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24205,7 +24193,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24369,7 +24357,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7453540</v>
+        <v>7453539</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24378,157 +24366,157 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45617.875</v>
+        <v>45618.875</v>
       </c>
       <c r="F114">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="Q114">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R114">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S114">
         <v>5.5</v>
       </c>
       <c r="T114">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U114">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V114">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="W114">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X114">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y114">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z114">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AA114">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="AB114">
-        <v>6.25</v>
+        <v>5.3</v>
       </c>
       <c r="AC114">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE114">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AF114">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="AG114">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AH114">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="AI114">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ114">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK114">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AL114">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AM114">
         <v>2.5</v>
       </c>
       <c r="AN114">
-        <v>2.14</v>
+        <v>2.71</v>
       </c>
       <c r="AO114">
+        <v>0.57</v>
+      </c>
+      <c r="AP114">
+        <v>2.75</v>
+      </c>
+      <c r="AQ114">
+        <v>0.5</v>
+      </c>
+      <c r="AR114">
+        <v>1.85</v>
+      </c>
+      <c r="AS114">
         <v>1.33</v>
       </c>
-      <c r="AP114">
-        <v>2</v>
-      </c>
-      <c r="AQ114">
-        <v>1.29</v>
-      </c>
-      <c r="AR114">
-        <v>1.76</v>
-      </c>
-      <c r="AS114">
-        <v>1.13</v>
-      </c>
       <c r="AT114">
-        <v>2.89</v>
+        <v>3.18</v>
       </c>
       <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
         <v>7</v>
       </c>
-      <c r="AV114">
-        <v>6</v>
-      </c>
       <c r="AW114">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY114">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AZ114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB114">
         <v>2</v>
       </c>
       <c r="BC114">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD114">
         <v>0</v>
@@ -24575,7 +24563,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7453538</v>
+        <v>7453541</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24584,34 +24572,34 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45618.875</v>
+        <v>45619.59375</v>
       </c>
       <c r="F115">
         <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O115" t="s">
         <v>173</v>
@@ -24620,121 +24608,121 @@
         <v>87</v>
       </c>
       <c r="Q115">
+        <v>3.25</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>3.4</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.85</v>
+      </c>
+      <c r="V115">
+        <v>2.95</v>
+      </c>
+      <c r="W115">
+        <v>1.38</v>
+      </c>
+      <c r="X115">
+        <v>7.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>2</v>
+      </c>
+      <c r="AA115">
+        <v>5.21</v>
+      </c>
+      <c r="AB115">
+        <v>2.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE115">
+        <v>1.31</v>
+      </c>
+      <c r="AF115">
+        <v>3.32</v>
+      </c>
+      <c r="AG115">
+        <v>2.01</v>
+      </c>
+      <c r="AH115">
         <v>1.83</v>
-      </c>
-      <c r="R115">
-        <v>2.6</v>
-      </c>
-      <c r="S115">
-        <v>6.5</v>
-      </c>
-      <c r="T115">
-        <v>1.25</v>
-      </c>
-      <c r="U115">
-        <v>3.75</v>
-      </c>
-      <c r="V115">
-        <v>2.25</v>
-      </c>
-      <c r="W115">
-        <v>1.57</v>
-      </c>
-      <c r="X115">
-        <v>5.5</v>
-      </c>
-      <c r="Y115">
-        <v>1.14</v>
-      </c>
-      <c r="Z115">
-        <v>1.29</v>
-      </c>
-      <c r="AA115">
-        <v>6.96</v>
-      </c>
-      <c r="AB115">
-        <v>5.19</v>
-      </c>
-      <c r="AC115">
-        <v>0</v>
-      </c>
-      <c r="AD115">
-        <v>0</v>
-      </c>
-      <c r="AE115">
-        <v>0</v>
-      </c>
-      <c r="AF115">
-        <v>0</v>
-      </c>
-      <c r="AG115">
-        <v>1.5</v>
-      </c>
-      <c r="AH115">
-        <v>2.4</v>
       </c>
       <c r="AI115">
         <v>1.75</v>
       </c>
       <c r="AJ115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK115">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AL115">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM115">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AN115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO115">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AR115">
-        <v>2.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS115">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT115">
-        <v>3.38</v>
+        <v>2.46</v>
       </c>
       <c r="AU115">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX115">
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ115">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA115">
         <v>5</v>
       </c>
       <c r="BB115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD115">
         <v>0</v>
@@ -24781,7 +24769,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7453541</v>
+        <v>7453542</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24790,88 +24778,88 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.59375</v>
+        <v>45619.875</v>
       </c>
       <c r="F116">
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="P116" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="Q116">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R116">
         <v>2.1</v>
       </c>
       <c r="S116">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="T116">
         <v>1.44</v>
       </c>
       <c r="U116">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="V116">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="W116">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X116">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y116">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z116">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AA116">
-        <v>5.21</v>
+        <v>3.35</v>
       </c>
       <c r="AB116">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="AC116">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AD116">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE116">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF116">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AG116">
         <v>2.01</v>
@@ -24880,67 +24868,67 @@
         <v>1.83</v>
       </c>
       <c r="AI116">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ116">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK116">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AL116">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM116">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP116">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="AU116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV116">
         <v>5</v>
       </c>
       <c r="AW116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX116">
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB116">
         <v>5</v>
       </c>
       <c r="BC116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -24987,7 +24975,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7453539</v>
+        <v>7453544</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24996,16 +24984,16 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45619.69791666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -25017,792 +25005,174 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P117" t="s">
         <v>87</v>
       </c>
       <c r="Q117">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R117">
         <v>2.4</v>
       </c>
       <c r="S117">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T117">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U117">
         <v>3.4</v>
       </c>
       <c r="V117">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W117">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X117">
         <v>6</v>
       </c>
       <c r="Y117">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z117">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="AA117">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="AB117">
-        <v>5.3</v>
+        <v>4.44</v>
       </c>
       <c r="AC117">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD117">
         <v>15</v>
       </c>
       <c r="AE117">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AF117">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="AG117">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AH117">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AI117">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ117">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK117">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AL117">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AM117">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>2.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO117">
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
       </c>
       <c r="AR117">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AT117">
-        <v>3.18</v>
+        <v>2.81</v>
       </c>
       <c r="AU117">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW117">
         <v>7</v>
       </c>
       <c r="AX117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY117">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ117">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA117">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC117">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD117">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BE117">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BF117">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BG117">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BH117">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BI117">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BJ117">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BK117">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BL117">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BM117">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BN117">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BO117">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BP117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:68">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>7453543</v>
-      </c>
-      <c r="C118" t="s">
-        <v>68</v>
-      </c>
-      <c r="D118" t="s">
-        <v>69</v>
-      </c>
-      <c r="E118" s="2">
-        <v>45619.875</v>
-      </c>
-      <c r="F118">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>79</v>
-      </c>
-      <c r="H118" t="s">
-        <v>72</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>3</v>
-      </c>
-      <c r="O118" t="s">
-        <v>176</v>
-      </c>
-      <c r="P118" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q118">
-        <v>1.91</v>
-      </c>
-      <c r="R118">
-        <v>2.63</v>
-      </c>
-      <c r="S118">
-        <v>6</v>
-      </c>
-      <c r="T118">
-        <v>1.22</v>
-      </c>
-      <c r="U118">
-        <v>4</v>
-      </c>
-      <c r="V118">
-        <v>2.1</v>
-      </c>
-      <c r="W118">
-        <v>1.67</v>
-      </c>
-      <c r="X118">
-        <v>4.5</v>
-      </c>
-      <c r="Y118">
-        <v>1.18</v>
-      </c>
-      <c r="Z118">
-        <v>1.41</v>
-      </c>
-      <c r="AA118">
-        <v>4.9</v>
-      </c>
-      <c r="AB118">
-        <v>5.9</v>
-      </c>
-      <c r="AC118">
-        <v>0</v>
-      </c>
-      <c r="AD118">
-        <v>0</v>
-      </c>
-      <c r="AE118">
-        <v>0</v>
-      </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
-      <c r="AG118">
-        <v>1.42</v>
-      </c>
-      <c r="AH118">
-        <v>2.74</v>
-      </c>
-      <c r="AI118">
-        <v>1.62</v>
-      </c>
-      <c r="AJ118">
-        <v>2.2</v>
-      </c>
-      <c r="AK118">
-        <v>0</v>
-      </c>
-      <c r="AL118">
-        <v>0</v>
-      </c>
-      <c r="AM118">
-        <v>0</v>
-      </c>
-      <c r="AN118">
-        <v>1.86</v>
-      </c>
-      <c r="AO118">
-        <v>0.14</v>
-      </c>
-      <c r="AP118">
-        <v>2</v>
-      </c>
-      <c r="AQ118">
-        <v>0.13</v>
-      </c>
-      <c r="AR118">
-        <v>1.51</v>
-      </c>
-      <c r="AS118">
-        <v>0.95</v>
-      </c>
-      <c r="AT118">
-        <v>2.46</v>
-      </c>
-      <c r="AU118">
-        <v>11</v>
-      </c>
-      <c r="AV118">
-        <v>4</v>
-      </c>
-      <c r="AW118">
-        <v>2</v>
-      </c>
-      <c r="AX118">
-        <v>7</v>
-      </c>
-      <c r="AY118">
-        <v>17</v>
-      </c>
-      <c r="AZ118">
-        <v>17</v>
-      </c>
-      <c r="BA118">
-        <v>5</v>
-      </c>
-      <c r="BB118">
-        <v>5</v>
-      </c>
-      <c r="BC118">
-        <v>10</v>
-      </c>
-      <c r="BD118">
-        <v>0</v>
-      </c>
-      <c r="BE118">
-        <v>0</v>
-      </c>
-      <c r="BF118">
-        <v>0</v>
-      </c>
-      <c r="BG118">
-        <v>0</v>
-      </c>
-      <c r="BH118">
-        <v>0</v>
-      </c>
-      <c r="BI118">
-        <v>0</v>
-      </c>
-      <c r="BJ118">
-        <v>0</v>
-      </c>
-      <c r="BK118">
-        <v>0</v>
-      </c>
-      <c r="BL118">
-        <v>0</v>
-      </c>
-      <c r="BM118">
-        <v>0</v>
-      </c>
-      <c r="BN118">
-        <v>0</v>
-      </c>
-      <c r="BO118">
-        <v>0</v>
-      </c>
-      <c r="BP118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:68">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>7453542</v>
-      </c>
-      <c r="C119" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45620.5</v>
-      </c>
-      <c r="F119">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>80</v>
-      </c>
-      <c r="H119" t="s">
-        <v>78</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119">
-        <v>2</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <v>2</v>
-      </c>
-      <c r="O119" t="s">
-        <v>150</v>
-      </c>
-      <c r="P119" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q119">
-        <v>4.5</v>
-      </c>
-      <c r="R119">
-        <v>2.1</v>
-      </c>
-      <c r="S119">
-        <v>2.6</v>
-      </c>
-      <c r="T119">
-        <v>1.44</v>
-      </c>
-      <c r="U119">
-        <v>2.63</v>
-      </c>
-      <c r="V119">
-        <v>3.25</v>
-      </c>
-      <c r="W119">
-        <v>1.33</v>
-      </c>
-      <c r="X119">
-        <v>9</v>
-      </c>
-      <c r="Y119">
-        <v>1.07</v>
-      </c>
-      <c r="Z119">
-        <v>3.6</v>
-      </c>
-      <c r="AA119">
-        <v>3.35</v>
-      </c>
-      <c r="AB119">
-        <v>1.99</v>
-      </c>
-      <c r="AC119">
-        <v>0</v>
-      </c>
-      <c r="AD119">
-        <v>0</v>
-      </c>
-      <c r="AE119">
-        <v>0</v>
-      </c>
-      <c r="AF119">
-        <v>0</v>
-      </c>
-      <c r="AG119">
-        <v>2.01</v>
-      </c>
-      <c r="AH119">
-        <v>1.83</v>
-      </c>
-      <c r="AI119">
-        <v>1.95</v>
-      </c>
-      <c r="AJ119">
-        <v>1.8</v>
-      </c>
-      <c r="AK119">
-        <v>0</v>
-      </c>
-      <c r="AL119">
-        <v>0</v>
-      </c>
-      <c r="AM119">
-        <v>0</v>
-      </c>
-      <c r="AN119">
-        <v>1.5</v>
-      </c>
-      <c r="AO119">
-        <v>0.71</v>
-      </c>
-      <c r="AP119">
-        <v>1.43</v>
-      </c>
-      <c r="AQ119">
-        <v>0.75</v>
-      </c>
-      <c r="AR119">
-        <v>1.33</v>
-      </c>
-      <c r="AS119">
-        <v>1.42</v>
-      </c>
-      <c r="AT119">
-        <v>2.75</v>
-      </c>
-      <c r="AU119">
-        <v>2</v>
-      </c>
-      <c r="AV119">
-        <v>5</v>
-      </c>
-      <c r="AW119">
-        <v>5</v>
-      </c>
-      <c r="AX119">
-        <v>5</v>
-      </c>
-      <c r="AY119">
-        <v>9</v>
-      </c>
-      <c r="AZ119">
-        <v>13</v>
-      </c>
-      <c r="BA119">
-        <v>6</v>
-      </c>
-      <c r="BB119">
-        <v>5</v>
-      </c>
-      <c r="BC119">
-        <v>11</v>
-      </c>
-      <c r="BD119">
-        <v>0</v>
-      </c>
-      <c r="BE119">
-        <v>0</v>
-      </c>
-      <c r="BF119">
-        <v>0</v>
-      </c>
-      <c r="BG119">
-        <v>0</v>
-      </c>
-      <c r="BH119">
-        <v>0</v>
-      </c>
-      <c r="BI119">
-        <v>0</v>
-      </c>
-      <c r="BJ119">
-        <v>0</v>
-      </c>
-      <c r="BK119">
-        <v>0</v>
-      </c>
-      <c r="BL119">
-        <v>0</v>
-      </c>
-      <c r="BM119">
-        <v>0</v>
-      </c>
-      <c r="BN119">
-        <v>0</v>
-      </c>
-      <c r="BO119">
-        <v>0</v>
-      </c>
-      <c r="BP119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:68">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>7453544</v>
-      </c>
-      <c r="C120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E120" s="2">
-        <v>45620.63541666666</v>
-      </c>
-      <c r="F120">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>77</v>
-      </c>
-      <c r="H120" t="s">
-        <v>75</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>4</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>4</v>
-      </c>
-      <c r="O120" t="s">
-        <v>177</v>
-      </c>
-      <c r="P120" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q120">
-        <v>2.2</v>
-      </c>
-      <c r="R120">
-        <v>2.4</v>
-      </c>
-      <c r="S120">
-        <v>4.75</v>
-      </c>
-      <c r="T120">
-        <v>1.3</v>
-      </c>
-      <c r="U120">
-        <v>3.4</v>
-      </c>
-      <c r="V120">
-        <v>2.38</v>
-      </c>
-      <c r="W120">
-        <v>1.53</v>
-      </c>
-      <c r="X120">
-        <v>6</v>
-      </c>
-      <c r="Y120">
-        <v>1.13</v>
-      </c>
-      <c r="Z120">
-        <v>1.63</v>
-      </c>
-      <c r="AA120">
-        <v>3.82</v>
-      </c>
-      <c r="AB120">
-        <v>4.44</v>
-      </c>
-      <c r="AC120">
-        <v>1.02</v>
-      </c>
-      <c r="AD120">
-        <v>15</v>
-      </c>
-      <c r="AE120">
-        <v>1.19</v>
-      </c>
-      <c r="AF120">
-        <v>5</v>
-      </c>
-      <c r="AG120">
-        <v>1.6</v>
-      </c>
-      <c r="AH120">
-        <v>2.15</v>
-      </c>
-      <c r="AI120">
-        <v>1.62</v>
-      </c>
-      <c r="AJ120">
-        <v>2.2</v>
-      </c>
-      <c r="AK120">
-        <v>1.2</v>
-      </c>
-      <c r="AL120">
-        <v>1.2</v>
-      </c>
-      <c r="AM120">
-        <v>2.15</v>
-      </c>
-      <c r="AN120">
-        <v>1.57</v>
-      </c>
-      <c r="AO120">
-        <v>0.57</v>
-      </c>
-      <c r="AP120">
-        <v>1.75</v>
-      </c>
-      <c r="AQ120">
-        <v>0.5</v>
-      </c>
-      <c r="AR120">
-        <v>1.8</v>
-      </c>
-      <c r="AS120">
-        <v>1.01</v>
-      </c>
-      <c r="AT120">
-        <v>2.81</v>
-      </c>
-      <c r="AU120">
-        <v>10</v>
-      </c>
-      <c r="AV120">
-        <v>3</v>
-      </c>
-      <c r="AW120">
-        <v>7</v>
-      </c>
-      <c r="AX120">
-        <v>3</v>
-      </c>
-      <c r="AY120">
-        <v>22</v>
-      </c>
-      <c r="AZ120">
-        <v>9</v>
-      </c>
-      <c r="BA120">
-        <v>8</v>
-      </c>
-      <c r="BB120">
-        <v>6</v>
-      </c>
-      <c r="BC120">
-        <v>14</v>
-      </c>
-      <c r="BD120">
-        <v>1.3</v>
-      </c>
-      <c r="BE120">
-        <v>8.6</v>
-      </c>
-      <c r="BF120">
-        <v>4.1</v>
-      </c>
-      <c r="BG120">
-        <v>1.12</v>
-      </c>
-      <c r="BH120">
-        <v>4.45</v>
-      </c>
-      <c r="BI120">
-        <v>1.25</v>
-      </c>
-      <c r="BJ120">
-        <v>3.5</v>
-      </c>
-      <c r="BK120">
-        <v>1.48</v>
-      </c>
-      <c r="BL120">
-        <v>2.42</v>
-      </c>
-      <c r="BM120">
-        <v>1.82</v>
-      </c>
-      <c r="BN120">
-        <v>1.82</v>
-      </c>
-      <c r="BO120">
-        <v>2.42</v>
-      </c>
-      <c r="BP120">
         <v>1.49</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,10 +532,22 @@
     <t>['53', '55']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['12', '22', '42', '48', '51', '57', '77']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['77', '83', '90']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['41', '71', '90+2']</t>
+  </si>
+  <si>
+    <t>['23', '38', '45+1', '77', '85', '88']</t>
   </si>
   <si>
     <t>['49', '70', '74', '90']</t>
@@ -704,6 +716,9 @@
   </si>
   <si>
     <t>['3', '14']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1068,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1405,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -2023,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2357,7 +2372,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2438,7 +2453,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3056,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3181,7 +3196,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3259,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3593,7 +3608,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3799,7 +3814,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3877,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.57</v>
@@ -4005,7 +4020,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4417,7 +4432,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4498,7 +4513,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4829,7 +4844,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5035,7 +5050,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5319,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5447,7 +5462,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5653,7 +5668,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5731,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -5940,7 +5955,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6065,7 +6080,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6146,7 +6161,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6477,7 +6492,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6683,7 +6698,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6764,7 +6779,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -6889,7 +6904,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6967,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.57</v>
@@ -7173,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.57</v>
@@ -7919,7 +7934,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8125,7 +8140,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8203,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8331,7 +8346,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8824,7 +8839,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9361,7 +9376,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9439,7 +9454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9567,7 +9582,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9648,7 +9663,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -10057,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10185,7 +10200,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10678,7 +10693,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10803,7 +10818,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11009,7 +11024,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11215,7 +11230,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11421,7 +11436,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11499,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11705,7 +11720,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12120,7 +12135,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12451,7 +12466,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12529,7 +12544,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1.71</v>
@@ -12863,7 +12878,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12944,7 +12959,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13069,7 +13084,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13353,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13481,7 +13496,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13559,10 +13574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -13765,7 +13780,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -13974,7 +13989,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14099,7 +14114,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14305,7 +14320,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14386,7 +14401,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -14511,7 +14526,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14717,7 +14732,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14923,7 +14938,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15129,7 +15144,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15413,10 +15428,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -15953,7 +15968,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16034,7 +16049,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16159,7 +16174,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16240,7 +16255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -16443,7 +16458,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16571,7 +16586,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17061,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17267,7 +17282,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.57</v>
@@ -17473,7 +17488,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17601,7 +17616,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17682,7 +17697,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -17807,7 +17822,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18013,7 +18028,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18300,7 +18315,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18506,7 +18521,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -18631,7 +18646,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18712,7 +18727,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19043,7 +19058,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19327,7 +19342,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19536,7 +19551,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ90">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19661,7 +19676,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19867,7 +19882,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20279,7 +20294,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20357,7 +20372,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20563,7 +20578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.57</v>
@@ -20691,7 +20706,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20897,7 +20912,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21184,7 +21199,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21309,7 +21324,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21390,7 +21405,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21515,7 +21530,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21721,7 +21736,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21799,7 +21814,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22417,7 +22432,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -22626,7 +22641,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ105">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -22751,7 +22766,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22957,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23163,7 +23178,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23575,7 +23590,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24193,7 +24208,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24357,7 +24372,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7453539</v>
+        <v>7453540</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24366,157 +24381,157 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45618.875</v>
+        <v>45618.69791666666</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H114" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="Q114">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R114">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S114">
         <v>5.5</v>
       </c>
       <c r="T114">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V114">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W114">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X114">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y114">
+        <v>1.11</v>
+      </c>
+      <c r="Z114">
+        <v>1.45</v>
+      </c>
+      <c r="AA114">
+        <v>4.7</v>
+      </c>
+      <c r="AB114">
+        <v>6.25</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>10</v>
+      </c>
+      <c r="AE114">
+        <v>1.2</v>
+      </c>
+      <c r="AF114">
+        <v>4.33</v>
+      </c>
+      <c r="AG114">
+        <v>1.64</v>
+      </c>
+      <c r="AH114">
+        <v>2.28</v>
+      </c>
+      <c r="AI114">
+        <v>1.7</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
         <v>1.12</v>
       </c>
-      <c r="Z114">
-        <v>1.51</v>
-      </c>
-      <c r="AA114">
-        <v>4.35</v>
-      </c>
-      <c r="AB114">
-        <v>5.3</v>
-      </c>
-      <c r="AC114">
-        <v>1.03</v>
-      </c>
-      <c r="AD114">
-        <v>15</v>
-      </c>
-      <c r="AE114">
-        <v>1.21</v>
-      </c>
-      <c r="AF114">
-        <v>4.25</v>
-      </c>
-      <c r="AG114">
-        <v>1.68</v>
-      </c>
-      <c r="AH114">
-        <v>2.18</v>
-      </c>
-      <c r="AI114">
-        <v>1.75</v>
-      </c>
-      <c r="AJ114">
-        <v>2.05</v>
-      </c>
-      <c r="AK114">
-        <v>1.14</v>
-      </c>
       <c r="AL114">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AM114">
         <v>2.5</v>
       </c>
       <c r="AN114">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="AO114">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT114">
-        <v>3.18</v>
+        <v>2.89</v>
       </c>
       <c r="AU114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW114">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY114">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ114">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BA114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB114">
         <v>2</v>
       </c>
       <c r="BC114">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD114">
         <v>0</v>
@@ -24563,7 +24578,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7453541</v>
+        <v>7453538</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24572,34 +24587,34 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45619.59375</v>
+        <v>45619.5</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O115" t="s">
         <v>173</v>
@@ -24608,121 +24623,121 @@
         <v>87</v>
       </c>
       <c r="Q115">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="R115">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="S115">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="T115">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="U115">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="V115">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="W115">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="X115">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y115">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z115">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AA115">
-        <v>5.21</v>
+        <v>6.96</v>
       </c>
       <c r="AB115">
+        <v>5.19</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>1.5</v>
+      </c>
+      <c r="AH115">
         <v>2.4</v>
-      </c>
-      <c r="AC115">
-        <v>1.04</v>
-      </c>
-      <c r="AD115">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AE115">
-        <v>1.31</v>
-      </c>
-      <c r="AF115">
-        <v>3.32</v>
-      </c>
-      <c r="AG115">
-        <v>2.01</v>
-      </c>
-      <c r="AH115">
-        <v>1.83</v>
       </c>
       <c r="AI115">
         <v>1.75</v>
       </c>
       <c r="AJ115">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK115">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AL115">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM115">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO115">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR115">
-        <v>1.18</v>
+        <v>2.07</v>
       </c>
       <c r="AS115">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT115">
-        <v>2.46</v>
+        <v>3.38</v>
       </c>
       <c r="AU115">
         <v>6</v>
       </c>
       <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
         <v>5</v>
       </c>
-      <c r="AW115">
+      <c r="AX115">
         <v>4</v>
-      </c>
-      <c r="AX115">
-        <v>5</v>
       </c>
       <c r="AY115">
         <v>11</v>
       </c>
       <c r="AZ115">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA115">
         <v>5</v>
       </c>
       <c r="BB115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC115">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD115">
         <v>0</v>
@@ -24769,7 +24784,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7453542</v>
+        <v>7453541</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24778,88 +24793,88 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.875</v>
+        <v>45619.59375</v>
       </c>
       <c r="F116">
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H116" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="Q116">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R116">
         <v>2.1</v>
       </c>
       <c r="S116">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="T116">
         <v>1.44</v>
       </c>
       <c r="U116">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="V116">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="W116">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X116">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y116">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z116">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AA116">
-        <v>3.35</v>
+        <v>5.21</v>
       </c>
       <c r="AB116">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="AC116">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AG116">
         <v>2.01</v>
@@ -24868,67 +24883,67 @@
         <v>1.83</v>
       </c>
       <c r="AI116">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ116">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK116">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AL116">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM116">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AN116">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT116">
-        <v>2.75</v>
+        <v>2.46</v>
       </c>
       <c r="AU116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV116">
+        <v>-1</v>
+      </c>
+      <c r="AW116">
+        <v>-1</v>
+      </c>
+      <c r="AX116">
+        <v>-1</v>
+      </c>
+      <c r="AY116">
+        <v>-1</v>
+      </c>
+      <c r="AZ116">
+        <v>-1</v>
+      </c>
+      <c r="BA116">
         <v>5</v>
-      </c>
-      <c r="AW116">
-        <v>5</v>
-      </c>
-      <c r="AX116">
-        <v>5</v>
-      </c>
-      <c r="AY116">
-        <v>9</v>
-      </c>
-      <c r="AZ116">
-        <v>13</v>
-      </c>
-      <c r="BA116">
-        <v>6</v>
       </c>
       <c r="BB116">
         <v>5</v>
       </c>
       <c r="BC116">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -24975,7 +24990,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7453544</v>
+        <v>7453539</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24984,16 +24999,16 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45619.875</v>
+        <v>45619.69791666666</v>
       </c>
       <c r="F117">
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H117" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -25005,174 +25020,998 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P117" t="s">
         <v>87</v>
       </c>
       <c r="Q117">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R117">
         <v>2.4</v>
       </c>
       <c r="S117">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="T117">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U117">
         <v>3.4</v>
       </c>
       <c r="V117">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W117">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X117">
         <v>6</v>
       </c>
       <c r="Y117">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Z117">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AA117">
-        <v>3.82</v>
+        <v>4.35</v>
       </c>
       <c r="AB117">
-        <v>4.44</v>
+        <v>5.3</v>
       </c>
       <c r="AC117">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD117">
         <v>15</v>
       </c>
       <c r="AE117">
+        <v>1.21</v>
+      </c>
+      <c r="AF117">
+        <v>4.25</v>
+      </c>
+      <c r="AG117">
+        <v>1.68</v>
+      </c>
+      <c r="AH117">
+        <v>2.18</v>
+      </c>
+      <c r="AI117">
+        <v>1.75</v>
+      </c>
+      <c r="AJ117">
+        <v>2.05</v>
+      </c>
+      <c r="AK117">
+        <v>1.14</v>
+      </c>
+      <c r="AL117">
         <v>1.19</v>
       </c>
-      <c r="AF117">
-        <v>5</v>
-      </c>
-      <c r="AG117">
-        <v>1.6</v>
-      </c>
-      <c r="AH117">
-        <v>2.15</v>
-      </c>
-      <c r="AI117">
-        <v>1.62</v>
-      </c>
-      <c r="AJ117">
-        <v>2.2</v>
-      </c>
-      <c r="AK117">
-        <v>1.2</v>
-      </c>
-      <c r="AL117">
-        <v>1.2</v>
-      </c>
       <c r="AM117">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="AN117">
-        <v>1.57</v>
+        <v>2.71</v>
       </c>
       <c r="AO117">
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
       </c>
       <c r="AR117">
+        <v>1.85</v>
+      </c>
+      <c r="AS117">
+        <v>1.33</v>
+      </c>
+      <c r="AT117">
+        <v>3.18</v>
+      </c>
+      <c r="AU117">
+        <v>-1</v>
+      </c>
+      <c r="AV117">
+        <v>-1</v>
+      </c>
+      <c r="AW117">
+        <v>-1</v>
+      </c>
+      <c r="AX117">
+        <v>-1</v>
+      </c>
+      <c r="AY117">
+        <v>-1</v>
+      </c>
+      <c r="AZ117">
+        <v>-1</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7453543</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45620.39583333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>176</v>
+      </c>
+      <c r="P118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q118">
+        <v>1.91</v>
+      </c>
+      <c r="R118">
+        <v>2.63</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>1.22</v>
+      </c>
+      <c r="U118">
+        <v>4</v>
+      </c>
+      <c r="V118">
+        <v>2.1</v>
+      </c>
+      <c r="W118">
+        <v>1.67</v>
+      </c>
+      <c r="X118">
+        <v>4.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.18</v>
+      </c>
+      <c r="Z118">
+        <v>1.41</v>
+      </c>
+      <c r="AA118">
+        <v>4.9</v>
+      </c>
+      <c r="AB118">
+        <v>5.9</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>1.42</v>
+      </c>
+      <c r="AH118">
+        <v>2.74</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1.86</v>
+      </c>
+      <c r="AO118">
+        <v>0.14</v>
+      </c>
+      <c r="AP118">
+        <v>2</v>
+      </c>
+      <c r="AQ118">
+        <v>0.13</v>
+      </c>
+      <c r="AR118">
+        <v>1.51</v>
+      </c>
+      <c r="AS118">
+        <v>0.95</v>
+      </c>
+      <c r="AT118">
+        <v>2.46</v>
+      </c>
+      <c r="AU118">
+        <v>11</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>17</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7453542</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45620.5</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>78</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>150</v>
+      </c>
+      <c r="P119" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q119">
+        <v>4.5</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>2.6</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>3.6</v>
+      </c>
+      <c r="AA119">
+        <v>3.35</v>
+      </c>
+      <c r="AB119">
+        <v>1.99</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>2.01</v>
+      </c>
+      <c r="AH119">
+        <v>1.83</v>
+      </c>
+      <c r="AI119">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119">
         <v>1.8</v>
       </c>
-      <c r="AS117">
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.71</v>
+      </c>
+      <c r="AP119">
+        <v>1.43</v>
+      </c>
+      <c r="AQ119">
+        <v>0.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.42</v>
+      </c>
+      <c r="AT119">
+        <v>2.75</v>
+      </c>
+      <c r="AU119">
+        <v>-1</v>
+      </c>
+      <c r="AV119">
+        <v>-1</v>
+      </c>
+      <c r="AW119">
+        <v>-1</v>
+      </c>
+      <c r="AX119">
+        <v>-1</v>
+      </c>
+      <c r="AY119">
+        <v>-1</v>
+      </c>
+      <c r="AZ119">
+        <v>-1</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7454756</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45620.60416666666</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>85</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" t="s">
+        <v>177</v>
+      </c>
+      <c r="P120" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q120">
+        <v>2.5</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>4</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.5</v>
+      </c>
+      <c r="W120">
+        <v>1.5</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.13</v>
+      </c>
+      <c r="Z120">
+        <v>1.91</v>
+      </c>
+      <c r="AA120">
+        <v>3.28</v>
+      </c>
+      <c r="AB120">
+        <v>3.32</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>13</v>
+      </c>
+      <c r="AE120">
+        <v>1.23</v>
+      </c>
+      <c r="AF120">
+        <v>4.33</v>
+      </c>
+      <c r="AG120">
+        <v>1.7</v>
+      </c>
+      <c r="AH120">
+        <v>2</v>
+      </c>
+      <c r="AI120">
+        <v>1.62</v>
+      </c>
+      <c r="AJ120">
+        <v>2.2</v>
+      </c>
+      <c r="AK120">
+        <v>1.28</v>
+      </c>
+      <c r="AL120">
+        <v>1.24</v>
+      </c>
+      <c r="AM120">
+        <v>1.88</v>
+      </c>
+      <c r="AN120">
+        <v>1.71</v>
+      </c>
+      <c r="AO120">
+        <v>1.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.88</v>
+      </c>
+      <c r="AQ120">
+        <v>1.13</v>
+      </c>
+      <c r="AR120">
+        <v>1.64</v>
+      </c>
+      <c r="AS120">
+        <v>0.99</v>
+      </c>
+      <c r="AT120">
+        <v>2.63</v>
+      </c>
+      <c r="AU120">
+        <v>12</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>1</v>
+      </c>
+      <c r="AY120">
+        <v>19</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.39</v>
+      </c>
+      <c r="BE120">
+        <v>7.8</v>
+      </c>
+      <c r="BF120">
+        <v>3.55</v>
+      </c>
+      <c r="BG120">
+        <v>1.18</v>
+      </c>
+      <c r="BH120">
+        <v>4.2</v>
+      </c>
+      <c r="BI120">
+        <v>1.39</v>
+      </c>
+      <c r="BJ120">
+        <v>2.75</v>
+      </c>
+      <c r="BK120">
+        <v>1.68</v>
+      </c>
+      <c r="BL120">
+        <v>2.02</v>
+      </c>
+      <c r="BM120">
+        <v>2.18</v>
+      </c>
+      <c r="BN120">
+        <v>1.58</v>
+      </c>
+      <c r="BO120">
+        <v>2.95</v>
+      </c>
+      <c r="BP120">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7453544</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45620.63541666666</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>178</v>
+      </c>
+      <c r="P121" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q121">
+        <v>2.2</v>
+      </c>
+      <c r="R121">
+        <v>2.4</v>
+      </c>
+      <c r="S121">
+        <v>4.75</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.4</v>
+      </c>
+      <c r="V121">
+        <v>2.38</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.13</v>
+      </c>
+      <c r="Z121">
+        <v>1.63</v>
+      </c>
+      <c r="AA121">
+        <v>3.82</v>
+      </c>
+      <c r="AB121">
+        <v>4.44</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>15</v>
+      </c>
+      <c r="AE121">
+        <v>1.19</v>
+      </c>
+      <c r="AF121">
+        <v>5</v>
+      </c>
+      <c r="AG121">
+        <v>1.6</v>
+      </c>
+      <c r="AH121">
+        <v>2.15</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.2</v>
+      </c>
+      <c r="AL121">
+        <v>1.2</v>
+      </c>
+      <c r="AM121">
+        <v>2.15</v>
+      </c>
+      <c r="AN121">
+        <v>1.57</v>
+      </c>
+      <c r="AO121">
+        <v>0.57</v>
+      </c>
+      <c r="AP121">
+        <v>1.75</v>
+      </c>
+      <c r="AQ121">
+        <v>0.5</v>
+      </c>
+      <c r="AR121">
+        <v>1.8</v>
+      </c>
+      <c r="AS121">
         <v>1.01</v>
       </c>
-      <c r="AT117">
+      <c r="AT121">
         <v>2.81</v>
       </c>
-      <c r="AU117">
-        <v>10</v>
-      </c>
-      <c r="AV117">
-        <v>3</v>
-      </c>
-      <c r="AW117">
-        <v>7</v>
-      </c>
-      <c r="AX117">
-        <v>3</v>
-      </c>
-      <c r="AY117">
-        <v>22</v>
-      </c>
-      <c r="AZ117">
-        <v>9</v>
-      </c>
-      <c r="BA117">
+      <c r="AU121">
+        <v>-1</v>
+      </c>
+      <c r="AV121">
+        <v>-1</v>
+      </c>
+      <c r="AW121">
+        <v>-1</v>
+      </c>
+      <c r="AX121">
+        <v>-1</v>
+      </c>
+      <c r="AY121">
+        <v>-1</v>
+      </c>
+      <c r="AZ121">
+        <v>-1</v>
+      </c>
+      <c r="BA121">
         <v>8</v>
       </c>
-      <c r="BB117">
+      <c r="BB121">
         <v>6</v>
       </c>
-      <c r="BC117">
+      <c r="BC121">
         <v>14</v>
       </c>
-      <c r="BD117">
+      <c r="BD121">
         <v>1.3</v>
       </c>
-      <c r="BE117">
+      <c r="BE121">
         <v>8.6</v>
       </c>
-      <c r="BF117">
+      <c r="BF121">
         <v>4.1</v>
       </c>
-      <c r="BG117">
+      <c r="BG121">
         <v>1.12</v>
       </c>
-      <c r="BH117">
+      <c r="BH121">
         <v>4.45</v>
       </c>
-      <c r="BI117">
+      <c r="BI121">
         <v>1.25</v>
       </c>
-      <c r="BJ117">
+      <c r="BJ121">
         <v>3.5</v>
       </c>
-      <c r="BK117">
+      <c r="BK121">
         <v>1.48</v>
       </c>
-      <c r="BL117">
+      <c r="BL121">
         <v>2.42</v>
       </c>
-      <c r="BM117">
+      <c r="BM121">
         <v>1.82</v>
       </c>
-      <c r="BN117">
+      <c r="BN121">
         <v>1.82</v>
       </c>
-      <c r="BO117">
+      <c r="BO121">
         <v>2.42</v>
       </c>
-      <c r="BP117">
+      <c r="BP121">
         <v>1.49</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -24919,22 +24919,22 @@
         <v>2.46</v>
       </c>
       <c r="AU116">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV116">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX116">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY116">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ116">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25125,22 +25125,22 @@
         <v>3.18</v>
       </c>
       <c r="AU117">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV117">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW117">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX117">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY117">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ117">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA117">
         <v>5</v>
@@ -25537,22 +25537,22 @@
         <v>2.75</v>
       </c>
       <c r="AU119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV119">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW119">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX119">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY119">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ119">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA119">
         <v>6</v>
@@ -25949,22 +25949,22 @@
         <v>2.81</v>
       </c>
       <c r="AU121">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW121">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX121">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY121">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ121">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA121">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['49', '70', '74', '90']</t>
   </si>
   <si>
+    <t>['25', '45+3', '90']</t>
+  </si>
+  <si>
+    <t>['24', '33', '89', '90+1']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1351,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1420,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2247,7 +2256,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2372,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2450,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
         <v>1.13</v>
@@ -2656,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>1.57</v>
@@ -3196,7 +3205,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3608,7 +3617,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3814,7 +3823,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4020,7 +4029,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4432,7 +4441,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4513,7 +4522,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4719,7 +4728,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0.9399999999999999</v>
@@ -4844,7 +4853,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5050,7 +5059,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5462,7 +5471,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5668,7 +5677,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5952,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6080,7 +6089,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6492,7 +6501,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6698,7 +6707,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6779,7 +6788,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -6904,7 +6913,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7188,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>1.57</v>
@@ -7600,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7934,7 +7943,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8140,7 +8149,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8221,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.22</v>
@@ -8346,7 +8355,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9042,7 +9051,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9376,7 +9385,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9582,7 +9591,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9663,7 +9672,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -9869,7 +9878,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10072,7 +10081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10200,7 +10209,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10690,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -10818,7 +10827,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10899,7 +10908,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -11024,7 +11033,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11230,7 +11239,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11308,7 +11317,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -11436,7 +11445,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12132,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.13</v>
@@ -12341,7 +12350,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.72</v>
@@ -12466,7 +12475,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12878,7 +12887,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13084,7 +13093,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13496,7 +13505,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13574,7 +13583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13989,7 +13998,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14320,7 +14329,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14526,7 +14535,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14604,7 +14613,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -14732,7 +14741,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14813,7 +14822,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14938,7 +14947,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15144,7 +15153,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15968,7 +15977,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16174,7 +16183,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16586,7 +16595,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16664,7 +16673,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>1.71</v>
@@ -17079,7 +17088,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17488,7 +17497,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17616,7 +17625,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17822,7 +17831,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18028,7 +18037,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18315,7 +18324,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18646,7 +18655,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19058,7 +19067,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19548,7 +19557,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90">
         <v>0.13</v>
@@ -19676,7 +19685,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19754,7 +19763,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ91">
         <v>0.88</v>
@@ -19882,7 +19891,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19963,7 +19972,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.14</v>
@@ -20294,7 +20303,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20372,7 +20381,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20581,7 +20590,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.79</v>
@@ -20706,7 +20715,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20912,7 +20921,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21199,7 +21208,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21324,7 +21333,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21530,7 +21539,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21736,7 +21745,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22766,7 +22775,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22847,7 +22856,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -22972,7 +22981,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23050,7 +23059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
         <v>1.57</v>
@@ -23178,7 +23187,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23462,7 +23471,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23590,7 +23599,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23877,7 +23886,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ111">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24208,7 +24217,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24414,7 +24423,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24495,7 +24504,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -24698,7 +24707,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>0.63</v>
@@ -25444,7 +25453,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26013,6 +26022,624 @@
       </c>
       <c r="BP121">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7453547</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45625.69791666666</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>179</v>
+      </c>
+      <c r="P122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q122">
+        <v>3.5</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>2.75</v>
+      </c>
+      <c r="T122">
+        <v>1.33</v>
+      </c>
+      <c r="U122">
+        <v>3.25</v>
+      </c>
+      <c r="V122">
+        <v>2.5</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>6.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.11</v>
+      </c>
+      <c r="Z122">
+        <v>3</v>
+      </c>
+      <c r="AA122">
+        <v>3.7</v>
+      </c>
+      <c r="AB122">
+        <v>2.24</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>16</v>
+      </c>
+      <c r="AE122">
+        <v>1.19</v>
+      </c>
+      <c r="AF122">
+        <v>4.7</v>
+      </c>
+      <c r="AG122">
+        <v>1.65</v>
+      </c>
+      <c r="AH122">
+        <v>2.1</v>
+      </c>
+      <c r="AI122">
+        <v>1.57</v>
+      </c>
+      <c r="AJ122">
+        <v>2.25</v>
+      </c>
+      <c r="AK122">
+        <v>1.7</v>
+      </c>
+      <c r="AL122">
+        <v>1.24</v>
+      </c>
+      <c r="AM122">
+        <v>1.38</v>
+      </c>
+      <c r="AN122">
+        <v>1.43</v>
+      </c>
+      <c r="AO122">
+        <v>1.14</v>
+      </c>
+      <c r="AP122">
+        <v>1.63</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.47</v>
+      </c>
+      <c r="AS122">
+        <v>1.28</v>
+      </c>
+      <c r="AT122">
+        <v>2.75</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
+        <v>8</v>
+      </c>
+      <c r="BD122">
+        <v>1.95</v>
+      </c>
+      <c r="BE122">
+        <v>6.4</v>
+      </c>
+      <c r="BF122">
+        <v>1.95</v>
+      </c>
+      <c r="BG122">
+        <v>1.23</v>
+      </c>
+      <c r="BH122">
+        <v>3.65</v>
+      </c>
+      <c r="BI122">
+        <v>1.4</v>
+      </c>
+      <c r="BJ122">
+        <v>2.7</v>
+      </c>
+      <c r="BK122">
+        <v>1.65</v>
+      </c>
+      <c r="BL122">
+        <v>2.08</v>
+      </c>
+      <c r="BM122">
+        <v>1.95</v>
+      </c>
+      <c r="BN122">
+        <v>1.77</v>
+      </c>
+      <c r="BO122">
+        <v>2.55</v>
+      </c>
+      <c r="BP122">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7453545</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45626.59375</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>180</v>
+      </c>
+      <c r="P123" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q123">
+        <v>1.65</v>
+      </c>
+      <c r="R123">
+        <v>2.95</v>
+      </c>
+      <c r="S123">
+        <v>7.5</v>
+      </c>
+      <c r="T123">
+        <v>1.22</v>
+      </c>
+      <c r="U123">
+        <v>4.33</v>
+      </c>
+      <c r="V123">
+        <v>2.1</v>
+      </c>
+      <c r="W123">
+        <v>1.72</v>
+      </c>
+      <c r="X123">
+        <v>4.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.19</v>
+      </c>
+      <c r="Z123">
+        <v>1.26</v>
+      </c>
+      <c r="AA123">
+        <v>5.4</v>
+      </c>
+      <c r="AB123">
+        <v>7.9</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>22</v>
+      </c>
+      <c r="AE123">
+        <v>1.12</v>
+      </c>
+      <c r="AF123">
+        <v>5.87</v>
+      </c>
+      <c r="AG123">
+        <v>1.44</v>
+      </c>
+      <c r="AH123">
+        <v>2.6</v>
+      </c>
+      <c r="AI123">
+        <v>1.83</v>
+      </c>
+      <c r="AJ123">
+        <v>1.96</v>
+      </c>
+      <c r="AK123">
+        <v>1.02</v>
+      </c>
+      <c r="AL123">
+        <v>1.09</v>
+      </c>
+      <c r="AM123">
+        <v>4</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>2.13</v>
+      </c>
+      <c r="AQ123">
+        <v>1.13</v>
+      </c>
+      <c r="AR123">
+        <v>2.07</v>
+      </c>
+      <c r="AS123">
+        <v>1.13</v>
+      </c>
+      <c r="AT123">
+        <v>3.2</v>
+      </c>
+      <c r="AU123">
+        <v>9</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>19</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>6</v>
+      </c>
+      <c r="BD123">
+        <v>1.17</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>4.8</v>
+      </c>
+      <c r="BG123">
+        <v>1.3</v>
+      </c>
+      <c r="BH123">
+        <v>3.1</v>
+      </c>
+      <c r="BI123">
+        <v>1.52</v>
+      </c>
+      <c r="BJ123">
+        <v>2.32</v>
+      </c>
+      <c r="BK123">
+        <v>1.77</v>
+      </c>
+      <c r="BL123">
+        <v>1.95</v>
+      </c>
+      <c r="BM123">
+        <v>2.32</v>
+      </c>
+      <c r="BN123">
+        <v>1.53</v>
+      </c>
+      <c r="BO123">
+        <v>2.9</v>
+      </c>
+      <c r="BP123">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7453551</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45626.69791666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>162</v>
+      </c>
+      <c r="P124" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q124">
+        <v>2.6</v>
+      </c>
+      <c r="R124">
+        <v>2.1</v>
+      </c>
+      <c r="S124">
+        <v>4.5</v>
+      </c>
+      <c r="T124">
+        <v>1.48</v>
+      </c>
+      <c r="U124">
+        <v>2.7</v>
+      </c>
+      <c r="V124">
+        <v>3.25</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>9</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>1.91</v>
+      </c>
+      <c r="AA124">
+        <v>3.04</v>
+      </c>
+      <c r="AB124">
+        <v>3.61</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>8.91</v>
+      </c>
+      <c r="AE124">
+        <v>1.39</v>
+      </c>
+      <c r="AF124">
+        <v>2.91</v>
+      </c>
+      <c r="AG124">
+        <v>2.1</v>
+      </c>
+      <c r="AH124">
+        <v>1.65</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.78</v>
+      </c>
+      <c r="AK124">
+        <v>1.24</v>
+      </c>
+      <c r="AL124">
+        <v>1.26</v>
+      </c>
+      <c r="AM124">
+        <v>1.92</v>
+      </c>
+      <c r="AN124">
+        <v>1.86</v>
+      </c>
+      <c r="AO124">
+        <v>0.57</v>
+      </c>
+      <c r="AP124">
+        <v>1.75</v>
+      </c>
+      <c r="AQ124">
+        <v>0.63</v>
+      </c>
+      <c r="AR124">
+        <v>1.8</v>
+      </c>
+      <c r="AS124">
+        <v>0.91</v>
+      </c>
+      <c r="AT124">
+        <v>2.71</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>18</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>8</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.48</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>2.7</v>
+      </c>
+      <c r="BG124">
+        <v>1.24</v>
+      </c>
+      <c r="BH124">
+        <v>3.55</v>
+      </c>
+      <c r="BI124">
+        <v>1.44</v>
+      </c>
+      <c r="BJ124">
+        <v>2.55</v>
+      </c>
+      <c r="BK124">
+        <v>1.7</v>
+      </c>
+      <c r="BL124">
+        <v>2</v>
+      </c>
+      <c r="BM124">
+        <v>2.08</v>
+      </c>
+      <c r="BN124">
+        <v>1.66</v>
+      </c>
+      <c r="BO124">
+        <v>2.65</v>
+      </c>
+      <c r="BP124">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['24', '33', '89', '90+1']</t>
   </si>
   <si>
+    <t>['66', '77']</t>
+  </si>
+  <si>
+    <t>['54', '81', '88']</t>
+  </si>
+  <si>
+    <t>['45+5', '69']</t>
+  </si>
+  <si>
+    <t>['15', '86']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -731,6 +743,18 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['26', '90+3']</t>
+  </si>
+  <si>
+    <t>['36', '45+3']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['42', '47']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1375,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1841,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
         <v>0.88</v>
@@ -2381,7 +2405,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2462,7 +2486,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,7 +2692,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2871,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3077,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>0.13</v>
@@ -3205,7 +3229,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3489,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3617,7 +3641,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3695,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3823,7 +3847,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3904,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4029,7 +4053,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4441,7 +4465,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4853,7 +4877,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5059,7 +5083,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5137,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5471,7 +5495,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5677,7 +5701,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5964,7 +5988,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6089,7 +6113,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6373,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6501,7 +6525,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6579,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -6707,7 +6731,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6785,7 +6809,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -6913,7 +6937,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -6994,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -7200,7 +7224,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -7403,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -7943,7 +7967,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8021,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8149,7 +8173,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8355,7 +8379,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8639,7 +8663,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -9385,7 +9409,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9591,7 +9615,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9669,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -9875,7 +9899,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>0.63</v>
@@ -10084,7 +10108,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.89</v>
@@ -10209,7 +10233,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10290,7 +10314,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10493,10 +10517,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -10827,7 +10851,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11033,7 +11057,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11114,7 +11138,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -11239,7 +11263,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11445,7 +11469,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11935,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -12475,7 +12499,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12556,7 +12580,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -12887,7 +12911,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12965,7 +12989,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
         <v>0.63</v>
@@ -13093,7 +13117,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13171,10 +13195,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13505,7 +13529,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13586,7 +13610,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -13792,7 +13816,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.5</v>
@@ -14201,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14329,7 +14353,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14410,7 +14434,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -14535,7 +14559,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14741,7 +14765,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14947,7 +14971,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15153,7 +15177,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15234,7 +15258,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -15643,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15977,7 +16001,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16183,7 +16207,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16261,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0.13</v>
@@ -16595,7 +16619,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16676,7 +16700,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17294,7 +17318,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.88</v>
@@ -17625,7 +17649,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17703,10 +17727,10 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -17831,7 +17855,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17909,10 +17933,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18037,7 +18061,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18115,7 +18139,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18527,10 +18551,10 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -18655,7 +18679,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18939,10 +18963,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19067,7 +19091,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19685,7 +19709,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19891,7 +19915,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20175,7 +20199,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20303,7 +20327,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20384,7 +20408,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -20715,7 +20739,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20796,7 +20820,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -20921,7 +20945,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20999,10 +21023,10 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21205,7 +21229,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21333,7 +21357,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21539,7 +21563,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21617,7 +21641,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -21745,7 +21769,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22032,7 +22056,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -22647,10 +22671,10 @@
         <v>1.33</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -22775,7 +22799,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22853,7 +22877,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -22981,7 +23005,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23062,7 +23086,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -23187,7 +23211,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23599,7 +23623,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23680,7 +23704,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -24089,10 +24113,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -24217,7 +24241,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24295,7 +24319,7 @@
         <v>1.86</v>
       </c>
       <c r="AP113">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
         <v>1.75</v>
@@ -24423,7 +24447,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24916,7 +24940,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR116">
         <v>1.18</v>
@@ -25453,7 +25477,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25531,7 +25555,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>0.75</v>
@@ -25740,7 +25764,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -25943,7 +25967,7 @@
         <v>0.57</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26071,7 +26095,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26640,6 +26664,1036 @@
       </c>
       <c r="BP124">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7453550</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45627.39583333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s">
+        <v>74</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>181</v>
+      </c>
+      <c r="P125" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q125">
+        <v>4.75</v>
+      </c>
+      <c r="R125">
+        <v>2.4</v>
+      </c>
+      <c r="S125">
+        <v>2.2</v>
+      </c>
+      <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.6</v>
+      </c>
+      <c r="V125">
+        <v>2.35</v>
+      </c>
+      <c r="W125">
+        <v>1.58</v>
+      </c>
+      <c r="X125">
+        <v>5.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>4.03</v>
+      </c>
+      <c r="AA125">
+        <v>4.09</v>
+      </c>
+      <c r="AB125">
+        <v>1.73</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>15.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.14</v>
+      </c>
+      <c r="AF125">
+        <v>4.2</v>
+      </c>
+      <c r="AG125">
+        <v>1.55</v>
+      </c>
+      <c r="AH125">
+        <v>2.3</v>
+      </c>
+      <c r="AI125">
+        <v>1.6</v>
+      </c>
+      <c r="AJ125">
+        <v>2.3</v>
+      </c>
+      <c r="AK125">
+        <v>2.25</v>
+      </c>
+      <c r="AL125">
+        <v>1.2</v>
+      </c>
+      <c r="AM125">
+        <v>1.2</v>
+      </c>
+      <c r="AN125">
+        <v>1.71</v>
+      </c>
+      <c r="AO125">
+        <v>1.71</v>
+      </c>
+      <c r="AP125">
+        <v>1.63</v>
+      </c>
+      <c r="AQ125">
+        <v>1.63</v>
+      </c>
+      <c r="AR125">
+        <v>1.37</v>
+      </c>
+      <c r="AS125">
+        <v>1.78</v>
+      </c>
+      <c r="AT125">
+        <v>3.15</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>6</v>
+      </c>
+      <c r="AX125">
+        <v>9</v>
+      </c>
+      <c r="AY125">
+        <v>16</v>
+      </c>
+      <c r="AZ125">
+        <v>23</v>
+      </c>
+      <c r="BA125">
+        <v>5</v>
+      </c>
+      <c r="BB125">
+        <v>7</v>
+      </c>
+      <c r="BC125">
+        <v>12</v>
+      </c>
+      <c r="BD125">
+        <v>2.65</v>
+      </c>
+      <c r="BE125">
+        <v>6.5</v>
+      </c>
+      <c r="BF125">
+        <v>1.49</v>
+      </c>
+      <c r="BG125">
+        <v>1.27</v>
+      </c>
+      <c r="BH125">
+        <v>3.3</v>
+      </c>
+      <c r="BI125">
+        <v>1.47</v>
+      </c>
+      <c r="BJ125">
+        <v>2.48</v>
+      </c>
+      <c r="BK125">
+        <v>1.76</v>
+      </c>
+      <c r="BL125">
+        <v>1.95</v>
+      </c>
+      <c r="BM125">
+        <v>2.18</v>
+      </c>
+      <c r="BN125">
+        <v>1.58</v>
+      </c>
+      <c r="BO125">
+        <v>2.8</v>
+      </c>
+      <c r="BP125">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7453549</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>87</v>
+      </c>
+      <c r="P126" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>2.2</v>
+      </c>
+      <c r="S126">
+        <v>2.88</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>8</v>
+      </c>
+      <c r="Y126">
+        <v>1.08</v>
+      </c>
+      <c r="Z126">
+        <v>2.83</v>
+      </c>
+      <c r="AA126">
+        <v>3.3</v>
+      </c>
+      <c r="AB126">
+        <v>2.45</v>
+      </c>
+      <c r="AC126">
+        <v>1.05</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.45</v>
+      </c>
+      <c r="AG126">
+        <v>1.88</v>
+      </c>
+      <c r="AH126">
+        <v>1.9</v>
+      </c>
+      <c r="AI126">
+        <v>1.7</v>
+      </c>
+      <c r="AJ126">
+        <v>2.05</v>
+      </c>
+      <c r="AK126">
+        <v>1.6</v>
+      </c>
+      <c r="AL126">
+        <v>1.25</v>
+      </c>
+      <c r="AM126">
+        <v>1.36</v>
+      </c>
+      <c r="AN126">
+        <v>1.43</v>
+      </c>
+      <c r="AO126">
+        <v>1.57</v>
+      </c>
+      <c r="AP126">
+        <v>1.38</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>1.26</v>
+      </c>
+      <c r="AS126">
+        <v>1.43</v>
+      </c>
+      <c r="AT126">
+        <v>2.69</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>18</v>
+      </c>
+      <c r="AZ126">
+        <v>12</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
+        <v>7</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>1.84</v>
+      </c>
+      <c r="BE126">
+        <v>6.5</v>
+      </c>
+      <c r="BF126">
+        <v>2.05</v>
+      </c>
+      <c r="BG126">
+        <v>1.21</v>
+      </c>
+      <c r="BH126">
+        <v>3.9</v>
+      </c>
+      <c r="BI126">
+        <v>1.35</v>
+      </c>
+      <c r="BJ126">
+        <v>2.88</v>
+      </c>
+      <c r="BK126">
+        <v>1.58</v>
+      </c>
+      <c r="BL126">
+        <v>2.18</v>
+      </c>
+      <c r="BM126">
+        <v>2.05</v>
+      </c>
+      <c r="BN126">
+        <v>1.7</v>
+      </c>
+      <c r="BO126">
+        <v>2.4</v>
+      </c>
+      <c r="BP126">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7453548</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>182</v>
+      </c>
+      <c r="P127" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>2.5</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.63</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>3.63</v>
+      </c>
+      <c r="AA127">
+        <v>3.76</v>
+      </c>
+      <c r="AB127">
+        <v>1.89</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>9.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>3.95</v>
+      </c>
+      <c r="AG127">
+        <v>1.65</v>
+      </c>
+      <c r="AH127">
+        <v>2.05</v>
+      </c>
+      <c r="AI127">
+        <v>1.62</v>
+      </c>
+      <c r="AJ127">
+        <v>2.2</v>
+      </c>
+      <c r="AK127">
+        <v>1.85</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.25</v>
+      </c>
+      <c r="AN127">
+        <v>0.86</v>
+      </c>
+      <c r="AO127">
+        <v>0.57</v>
+      </c>
+      <c r="AP127">
+        <v>1.13</v>
+      </c>
+      <c r="AQ127">
+        <v>0.5</v>
+      </c>
+      <c r="AR127">
+        <v>0.92</v>
+      </c>
+      <c r="AS127">
+        <v>1.33</v>
+      </c>
+      <c r="AT127">
+        <v>2.25</v>
+      </c>
+      <c r="AU127">
+        <v>9</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>9</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>22</v>
+      </c>
+      <c r="AZ127">
+        <v>12</v>
+      </c>
+      <c r="BA127">
+        <v>10</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>15</v>
+      </c>
+      <c r="BD127">
+        <v>2.55</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>1.53</v>
+      </c>
+      <c r="BG127">
+        <v>1.21</v>
+      </c>
+      <c r="BH127">
+        <v>3.9</v>
+      </c>
+      <c r="BI127">
+        <v>1.36</v>
+      </c>
+      <c r="BJ127">
+        <v>2.8</v>
+      </c>
+      <c r="BK127">
+        <v>1.6</v>
+      </c>
+      <c r="BL127">
+        <v>2.17</v>
+      </c>
+      <c r="BM127">
+        <v>2.05</v>
+      </c>
+      <c r="BN127">
+        <v>1.7</v>
+      </c>
+      <c r="BO127">
+        <v>2.4</v>
+      </c>
+      <c r="BP127">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7453546</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45627.60416666666</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>78</v>
+      </c>
+      <c r="H128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>183</v>
+      </c>
+      <c r="P128" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q128">
+        <v>2.5</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>4.5</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>1.91</v>
+      </c>
+      <c r="AA128">
+        <v>3.16</v>
+      </c>
+      <c r="AB128">
+        <v>3.47</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>11</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.52</v>
+      </c>
+      <c r="AG128">
+        <v>1.98</v>
+      </c>
+      <c r="AH128">
+        <v>1.9</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>1.22</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.98</v>
+      </c>
+      <c r="AN128">
+        <v>2</v>
+      </c>
+      <c r="AO128">
+        <v>1.57</v>
+      </c>
+      <c r="AP128">
+        <v>2.13</v>
+      </c>
+      <c r="AQ128">
+        <v>1.38</v>
+      </c>
+      <c r="AR128">
+        <v>1.7</v>
+      </c>
+      <c r="AS128">
+        <v>1.23</v>
+      </c>
+      <c r="AT128">
+        <v>2.93</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>6</v>
+      </c>
+      <c r="AY128">
+        <v>20</v>
+      </c>
+      <c r="AZ128">
+        <v>15</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.54</v>
+      </c>
+      <c r="BE128">
+        <v>6.4</v>
+      </c>
+      <c r="BF128">
+        <v>2.55</v>
+      </c>
+      <c r="BG128">
+        <v>1.28</v>
+      </c>
+      <c r="BH128">
+        <v>3.2</v>
+      </c>
+      <c r="BI128">
+        <v>1.5</v>
+      </c>
+      <c r="BJ128">
+        <v>2.4</v>
+      </c>
+      <c r="BK128">
+        <v>1.77</v>
+      </c>
+      <c r="BL128">
+        <v>1.95</v>
+      </c>
+      <c r="BM128">
+        <v>2.23</v>
+      </c>
+      <c r="BN128">
+        <v>1.57</v>
+      </c>
+      <c r="BO128">
+        <v>2.85</v>
+      </c>
+      <c r="BP128">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7454757</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45627.63541666666</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>184</v>
+      </c>
+      <c r="P129" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q129">
+        <v>2.75</v>
+      </c>
+      <c r="R129">
+        <v>2.4</v>
+      </c>
+      <c r="S129">
+        <v>3.4</v>
+      </c>
+      <c r="T129">
+        <v>1.29</v>
+      </c>
+      <c r="U129">
+        <v>3.5</v>
+      </c>
+      <c r="V129">
+        <v>2.25</v>
+      </c>
+      <c r="W129">
+        <v>1.57</v>
+      </c>
+      <c r="X129">
+        <v>5.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.14</v>
+      </c>
+      <c r="Z129">
+        <v>2.29</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>2.64</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>19</v>
+      </c>
+      <c r="AE129">
+        <v>1.16</v>
+      </c>
+      <c r="AF129">
+        <v>4.87</v>
+      </c>
+      <c r="AG129">
+        <v>1.5</v>
+      </c>
+      <c r="AH129">
+        <v>2.4</v>
+      </c>
+      <c r="AI129">
+        <v>1.5</v>
+      </c>
+      <c r="AJ129">
+        <v>2.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.42</v>
+      </c>
+      <c r="AL129">
+        <v>1.22</v>
+      </c>
+      <c r="AM129">
+        <v>1.68</v>
+      </c>
+      <c r="AN129">
+        <v>1.75</v>
+      </c>
+      <c r="AO129">
+        <v>1.13</v>
+      </c>
+      <c r="AP129">
+        <v>1.67</v>
+      </c>
+      <c r="AQ129">
+        <v>1.11</v>
+      </c>
+      <c r="AR129">
+        <v>1.82</v>
+      </c>
+      <c r="AS129">
+        <v>0.99</v>
+      </c>
+      <c r="AT129">
+        <v>2.81</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>7</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>21</v>
+      </c>
+      <c r="AZ129">
+        <v>18</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.58</v>
+      </c>
+      <c r="BE129">
+        <v>6.5</v>
+      </c>
+      <c r="BF129">
+        <v>2.43</v>
+      </c>
+      <c r="BG129">
+        <v>1.22</v>
+      </c>
+      <c r="BH129">
+        <v>3.8</v>
+      </c>
+      <c r="BI129">
+        <v>1.38</v>
+      </c>
+      <c r="BJ129">
+        <v>2.7</v>
+      </c>
+      <c r="BK129">
+        <v>1.7</v>
+      </c>
+      <c r="BL129">
+        <v>2.05</v>
+      </c>
+      <c r="BM129">
+        <v>2.05</v>
+      </c>
+      <c r="BN129">
+        <v>1.7</v>
+      </c>
+      <c r="BO129">
+        <v>2.5</v>
+      </c>
+      <c r="BP129">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -26203,7 +26203,7 @@
         <v>13</v>
       </c>
       <c r="AZ122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -27630,19 +27630,19 @@
         <v>2.81</v>
       </c>
       <c r="AU129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV129">
         <v>7</v>
       </c>
       <c r="AW129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX129">
         <v>5</v>
       </c>
       <c r="AY129">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ129">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,15 @@
     <t>['15', '86']</t>
   </si>
   <si>
+    <t>['41', '47', '68']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['17', '90+1']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -694,9 +703,6 @@
     <t>['34', '58']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['32', '45+2']</t>
   </si>
   <si>
@@ -755,6 +761,12 @@
   </si>
   <si>
     <t>['42', '47']</t>
+  </si>
+  <si>
+    <t>['4', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+11']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1868,7 +1880,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,7 +2086,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2277,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2405,7 +2417,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3229,7 +3241,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3307,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3641,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3847,7 +3859,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4053,7 +4065,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4134,7 +4146,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4337,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4465,7 +4477,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4543,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -4749,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4877,7 +4889,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4958,7 +4970,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -5083,7 +5095,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5370,7 +5382,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>1.37</v>
@@ -5495,7 +5507,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5573,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -5701,7 +5713,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5782,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6113,7 +6125,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6525,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6731,7 +6743,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6937,7 +6949,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7015,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7839,7 +7851,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7967,7 +7979,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8048,7 +8060,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8173,7 +8185,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8379,7 +8391,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8460,7 +8472,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -8869,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.13</v>
@@ -9078,7 +9090,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9281,7 +9293,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9409,7 +9421,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9487,7 +9499,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9615,7 +9627,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10233,7 +10245,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10311,7 +10323,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10726,7 +10738,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10851,7 +10863,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11057,7 +11069,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11263,7 +11275,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11344,7 +11356,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -11469,7 +11481,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11962,7 +11974,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>0.82</v>
@@ -12371,7 +12383,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12499,7 +12511,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12783,7 +12795,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12911,7 +12923,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -12992,7 +13004,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13117,7 +13129,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13529,7 +13541,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13813,7 +13825,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14019,7 +14031,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14228,7 +14240,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14353,7 +14365,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14559,7 +14571,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14640,7 +14652,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -14765,7 +14777,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14843,7 +14855,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14971,7 +14983,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15049,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15177,7 +15189,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15670,7 +15682,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15873,10 +15885,10 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.82</v>
@@ -16001,7 +16013,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16082,7 +16094,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16207,7 +16219,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16491,10 +16503,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16619,7 +16631,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17649,7 +17661,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17855,7 +17867,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18061,7 +18073,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18142,7 +18154,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -18679,7 +18691,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18757,10 +18769,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ86">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19091,7 +19103,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19169,7 +19181,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -19375,10 +19387,10 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19709,7 +19721,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19790,7 +19802,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -19915,7 +19927,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20327,7 +20339,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20739,7 +20751,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20817,7 +20829,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -20945,7 +20957,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21357,7 +21369,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21435,10 +21447,10 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21563,7 +21575,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21644,7 +21656,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21769,7 +21781,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21847,7 +21859,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22053,7 +22065,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22468,7 +22480,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22799,7 +22811,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23005,7 +23017,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23211,7 +23223,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23292,7 +23304,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.16</v>
@@ -23623,7 +23635,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23907,7 +23919,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.63</v>
@@ -24241,7 +24253,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24322,7 +24334,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ113">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -24447,7 +24459,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24734,7 +24746,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -24937,7 +24949,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.5</v>
@@ -25143,7 +25155,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25349,7 +25361,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ118">
         <v>0.13</v>
@@ -25477,7 +25489,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25970,7 +25982,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -26095,7 +26107,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26713,7 +26725,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27125,7 +27137,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27331,7 +27343,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27537,7 +27549,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27694,6 +27706,830 @@
       </c>
       <c r="BP129">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7453553</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>185</v>
+      </c>
+      <c r="P130" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q130">
+        <v>1.72</v>
+      </c>
+      <c r="R130">
+        <v>2.85</v>
+      </c>
+      <c r="S130">
+        <v>7</v>
+      </c>
+      <c r="T130">
+        <v>1.24</v>
+      </c>
+      <c r="U130">
+        <v>4</v>
+      </c>
+      <c r="V130">
+        <v>2.15</v>
+      </c>
+      <c r="W130">
+        <v>1.68</v>
+      </c>
+      <c r="X130">
+        <v>4.75</v>
+      </c>
+      <c r="Y130">
+        <v>1.18</v>
+      </c>
+      <c r="Z130">
+        <v>1.3</v>
+      </c>
+      <c r="AA130">
+        <v>5</v>
+      </c>
+      <c r="AB130">
+        <v>8</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>17</v>
+      </c>
+      <c r="AE130">
+        <v>1.14</v>
+      </c>
+      <c r="AF130">
+        <v>5.38</v>
+      </c>
+      <c r="AG130">
+        <v>1.52</v>
+      </c>
+      <c r="AH130">
+        <v>2.43</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.98</v>
+      </c>
+      <c r="AK130">
+        <v>1.04</v>
+      </c>
+      <c r="AL130">
+        <v>1.1</v>
+      </c>
+      <c r="AM130">
+        <v>3.6</v>
+      </c>
+      <c r="AN130">
+        <v>2.75</v>
+      </c>
+      <c r="AO130">
+        <v>0.5</v>
+      </c>
+      <c r="AP130">
+        <v>2.78</v>
+      </c>
+      <c r="AQ130">
+        <v>0.44</v>
+      </c>
+      <c r="AR130">
+        <v>1.84</v>
+      </c>
+      <c r="AS130">
+        <v>1.01</v>
+      </c>
+      <c r="AT130">
+        <v>2.85</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>3</v>
+      </c>
+      <c r="AX130">
+        <v>8</v>
+      </c>
+      <c r="AY130">
+        <v>13</v>
+      </c>
+      <c r="AZ130">
+        <v>17</v>
+      </c>
+      <c r="BA130">
+        <v>1</v>
+      </c>
+      <c r="BB130">
+        <v>8</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.14</v>
+      </c>
+      <c r="BE130">
+        <v>9.1</v>
+      </c>
+      <c r="BF130">
+        <v>7.1</v>
+      </c>
+      <c r="BG130">
+        <v>1.12</v>
+      </c>
+      <c r="BH130">
+        <v>4.55</v>
+      </c>
+      <c r="BI130">
+        <v>1.25</v>
+      </c>
+      <c r="BJ130">
+        <v>3.45</v>
+      </c>
+      <c r="BK130">
+        <v>1.5</v>
+      </c>
+      <c r="BL130">
+        <v>2.4</v>
+      </c>
+      <c r="BM130">
+        <v>1.85</v>
+      </c>
+      <c r="BN130">
+        <v>1.82</v>
+      </c>
+      <c r="BO130">
+        <v>2.42</v>
+      </c>
+      <c r="BP130">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7453556</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45633.59375</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H131" t="s">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>128</v>
+      </c>
+      <c r="P131" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q131">
+        <v>3.35</v>
+      </c>
+      <c r="R131">
+        <v>1.93</v>
+      </c>
+      <c r="S131">
+        <v>3.3</v>
+      </c>
+      <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.4</v>
+      </c>
+      <c r="V131">
+        <v>3.2</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>7.2</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.74</v>
+      </c>
+      <c r="AA131">
+        <v>2.97</v>
+      </c>
+      <c r="AB131">
+        <v>2.72</v>
+      </c>
+      <c r="AC131">
+        <v>1.09</v>
+      </c>
+      <c r="AD131">
+        <v>7</v>
+      </c>
+      <c r="AE131">
+        <v>1.42</v>
+      </c>
+      <c r="AF131">
+        <v>2.8</v>
+      </c>
+      <c r="AG131">
+        <v>2.35</v>
+      </c>
+      <c r="AH131">
+        <v>1.52</v>
+      </c>
+      <c r="AI131">
+        <v>1.85</v>
+      </c>
+      <c r="AJ131">
+        <v>1.83</v>
+      </c>
+      <c r="AK131">
+        <v>1.44</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.45</v>
+      </c>
+      <c r="AN131">
+        <v>2.13</v>
+      </c>
+      <c r="AO131">
+        <v>0.88</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>0.89</v>
+      </c>
+      <c r="AR131">
+        <v>1.18</v>
+      </c>
+      <c r="AS131">
+        <v>1.26</v>
+      </c>
+      <c r="AT131">
+        <v>2.44</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
+        <v>4</v>
+      </c>
+      <c r="BD131">
+        <v>1.8</v>
+      </c>
+      <c r="BE131">
+        <v>7</v>
+      </c>
+      <c r="BF131">
+        <v>2.32</v>
+      </c>
+      <c r="BG131">
+        <v>1.17</v>
+      </c>
+      <c r="BH131">
+        <v>4.35</v>
+      </c>
+      <c r="BI131">
+        <v>1.37</v>
+      </c>
+      <c r="BJ131">
+        <v>2.82</v>
+      </c>
+      <c r="BK131">
+        <v>1.65</v>
+      </c>
+      <c r="BL131">
+        <v>2.05</v>
+      </c>
+      <c r="BM131">
+        <v>2.12</v>
+      </c>
+      <c r="BN131">
+        <v>1.62</v>
+      </c>
+      <c r="BO131">
+        <v>2.92</v>
+      </c>
+      <c r="BP131">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7453558</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45633.59375</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>70</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>186</v>
+      </c>
+      <c r="P132" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132">
+        <v>2.45</v>
+      </c>
+      <c r="S132">
+        <v>2.35</v>
+      </c>
+      <c r="T132">
+        <v>1.28</v>
+      </c>
+      <c r="U132">
+        <v>3.75</v>
+      </c>
+      <c r="V132">
+        <v>2.25</v>
+      </c>
+      <c r="W132">
+        <v>1.62</v>
+      </c>
+      <c r="X132">
+        <v>5</v>
+      </c>
+      <c r="Y132">
+        <v>1.16</v>
+      </c>
+      <c r="Z132">
+        <v>3.94</v>
+      </c>
+      <c r="AA132">
+        <v>3.98</v>
+      </c>
+      <c r="AB132">
+        <v>1.77</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>19</v>
+      </c>
+      <c r="AE132">
+        <v>1.16</v>
+      </c>
+      <c r="AF132">
+        <v>4.87</v>
+      </c>
+      <c r="AG132">
+        <v>1.61</v>
+      </c>
+      <c r="AH132">
+        <v>2.26</v>
+      </c>
+      <c r="AI132">
+        <v>1.52</v>
+      </c>
+      <c r="AJ132">
+        <v>2.5</v>
+      </c>
+      <c r="AK132">
+        <v>2.05</v>
+      </c>
+      <c r="AL132">
+        <v>1.2</v>
+      </c>
+      <c r="AM132">
+        <v>1.26</v>
+      </c>
+      <c r="AN132">
+        <v>2</v>
+      </c>
+      <c r="AO132">
+        <v>1.75</v>
+      </c>
+      <c r="AP132">
+        <v>1.78</v>
+      </c>
+      <c r="AQ132">
+        <v>1.89</v>
+      </c>
+      <c r="AR132">
+        <v>1.55</v>
+      </c>
+      <c r="AS132">
+        <v>1.69</v>
+      </c>
+      <c r="AT132">
+        <v>3.24</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>21</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>3.62</v>
+      </c>
+      <c r="BE132">
+        <v>7.3</v>
+      </c>
+      <c r="BF132">
+        <v>1.47</v>
+      </c>
+      <c r="BG132">
+        <v>1.18</v>
+      </c>
+      <c r="BH132">
+        <v>3.65</v>
+      </c>
+      <c r="BI132">
+        <v>1.39</v>
+      </c>
+      <c r="BJ132">
+        <v>2.59</v>
+      </c>
+      <c r="BK132">
+        <v>1.77</v>
+      </c>
+      <c r="BL132">
+        <v>1.95</v>
+      </c>
+      <c r="BM132">
+        <v>2.15</v>
+      </c>
+      <c r="BN132">
+        <v>1.56</v>
+      </c>
+      <c r="BO132">
+        <v>2.82</v>
+      </c>
+      <c r="BP132">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7453554</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45633.69791666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>85</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>187</v>
+      </c>
+      <c r="P133" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q133">
+        <v>2.3</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>4.2</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.1</v>
+      </c>
+      <c r="V133">
+        <v>2.45</v>
+      </c>
+      <c r="W133">
+        <v>1.48</v>
+      </c>
+      <c r="X133">
+        <v>5.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.12</v>
+      </c>
+      <c r="Z133">
+        <v>1.78</v>
+      </c>
+      <c r="AA133">
+        <v>3.88</v>
+      </c>
+      <c r="AB133">
+        <v>3.98</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>10</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
+        <v>4.2</v>
+      </c>
+      <c r="AG133">
+        <v>1.63</v>
+      </c>
+      <c r="AH133">
+        <v>2.13</v>
+      </c>
+      <c r="AI133">
+        <v>1.6</v>
+      </c>
+      <c r="AJ133">
+        <v>2.15</v>
+      </c>
+      <c r="AK133">
+        <v>1.22</v>
+      </c>
+      <c r="AL133">
+        <v>1.2</v>
+      </c>
+      <c r="AM133">
+        <v>1.95</v>
+      </c>
+      <c r="AN133">
+        <v>1.86</v>
+      </c>
+      <c r="AO133">
+        <v>0.63</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR133">
+        <v>1.68</v>
+      </c>
+      <c r="AS133">
+        <v>1.31</v>
+      </c>
+      <c r="AT133">
+        <v>2.99</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>8</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>15</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>10</v>
+      </c>
+      <c r="BC133">
+        <v>15</v>
+      </c>
+      <c r="BD133">
+        <v>1.4</v>
+      </c>
+      <c r="BE133">
+        <v>6.8</v>
+      </c>
+      <c r="BF133">
+        <v>3.75</v>
+      </c>
+      <c r="BG133">
+        <v>1.15</v>
+      </c>
+      <c r="BH133">
+        <v>4.05</v>
+      </c>
+      <c r="BI133">
+        <v>1.31</v>
+      </c>
+      <c r="BJ133">
+        <v>3.05</v>
+      </c>
+      <c r="BK133">
+        <v>1.6</v>
+      </c>
+      <c r="BL133">
+        <v>2.18</v>
+      </c>
+      <c r="BM133">
+        <v>2</v>
+      </c>
+      <c r="BN133">
+        <v>1.7</v>
+      </c>
+      <c r="BO133">
+        <v>2.68</v>
+      </c>
+      <c r="BP133">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['17', '90+1']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['45+7', '90+3']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -599,9 +608,6 @@
   </si>
   <si>
     <t>['23', '86']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['5', '70', '90+2']</t>
@@ -668,9 +674,6 @@
   </si>
   <si>
     <t>['90+8']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -767,6 +770,12 @@
   </si>
   <si>
     <t>['45+2', '90+11']</t>
+  </si>
+  <si>
+    <t>['2', '49', '54']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1671,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2083,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.5600000000000001</v>
@@ -2417,7 +2426,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3116,7 +3125,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3241,7 +3250,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3322,7 +3331,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3653,7 +3662,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3734,7 +3743,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3859,7 +3868,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3937,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4065,7 +4074,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4143,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0.44</v>
@@ -4477,7 +4486,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4889,7 +4898,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4967,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.44</v>
@@ -5095,7 +5104,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5176,7 +5185,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5379,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.89</v>
@@ -5507,7 +5516,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5713,7 +5722,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5791,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23">
         <v>0.5600000000000001</v>
@@ -6125,7 +6134,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6203,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6412,7 +6421,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6537,7 +6546,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6743,7 +6752,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6949,7 +6958,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7854,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -7979,7 +7988,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8185,7 +8194,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8263,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8391,7 +8400,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8469,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.89</v>
@@ -8678,7 +8687,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -8884,7 +8893,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9296,7 +9305,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9421,7 +9430,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9502,7 +9511,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -9627,7 +9636,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10245,7 +10254,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10863,7 +10872,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10941,7 +10950,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -11069,7 +11078,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11147,7 +11156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11275,7 +11284,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11481,7 +11490,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11559,10 +11568,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -11765,10 +11774,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12180,7 +12189,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12511,7 +12520,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12589,7 +12598,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -12798,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -12923,7 +12932,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13129,7 +13138,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13413,10 +13422,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13541,7 +13550,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14365,7 +14374,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14443,7 +14452,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.11</v>
@@ -14571,7 +14580,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>4.2</v>
@@ -14777,7 +14786,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14983,7 +14992,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15064,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -15189,7 +15198,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15267,7 +15276,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15473,10 +15482,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ70">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -16013,7 +16022,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16091,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.5600000000000001</v>
@@ -16219,7 +16228,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16300,7 +16309,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -16631,7 +16640,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16915,10 +16924,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17121,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.63</v>
@@ -17327,7 +17336,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17536,7 +17545,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17661,7 +17670,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17867,7 +17876,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18073,7 +18082,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18357,7 +18366,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -18691,7 +18700,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19184,7 +19193,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19596,7 +19605,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ90">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19721,7 +19730,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19927,7 +19936,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20005,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20214,7 +20223,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20339,7 +20348,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20623,7 +20632,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>0.63</v>
@@ -20751,7 +20760,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20957,7 +20966,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21369,7 +21378,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21575,7 +21584,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21781,7 +21790,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21862,7 +21871,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22271,10 +22280,10 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -22477,7 +22486,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
         <v>0.44</v>
@@ -22811,7 +22820,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23017,7 +23026,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23223,7 +23232,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23301,7 +23310,7 @@
         <v>0.86</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>0.89</v>
@@ -23510,7 +23519,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -23635,7 +23644,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23713,7 +23722,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -24253,7 +24262,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24459,7 +24468,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24537,7 +24546,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ114">
         <v>1.13</v>
@@ -25158,7 +25167,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25364,7 +25373,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ118">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25489,7 +25498,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25570,7 +25579,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25773,7 +25782,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -26107,7 +26116,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26725,7 +26734,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27137,7 +27146,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27343,7 +27352,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27549,7 +27558,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27755,7 +27764,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28167,7 +28176,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28266,13 +28275,13 @@
         <v>3</v>
       </c>
       <c r="AW132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX132">
         <v>5</v>
       </c>
       <c r="AY132">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ132">
         <v>11</v>
@@ -28530,6 +28539,830 @@
       </c>
       <c r="BP133">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7453555</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45634.39583333334</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>82</v>
+      </c>
+      <c r="H134" t="s">
+        <v>76</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>188</v>
+      </c>
+      <c r="P134" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q134">
+        <v>2.55</v>
+      </c>
+      <c r="R134">
+        <v>2.15</v>
+      </c>
+      <c r="S134">
+        <v>3.85</v>
+      </c>
+      <c r="T134">
+        <v>1.36</v>
+      </c>
+      <c r="U134">
+        <v>2.88</v>
+      </c>
+      <c r="V134">
+        <v>2.65</v>
+      </c>
+      <c r="W134">
+        <v>1.42</v>
+      </c>
+      <c r="X134">
+        <v>6</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>1.92</v>
+      </c>
+      <c r="AA134">
+        <v>3.8</v>
+      </c>
+      <c r="AB134">
+        <v>3.55</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>9.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.25</v>
+      </c>
+      <c r="AF134">
+        <v>3.7</v>
+      </c>
+      <c r="AG134">
+        <v>1.76</v>
+      </c>
+      <c r="AH134">
+        <v>2.07</v>
+      </c>
+      <c r="AI134">
+        <v>1.67</v>
+      </c>
+      <c r="AJ134">
+        <v>2.05</v>
+      </c>
+      <c r="AK134">
+        <v>1.28</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>1.77</v>
+      </c>
+      <c r="AN134">
+        <v>2</v>
+      </c>
+      <c r="AO134">
+        <v>0.5</v>
+      </c>
+      <c r="AP134">
+        <v>1.78</v>
+      </c>
+      <c r="AQ134">
+        <v>0.78</v>
+      </c>
+      <c r="AR134">
+        <v>1.76</v>
+      </c>
+      <c r="AS134">
+        <v>1.38</v>
+      </c>
+      <c r="AT134">
+        <v>3.14</v>
+      </c>
+      <c r="AU134">
+        <v>9</v>
+      </c>
+      <c r="AV134">
+        <v>8</v>
+      </c>
+      <c r="AW134">
+        <v>10</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>24</v>
+      </c>
+      <c r="AZ134">
+        <v>19</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>12</v>
+      </c>
+      <c r="BD134">
+        <v>1.44</v>
+      </c>
+      <c r="BE134">
+        <v>7.7</v>
+      </c>
+      <c r="BF134">
+        <v>3.25</v>
+      </c>
+      <c r="BG134">
+        <v>1.17</v>
+      </c>
+      <c r="BH134">
+        <v>4.35</v>
+      </c>
+      <c r="BI134">
+        <v>1.37</v>
+      </c>
+      <c r="BJ134">
+        <v>2.82</v>
+      </c>
+      <c r="BK134">
+        <v>1.65</v>
+      </c>
+      <c r="BL134">
+        <v>2.05</v>
+      </c>
+      <c r="BM134">
+        <v>2.12</v>
+      </c>
+      <c r="BN134">
+        <v>1.62</v>
+      </c>
+      <c r="BO134">
+        <v>2.92</v>
+      </c>
+      <c r="BP134">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7453557</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45634.5</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>87</v>
+      </c>
+      <c r="P135" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q135">
+        <v>4.2</v>
+      </c>
+      <c r="R135">
+        <v>2.15</v>
+      </c>
+      <c r="S135">
+        <v>2.4</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>2.88</v>
+      </c>
+      <c r="V135">
+        <v>2.65</v>
+      </c>
+      <c r="W135">
+        <v>1.42</v>
+      </c>
+      <c r="X135">
+        <v>6</v>
+      </c>
+      <c r="Y135">
+        <v>1.11</v>
+      </c>
+      <c r="Z135">
+        <v>4</v>
+      </c>
+      <c r="AA135">
+        <v>3.4</v>
+      </c>
+      <c r="AB135">
+        <v>1.85</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>9.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.25</v>
+      </c>
+      <c r="AF135">
+        <v>3.7</v>
+      </c>
+      <c r="AG135">
+        <v>1.86</v>
+      </c>
+      <c r="AH135">
+        <v>1.94</v>
+      </c>
+      <c r="AI135">
+        <v>1.7</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>1.93</v>
+      </c>
+      <c r="AL135">
+        <v>1.22</v>
+      </c>
+      <c r="AM135">
+        <v>1.22</v>
+      </c>
+      <c r="AN135">
+        <v>1.38</v>
+      </c>
+      <c r="AO135">
+        <v>0.75</v>
+      </c>
+      <c r="AP135">
+        <v>1.33</v>
+      </c>
+      <c r="AQ135">
+        <v>0.78</v>
+      </c>
+      <c r="AR135">
+        <v>1.6</v>
+      </c>
+      <c r="AS135">
+        <v>1.41</v>
+      </c>
+      <c r="AT135">
+        <v>3.01</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
+        <v>14</v>
+      </c>
+      <c r="AZ135">
+        <v>12</v>
+      </c>
+      <c r="BA135">
+        <v>3</v>
+      </c>
+      <c r="BB135">
+        <v>6</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>2.4</v>
+      </c>
+      <c r="BE135">
+        <v>7.1</v>
+      </c>
+      <c r="BF135">
+        <v>1.75</v>
+      </c>
+      <c r="BG135">
+        <v>1.17</v>
+      </c>
+      <c r="BH135">
+        <v>4.3</v>
+      </c>
+      <c r="BI135">
+        <v>1.35</v>
+      </c>
+      <c r="BJ135">
+        <v>2.9</v>
+      </c>
+      <c r="BK135">
+        <v>1.62</v>
+      </c>
+      <c r="BL135">
+        <v>2.12</v>
+      </c>
+      <c r="BM135">
+        <v>2.08</v>
+      </c>
+      <c r="BN135">
+        <v>1.65</v>
+      </c>
+      <c r="BO135">
+        <v>2.78</v>
+      </c>
+      <c r="BP135">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7453552</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45634.60416666666</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>189</v>
+      </c>
+      <c r="P136" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q136">
+        <v>1.7</v>
+      </c>
+      <c r="R136">
+        <v>2.65</v>
+      </c>
+      <c r="S136">
+        <v>6.5</v>
+      </c>
+      <c r="T136">
+        <v>1.25</v>
+      </c>
+      <c r="U136">
+        <v>3.55</v>
+      </c>
+      <c r="V136">
+        <v>2.2</v>
+      </c>
+      <c r="W136">
+        <v>1.6</v>
+      </c>
+      <c r="X136">
+        <v>4.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.17</v>
+      </c>
+      <c r="Z136">
+        <v>1.25</v>
+      </c>
+      <c r="AA136">
+        <v>5.8</v>
+      </c>
+      <c r="AB136">
+        <v>10</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>17</v>
+      </c>
+      <c r="AE136">
+        <v>1.14</v>
+      </c>
+      <c r="AF136">
+        <v>5.5</v>
+      </c>
+      <c r="AG136">
+        <v>1.45</v>
+      </c>
+      <c r="AH136">
+        <v>2.55</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
+        <v>1.85</v>
+      </c>
+      <c r="AK136">
+        <v>1.06</v>
+      </c>
+      <c r="AL136">
+        <v>1.1</v>
+      </c>
+      <c r="AM136">
+        <v>3.35</v>
+      </c>
+      <c r="AN136">
+        <v>1.88</v>
+      </c>
+      <c r="AO136">
+        <v>0.13</v>
+      </c>
+      <c r="AP136">
+        <v>2</v>
+      </c>
+      <c r="AQ136">
+        <v>0.11</v>
+      </c>
+      <c r="AR136">
+        <v>1.71</v>
+      </c>
+      <c r="AS136">
+        <v>1</v>
+      </c>
+      <c r="AT136">
+        <v>2.71</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>21</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>7</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>1.08</v>
+      </c>
+      <c r="BE136">
+        <v>10.5</v>
+      </c>
+      <c r="BF136">
+        <v>9.5</v>
+      </c>
+      <c r="BG136">
+        <v>1.17</v>
+      </c>
+      <c r="BH136">
+        <v>4.35</v>
+      </c>
+      <c r="BI136">
+        <v>1.33</v>
+      </c>
+      <c r="BJ136">
+        <v>2.98</v>
+      </c>
+      <c r="BK136">
+        <v>1.62</v>
+      </c>
+      <c r="BL136">
+        <v>2.12</v>
+      </c>
+      <c r="BM136">
+        <v>2.05</v>
+      </c>
+      <c r="BN136">
+        <v>1.65</v>
+      </c>
+      <c r="BO136">
+        <v>2.75</v>
+      </c>
+      <c r="BP136">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7453559</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45634.63541666666</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>190</v>
+      </c>
+      <c r="P137" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q137">
+        <v>3.3</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>2.75</v>
+      </c>
+      <c r="T137">
+        <v>1.3</v>
+      </c>
+      <c r="U137">
+        <v>3.2</v>
+      </c>
+      <c r="V137">
+        <v>2.3</v>
+      </c>
+      <c r="W137">
+        <v>1.55</v>
+      </c>
+      <c r="X137">
+        <v>5</v>
+      </c>
+      <c r="Y137">
+        <v>1.14</v>
+      </c>
+      <c r="Z137">
+        <v>2.9</v>
+      </c>
+      <c r="AA137">
+        <v>3.7</v>
+      </c>
+      <c r="AB137">
+        <v>2.2</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.2</v>
+      </c>
+      <c r="AF137">
+        <v>4.33</v>
+      </c>
+      <c r="AG137">
+        <v>1.65</v>
+      </c>
+      <c r="AH137">
+        <v>2.1</v>
+      </c>
+      <c r="AI137">
+        <v>1.48</v>
+      </c>
+      <c r="AJ137">
+        <v>2.4</v>
+      </c>
+      <c r="AK137">
+        <v>1.62</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.38</v>
+      </c>
+      <c r="AN137">
+        <v>1.13</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>1.33</v>
+      </c>
+      <c r="AQ137">
+        <v>0.88</v>
+      </c>
+      <c r="AR137">
+        <v>1.17</v>
+      </c>
+      <c r="AS137">
+        <v>1.46</v>
+      </c>
+      <c r="AT137">
+        <v>2.63</v>
+      </c>
+      <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>6</v>
+      </c>
+      <c r="AZ137">
+        <v>16</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>2.08</v>
+      </c>
+      <c r="BE137">
+        <v>7</v>
+      </c>
+      <c r="BF137">
+        <v>1.98</v>
+      </c>
+      <c r="BG137">
+        <v>1.17</v>
+      </c>
+      <c r="BH137">
+        <v>4.35</v>
+      </c>
+      <c r="BI137">
+        <v>1.33</v>
+      </c>
+      <c r="BJ137">
+        <v>2.98</v>
+      </c>
+      <c r="BK137">
+        <v>1.62</v>
+      </c>
+      <c r="BL137">
+        <v>2.12</v>
+      </c>
+      <c r="BM137">
+        <v>2.05</v>
+      </c>
+      <c r="BN137">
+        <v>1.65</v>
+      </c>
+      <c r="BO137">
+        <v>2.75</v>
+      </c>
+      <c r="BP137">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -28693,7 +28693,7 @@
         <v>6</v>
       </c>
       <c r="AY134">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ134">
         <v>19</v>
@@ -28893,13 +28893,13 @@
         <v>5</v>
       </c>
       <c r="AW135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX135">
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ135">
         <v>12</v>
@@ -28970,7 +28970,7 @@
         <v>45634.60416666666</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G136" t="s">
         <v>73</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2426,7 +2429,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2713,7 +2716,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3250,7 +3253,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3328,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3662,7 +3665,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3868,7 +3871,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4074,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4486,7 +4489,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5104,7 +5107,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5516,7 +5519,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5722,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6134,7 +6137,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6546,7 +6549,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6752,7 +6755,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6958,7 +6961,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7036,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7245,7 +7248,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -7988,7 +7991,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8194,7 +8197,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8400,7 +8403,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9430,7 +9433,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9508,7 +9511,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
         <v>0.78</v>
@@ -9636,7 +9639,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10254,7 +10257,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10335,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10872,7 +10875,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11078,7 +11081,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11284,7 +11287,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11490,7 +11493,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12520,7 +12523,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12932,7 +12935,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13138,7 +13141,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13219,7 +13222,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13550,7 +13553,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13834,7 +13837,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14374,7 +14377,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14786,7 +14789,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -14992,7 +14995,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15198,7 +15201,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16022,7 +16025,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16228,7 +16231,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16512,7 +16515,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ75">
         <v>0.89</v>
@@ -16640,7 +16643,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17670,7 +17673,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17876,7 +17879,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18082,7 +18085,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18700,7 +18703,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18987,7 +18990,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19396,7 +19399,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19730,7 +19733,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19936,7 +19939,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20348,7 +20351,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20760,7 +20763,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20966,7 +20969,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21378,7 +21381,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21584,7 +21587,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21790,7 +21793,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21868,7 +21871,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ101">
         <v>0.78</v>
@@ -22077,7 +22080,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -22820,7 +22823,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23026,7 +23029,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23107,7 +23110,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -23232,7 +23235,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23644,7 +23647,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24262,7 +24265,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24468,7 +24471,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -25370,7 +25373,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ118">
         <v>0.11</v>
@@ -25498,7 +25501,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26116,7 +26119,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26734,7 +26737,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27146,7 +27149,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27352,7 +27355,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27433,7 +27436,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ128">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -27558,7 +27561,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27764,7 +27767,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28176,7 +28179,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28254,7 +28257,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ132">
         <v>1.89</v>
@@ -28588,7 +28591,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29000,7 +29003,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29363,6 +29366,212 @@
       </c>
       <c r="BP137">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7453566</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45639.69791666666</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P138" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q138">
+        <v>3.2</v>
+      </c>
+      <c r="R138">
+        <v>2.25</v>
+      </c>
+      <c r="S138">
+        <v>3.1</v>
+      </c>
+      <c r="T138">
+        <v>1.36</v>
+      </c>
+      <c r="U138">
+        <v>3.3</v>
+      </c>
+      <c r="V138">
+        <v>2.6</v>
+      </c>
+      <c r="W138">
+        <v>1.5</v>
+      </c>
+      <c r="X138">
+        <v>6</v>
+      </c>
+      <c r="Y138">
+        <v>1.12</v>
+      </c>
+      <c r="Z138">
+        <v>2.62</v>
+      </c>
+      <c r="AA138">
+        <v>3.4</v>
+      </c>
+      <c r="AB138">
+        <v>2.6</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>13</v>
+      </c>
+      <c r="AE138">
+        <v>1.22</v>
+      </c>
+      <c r="AF138">
+        <v>4.08</v>
+      </c>
+      <c r="AG138">
+        <v>1.65</v>
+      </c>
+      <c r="AH138">
+        <v>2.15</v>
+      </c>
+      <c r="AI138">
+        <v>1.58</v>
+      </c>
+      <c r="AJ138">
+        <v>2.35</v>
+      </c>
+      <c r="AK138">
+        <v>1.53</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.52</v>
+      </c>
+      <c r="AN138">
+        <v>1.78</v>
+      </c>
+      <c r="AO138">
+        <v>1.38</v>
+      </c>
+      <c r="AP138">
+        <v>1.7</v>
+      </c>
+      <c r="AQ138">
+        <v>1.33</v>
+      </c>
+      <c r="AR138">
+        <v>1.55</v>
+      </c>
+      <c r="AS138">
+        <v>1.26</v>
+      </c>
+      <c r="AT138">
+        <v>2.81</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>2</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>9</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>5</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>2.13</v>
+      </c>
+      <c r="BE138">
+        <v>6.45</v>
+      </c>
+      <c r="BF138">
+        <v>2.13</v>
+      </c>
+      <c r="BG138">
+        <v>1.26</v>
+      </c>
+      <c r="BH138">
+        <v>3.4</v>
+      </c>
+      <c r="BI138">
+        <v>1.46</v>
+      </c>
+      <c r="BJ138">
+        <v>2.5</v>
+      </c>
+      <c r="BK138">
+        <v>1.74</v>
+      </c>
+      <c r="BL138">
+        <v>1.97</v>
+      </c>
+      <c r="BM138">
+        <v>2.17</v>
+      </c>
+      <c r="BN138">
+        <v>1.6</v>
+      </c>
+      <c r="BO138">
+        <v>2.75</v>
+      </c>
+      <c r="BP138">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -677,9 +680,6 @@
   </si>
   <si>
     <t>['90+8']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['6', '64']</t>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['15', '17', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1402,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ4">
         <v>0.89</v>
@@ -2304,7 +2307,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2507,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
         <v>1.11</v>
@@ -3253,7 +3256,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3537,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -3665,7 +3668,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3746,7 +3749,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3874,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4077,7 +4080,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4489,7 +4492,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4570,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5107,7 +5110,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5519,7 +5522,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5725,7 +5728,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6137,7 +6140,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6424,7 +6427,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ26">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6549,7 +6552,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6627,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.63</v>
@@ -6755,7 +6758,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6836,7 +6839,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -6961,7 +6964,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7451,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7657,10 +7660,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7991,7 +7994,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8197,7 +8200,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8403,7 +8406,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9433,7 +9436,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9514,7 +9517,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -9639,7 +9642,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9717,10 +9720,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -9923,10 +9926,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10257,7 +10260,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10747,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -10875,7 +10878,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10956,7 +10959,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -11081,7 +11084,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11287,7 +11290,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11365,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>1.89</v>
@@ -11493,7 +11496,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12523,7 +12526,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12935,7 +12938,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13013,7 +13016,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>0.5600000000000001</v>
@@ -13141,7 +13144,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13428,7 +13431,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13553,7 +13556,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14046,7 +14049,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14249,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>0.44</v>
@@ -14377,7 +14380,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14789,7 +14792,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>1.92</v>
@@ -16721,7 +16724,7 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>1.63</v>
@@ -16930,7 +16933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17136,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17957,7 +17960,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18372,7 +18375,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18987,7 +18990,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19196,7 +19199,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19605,7 +19608,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90">
         <v>0.11</v>
@@ -20638,7 +20641,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.79</v>
@@ -21256,7 +21259,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21665,7 +21668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
         <v>1.89</v>
@@ -22286,7 +22289,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -22695,7 +22698,7 @@
         <v>1.33</v>
       </c>
       <c r="AP105">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23107,7 +23110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
         <v>1.33</v>
@@ -23934,7 +23937,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24343,7 +24346,7 @@
         <v>1.86</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ113">
         <v>1.89</v>
@@ -24552,7 +24555,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -25170,7 +25173,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ117">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25579,7 +25582,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>0.78</v>
@@ -26197,7 +26200,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26406,7 +26409,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>2.07</v>
@@ -26612,7 +26615,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -27021,7 +27024,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27227,7 +27230,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -28672,7 +28675,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ134">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR134">
         <v>1.76</v>
@@ -29572,6 +29575,624 @@
       </c>
       <c r="BP138">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7453564</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q139">
+        <v>3.75</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139">
+        <v>1.44</v>
+      </c>
+      <c r="U139">
+        <v>2.63</v>
+      </c>
+      <c r="V139">
+        <v>3.25</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>9</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>3.1</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>2.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE139">
+        <v>1.32</v>
+      </c>
+      <c r="AF139">
+        <v>3.26</v>
+      </c>
+      <c r="AG139">
+        <v>1.88</v>
+      </c>
+      <c r="AH139">
+        <v>1.9</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.95</v>
+      </c>
+      <c r="AK139">
+        <v>1.68</v>
+      </c>
+      <c r="AL139">
+        <v>1.28</v>
+      </c>
+      <c r="AM139">
+        <v>1.36</v>
+      </c>
+      <c r="AN139">
+        <v>1.13</v>
+      </c>
+      <c r="AO139">
+        <v>0.63</v>
+      </c>
+      <c r="AP139">
+        <v>1.11</v>
+      </c>
+      <c r="AQ139">
+        <v>0.67</v>
+      </c>
+      <c r="AR139">
+        <v>1.07</v>
+      </c>
+      <c r="AS139">
+        <v>0.93</v>
+      </c>
+      <c r="AT139">
+        <v>2</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>8</v>
+      </c>
+      <c r="AX139">
+        <v>8</v>
+      </c>
+      <c r="AY139">
+        <v>19</v>
+      </c>
+      <c r="AZ139">
+        <v>15</v>
+      </c>
+      <c r="BA139">
+        <v>10</v>
+      </c>
+      <c r="BB139">
+        <v>7</v>
+      </c>
+      <c r="BC139">
+        <v>17</v>
+      </c>
+      <c r="BD139">
+        <v>1.9</v>
+      </c>
+      <c r="BE139">
+        <v>6.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.08</v>
+      </c>
+      <c r="BG139">
+        <v>1.25</v>
+      </c>
+      <c r="BH139">
+        <v>3.55</v>
+      </c>
+      <c r="BI139">
+        <v>1.44</v>
+      </c>
+      <c r="BJ139">
+        <v>2.55</v>
+      </c>
+      <c r="BK139">
+        <v>1.75</v>
+      </c>
+      <c r="BL139">
+        <v>1.95</v>
+      </c>
+      <c r="BM139">
+        <v>2.12</v>
+      </c>
+      <c r="BN139">
+        <v>1.64</v>
+      </c>
+      <c r="BO139">
+        <v>2.65</v>
+      </c>
+      <c r="BP139">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7453565</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45640.59375</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s">
+        <v>76</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q140">
+        <v>2.95</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>3.6</v>
+      </c>
+      <c r="T140">
+        <v>1.45</v>
+      </c>
+      <c r="U140">
+        <v>2.55</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>8.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.04</v>
+      </c>
+      <c r="Z140">
+        <v>2.2</v>
+      </c>
+      <c r="AA140">
+        <v>3.25</v>
+      </c>
+      <c r="AB140">
+        <v>3.05</v>
+      </c>
+      <c r="AC140">
+        <v>1.07</v>
+      </c>
+      <c r="AD140">
+        <v>8</v>
+      </c>
+      <c r="AE140">
+        <v>1.36</v>
+      </c>
+      <c r="AF140">
+        <v>3.1</v>
+      </c>
+      <c r="AG140">
+        <v>2.12</v>
+      </c>
+      <c r="AH140">
+        <v>1.72</v>
+      </c>
+      <c r="AI140">
+        <v>1.77</v>
+      </c>
+      <c r="AJ140">
+        <v>1.9</v>
+      </c>
+      <c r="AK140">
+        <v>1.35</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.57</v>
+      </c>
+      <c r="AN140">
+        <v>1.38</v>
+      </c>
+      <c r="AO140">
+        <v>0.78</v>
+      </c>
+      <c r="AP140">
+        <v>1.56</v>
+      </c>
+      <c r="AQ140">
+        <v>0.7</v>
+      </c>
+      <c r="AR140">
+        <v>1.25</v>
+      </c>
+      <c r="AS140">
+        <v>1.43</v>
+      </c>
+      <c r="AT140">
+        <v>2.68</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>1</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>10</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>3</v>
+      </c>
+      <c r="BB140">
+        <v>5</v>
+      </c>
+      <c r="BC140">
+        <v>8</v>
+      </c>
+      <c r="BD140">
+        <v>1.66</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>2.43</v>
+      </c>
+      <c r="BG140">
+        <v>1.22</v>
+      </c>
+      <c r="BH140">
+        <v>3.8</v>
+      </c>
+      <c r="BI140">
+        <v>1.4</v>
+      </c>
+      <c r="BJ140">
+        <v>2.7</v>
+      </c>
+      <c r="BK140">
+        <v>1.65</v>
+      </c>
+      <c r="BL140">
+        <v>2.08</v>
+      </c>
+      <c r="BM140">
+        <v>1.94</v>
+      </c>
+      <c r="BN140">
+        <v>1.76</v>
+      </c>
+      <c r="BO140">
+        <v>2.43</v>
+      </c>
+      <c r="BP140">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7453563</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45640.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>87</v>
+      </c>
+      <c r="P141" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q141">
+        <v>2.88</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.1</v>
+      </c>
+      <c r="AA141">
+        <v>3.25</v>
+      </c>
+      <c r="AB141">
+        <v>3.2</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AE141">
+        <v>1.34</v>
+      </c>
+      <c r="AF141">
+        <v>3.14</v>
+      </c>
+      <c r="AG141">
+        <v>1.93</v>
+      </c>
+      <c r="AH141">
+        <v>1.87</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.95</v>
+      </c>
+      <c r="AK141">
+        <v>1.36</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.66</v>
+      </c>
+      <c r="AN141">
+        <v>1.63</v>
+      </c>
+      <c r="AO141">
+        <v>1.13</v>
+      </c>
+      <c r="AP141">
+        <v>1.44</v>
+      </c>
+      <c r="AQ141">
+        <v>1.33</v>
+      </c>
+      <c r="AR141">
+        <v>1.44</v>
+      </c>
+      <c r="AS141">
+        <v>1.09</v>
+      </c>
+      <c r="AT141">
+        <v>2.53</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>9</v>
+      </c>
+      <c r="AX141">
+        <v>1</v>
+      </c>
+      <c r="AY141">
+        <v>15</v>
+      </c>
+      <c r="AZ141">
+        <v>8</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.72</v>
+      </c>
+      <c r="BE141">
+        <v>6.75</v>
+      </c>
+      <c r="BF141">
+        <v>2.33</v>
+      </c>
+      <c r="BG141">
+        <v>1.29</v>
+      </c>
+      <c r="BH141">
+        <v>3.15</v>
+      </c>
+      <c r="BI141">
+        <v>1.5</v>
+      </c>
+      <c r="BJ141">
+        <v>2.38</v>
+      </c>
+      <c r="BK141">
+        <v>1.75</v>
+      </c>
+      <c r="BL141">
+        <v>1.95</v>
+      </c>
+      <c r="BM141">
+        <v>2.25</v>
+      </c>
+      <c r="BN141">
+        <v>1.55</v>
+      </c>
+      <c r="BO141">
+        <v>2.9</v>
+      </c>
+      <c r="BP141">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['77', '86']</t>
+  </si>
+  <si>
+    <t>['40', '45', '52']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -697,9 +706,6 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -782,6 +788,9 @@
   </si>
   <si>
     <t>['15', '17', '45+1']</t>
+  </si>
+  <si>
+    <t>['27', '62']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1411,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1480,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2432,7 +2441,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2925,7 +2934,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3128,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ10">
         <v>0.11</v>
@@ -3256,7 +3265,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3337,7 +3346,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3543,7 +3552,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3668,7 +3677,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3746,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>0.7</v>
@@ -3874,7 +3883,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3955,7 +3964,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4080,7 +4089,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4492,7 +4501,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4570,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5110,7 +5119,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5522,7 +5531,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5728,7 +5737,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6140,7 +6149,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6424,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26">
         <v>0.7</v>
@@ -6552,7 +6561,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6633,7 +6642,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -6758,7 +6767,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6836,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -6964,7 +6973,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7045,7 +7054,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -7248,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7457,7 +7466,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -7866,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -7994,7 +8003,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8200,7 +8209,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8406,7 +8415,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8690,7 +8699,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -9311,7 +9320,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9436,7 +9445,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9642,7 +9651,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10132,10 +10141,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR44">
         <v>1.89</v>
@@ -10260,7 +10269,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10338,7 +10347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10544,10 +10553,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -10878,7 +10887,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11084,7 +11093,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11165,7 +11174,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -11290,7 +11299,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11496,7 +11505,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11577,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -11986,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>0.89</v>
@@ -12398,7 +12407,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12526,7 +12535,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12607,7 +12616,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -12938,7 +12947,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13144,7 +13153,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13556,7 +13565,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13634,7 +13643,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -13843,7 +13852,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>1.5</v>
@@ -14380,7 +14389,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14998,7 +15007,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15079,7 +15088,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -15204,7 +15213,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15285,7 +15294,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -15694,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ71">
         <v>0.44</v>
@@ -15900,7 +15909,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ72">
         <v>0.89</v>
@@ -16028,7 +16037,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16234,7 +16243,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16646,7 +16655,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16727,7 +16736,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -17345,7 +17354,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR79">
         <v>1.88</v>
@@ -17548,7 +17557,7 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ80">
         <v>0.78</v>
@@ -17676,7 +17685,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>3.75</v>
@@ -17754,7 +17763,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81">
         <v>1.11</v>
@@ -17882,7 +17891,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17963,7 +17972,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18088,7 +18097,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18578,7 +18587,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
         <v>1.11</v>
@@ -18706,7 +18715,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19736,7 +19745,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19942,7 +19951,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20226,10 +20235,10 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20354,7 +20363,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20432,10 +20441,10 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -20766,7 +20775,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20844,10 +20853,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -20972,7 +20981,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21050,10 +21059,10 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21384,7 +21393,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21590,7 +21599,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21796,7 +21805,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22826,7 +22835,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22904,7 +22913,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23032,7 +23041,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23238,7 +23247,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23525,7 +23534,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -23650,7 +23659,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23731,7 +23740,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -23934,7 +23943,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -24140,10 +24149,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ112">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -24268,7 +24277,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24474,7 +24483,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24758,7 +24767,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ115">
         <v>0.5600000000000001</v>
@@ -24967,7 +24976,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.18</v>
@@ -25504,7 +25513,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26122,7 +26131,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26406,7 +26415,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26740,7 +26749,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -26818,10 +26827,10 @@
         <v>1.71</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ125">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27027,7 +27036,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
         <v>1.26</v>
@@ -27152,7 +27161,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27233,7 +27242,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>0.92</v>
@@ -27358,7 +27367,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27436,7 +27445,7 @@
         <v>1.57</v>
       </c>
       <c r="AP128">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27564,7 +27573,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27770,7 +27779,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28182,7 +28191,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28466,7 +28475,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ133">
         <v>0.5600000000000001</v>
@@ -28594,7 +28603,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29006,7 +29015,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29293,7 +29302,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR137">
         <v>1.17</v>
@@ -30036,7 +30045,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30193,6 +30202,830 @@
       </c>
       <c r="BP141">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7453560</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45641.39583333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>193</v>
+      </c>
+      <c r="P142" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q142">
+        <v>2.25</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>4.5</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+      <c r="V142">
+        <v>2.38</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
+      <c r="Y142">
+        <v>1.13</v>
+      </c>
+      <c r="Z142">
+        <v>1.62</v>
+      </c>
+      <c r="AA142">
+        <v>3.7</v>
+      </c>
+      <c r="AB142">
+        <v>4.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>19</v>
+      </c>
+      <c r="AE142">
+        <v>1.18</v>
+      </c>
+      <c r="AF142">
+        <v>4.65</v>
+      </c>
+      <c r="AG142">
+        <v>1.57</v>
+      </c>
+      <c r="AH142">
+        <v>2.25</v>
+      </c>
+      <c r="AI142">
+        <v>1.62</v>
+      </c>
+      <c r="AJ142">
+        <v>2.2</v>
+      </c>
+      <c r="AK142">
+        <v>1.19</v>
+      </c>
+      <c r="AL142">
+        <v>1.19</v>
+      </c>
+      <c r="AM142">
+        <v>2.3</v>
+      </c>
+      <c r="AN142">
+        <v>2.13</v>
+      </c>
+      <c r="AO142">
+        <v>1.63</v>
+      </c>
+      <c r="AP142">
+        <v>2.22</v>
+      </c>
+      <c r="AQ142">
+        <v>1.44</v>
+      </c>
+      <c r="AR142">
+        <v>2.07</v>
+      </c>
+      <c r="AS142">
+        <v>1.72</v>
+      </c>
+      <c r="AT142">
+        <v>3.79</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>12</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
+        <v>5</v>
+      </c>
+      <c r="BA142">
+        <v>8</v>
+      </c>
+      <c r="BB142">
+        <v>2</v>
+      </c>
+      <c r="BC142">
+        <v>10</v>
+      </c>
+      <c r="BD142">
+        <v>1.5</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.8</v>
+      </c>
+      <c r="BG142">
+        <v>1.3</v>
+      </c>
+      <c r="BH142">
+        <v>3.05</v>
+      </c>
+      <c r="BI142">
+        <v>1.53</v>
+      </c>
+      <c r="BJ142">
+        <v>2.3</v>
+      </c>
+      <c r="BK142">
+        <v>1.88</v>
+      </c>
+      <c r="BL142">
+        <v>1.81</v>
+      </c>
+      <c r="BM142">
+        <v>2.33</v>
+      </c>
+      <c r="BN142">
+        <v>1.5</v>
+      </c>
+      <c r="BO142">
+        <v>3.05</v>
+      </c>
+      <c r="BP142">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7453561</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45641.5</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s">
+        <v>77</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>194</v>
+      </c>
+      <c r="P143" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q143">
+        <v>1.95</v>
+      </c>
+      <c r="R143">
+        <v>2.5</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>1.29</v>
+      </c>
+      <c r="U143">
+        <v>3.5</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.53</v>
+      </c>
+      <c r="X143">
+        <v>5.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.14</v>
+      </c>
+      <c r="Z143">
+        <v>1.39</v>
+      </c>
+      <c r="AA143">
+        <v>4.2</v>
+      </c>
+      <c r="AB143">
+        <v>5.8</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>19</v>
+      </c>
+      <c r="AE143">
+        <v>1.18</v>
+      </c>
+      <c r="AF143">
+        <v>4.65</v>
+      </c>
+      <c r="AG143">
+        <v>1.55</v>
+      </c>
+      <c r="AH143">
+        <v>2.3</v>
+      </c>
+      <c r="AI143">
+        <v>1.75</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.11</v>
+      </c>
+      <c r="AL143">
+        <v>1.15</v>
+      </c>
+      <c r="AM143">
+        <v>2.75</v>
+      </c>
+      <c r="AN143">
+        <v>2.13</v>
+      </c>
+      <c r="AO143">
+        <v>0.88</v>
+      </c>
+      <c r="AP143">
+        <v>2.22</v>
+      </c>
+      <c r="AQ143">
+        <v>0.78</v>
+      </c>
+      <c r="AR143">
+        <v>1.68</v>
+      </c>
+      <c r="AS143">
+        <v>1.46</v>
+      </c>
+      <c r="AT143">
+        <v>3.14</v>
+      </c>
+      <c r="AU143">
+        <v>14</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>8</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>30</v>
+      </c>
+      <c r="AZ143">
+        <v>11</v>
+      </c>
+      <c r="BA143">
+        <v>15</v>
+      </c>
+      <c r="BB143">
+        <v>6</v>
+      </c>
+      <c r="BC143">
+        <v>21</v>
+      </c>
+      <c r="BD143">
+        <v>1.3</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>3.7</v>
+      </c>
+      <c r="BG143">
+        <v>1.24</v>
+      </c>
+      <c r="BH143">
+        <v>3.55</v>
+      </c>
+      <c r="BI143">
+        <v>1.43</v>
+      </c>
+      <c r="BJ143">
+        <v>2.55</v>
+      </c>
+      <c r="BK143">
+        <v>1.75</v>
+      </c>
+      <c r="BL143">
+        <v>1.95</v>
+      </c>
+      <c r="BM143">
+        <v>2.07</v>
+      </c>
+      <c r="BN143">
+        <v>1.67</v>
+      </c>
+      <c r="BO143">
+        <v>2.55</v>
+      </c>
+      <c r="BP143">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7453567</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45641.60416666666</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>87</v>
+      </c>
+      <c r="P144" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.3</v>
+      </c>
+      <c r="S144">
+        <v>2.6</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.25</v>
+      </c>
+      <c r="V144">
+        <v>2.5</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>6.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>3.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>2</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>15</v>
+      </c>
+      <c r="AE144">
+        <v>1.21</v>
+      </c>
+      <c r="AF144">
+        <v>4.25</v>
+      </c>
+      <c r="AG144">
+        <v>1.57</v>
+      </c>
+      <c r="AH144">
+        <v>2.25</v>
+      </c>
+      <c r="AI144">
+        <v>1.62</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.83</v>
+      </c>
+      <c r="AL144">
+        <v>1.24</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>1.63</v>
+      </c>
+      <c r="AO144">
+        <v>1.5</v>
+      </c>
+      <c r="AP144">
+        <v>1.44</v>
+      </c>
+      <c r="AQ144">
+        <v>1.67</v>
+      </c>
+      <c r="AR144">
+        <v>1.4</v>
+      </c>
+      <c r="AS144">
+        <v>1.43</v>
+      </c>
+      <c r="AT144">
+        <v>2.83</v>
+      </c>
+      <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>11</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>26</v>
+      </c>
+      <c r="AZ144">
+        <v>11</v>
+      </c>
+      <c r="BA144">
+        <v>9</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>10</v>
+      </c>
+      <c r="BD144">
+        <v>2.23</v>
+      </c>
+      <c r="BE144">
+        <v>6.4</v>
+      </c>
+      <c r="BF144">
+        <v>1.79</v>
+      </c>
+      <c r="BG144">
+        <v>1.32</v>
+      </c>
+      <c r="BH144">
+        <v>3.05</v>
+      </c>
+      <c r="BI144">
+        <v>1.54</v>
+      </c>
+      <c r="BJ144">
+        <v>2.3</v>
+      </c>
+      <c r="BK144">
+        <v>1.8</v>
+      </c>
+      <c r="BL144">
+        <v>1.91</v>
+      </c>
+      <c r="BM144">
+        <v>2.4</v>
+      </c>
+      <c r="BN144">
+        <v>1.5</v>
+      </c>
+      <c r="BO144">
+        <v>3.1</v>
+      </c>
+      <c r="BP144">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7453562</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45641.63541666666</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>85</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+      <c r="P145" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q145">
+        <v>2.4</v>
+      </c>
+      <c r="R145">
+        <v>2.38</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.3</v>
+      </c>
+      <c r="U145">
+        <v>3.4</v>
+      </c>
+      <c r="V145">
+        <v>2.38</v>
+      </c>
+      <c r="W145">
+        <v>1.53</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.79</v>
+      </c>
+      <c r="AA145">
+        <v>3.5</v>
+      </c>
+      <c r="AB145">
+        <v>3.6</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>17</v>
+      </c>
+      <c r="AE145">
+        <v>1.19</v>
+      </c>
+      <c r="AF145">
+        <v>4.45</v>
+      </c>
+      <c r="AG145">
+        <v>1.58</v>
+      </c>
+      <c r="AH145">
+        <v>2.22</v>
+      </c>
+      <c r="AI145">
+        <v>1.57</v>
+      </c>
+      <c r="AJ145">
+        <v>2.25</v>
+      </c>
+      <c r="AK145">
+        <v>1.25</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>2</v>
+      </c>
+      <c r="AN145">
+        <v>2</v>
+      </c>
+      <c r="AO145">
+        <v>0.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.89</v>
+      </c>
+      <c r="AQ145">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR145">
+        <v>1.64</v>
+      </c>
+      <c r="AS145">
+        <v>1.33</v>
+      </c>
+      <c r="AT145">
+        <v>2.97</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
+        <v>9</v>
+      </c>
+      <c r="AY145">
+        <v>16</v>
+      </c>
+      <c r="AZ145">
+        <v>18</v>
+      </c>
+      <c r="BA145">
+        <v>9</v>
+      </c>
+      <c r="BB145">
+        <v>6</v>
+      </c>
+      <c r="BC145">
+        <v>15</v>
+      </c>
+      <c r="BD145">
+        <v>1.63</v>
+      </c>
+      <c r="BE145">
+        <v>7</v>
+      </c>
+      <c r="BF145">
+        <v>2.48</v>
+      </c>
+      <c r="BG145">
+        <v>1.18</v>
+      </c>
+      <c r="BH145">
+        <v>4.1</v>
+      </c>
+      <c r="BI145">
+        <v>1.32</v>
+      </c>
+      <c r="BJ145">
+        <v>3</v>
+      </c>
+      <c r="BK145">
+        <v>1.54</v>
+      </c>
+      <c r="BL145">
+        <v>2.3</v>
+      </c>
+      <c r="BM145">
+        <v>2.05</v>
+      </c>
+      <c r="BN145">
+        <v>1.7</v>
+      </c>
+      <c r="BO145">
+        <v>2.32</v>
+      </c>
+      <c r="BP145">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -595,10 +595,10 @@
     <t>['60']</t>
   </si>
   <si>
-    <t>['77', '86']</t>
+    <t>['40', '45', '52']</t>
   </si>
   <si>
-    <t>['40', '45', '52']</t>
+    <t>['77', '86']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -30209,7 +30209,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7453560</v>
+        <v>7453567</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30218,88 +30218,88 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45641.39583333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F142">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N142">
         <v>2</v>
       </c>
       <c r="O142" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="P142" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="Q142">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R142">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S142">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T142">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V142">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W142">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y142">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z142">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="AA142">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB142">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AC142">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD142">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE142">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF142">
-        <v>4.65</v>
+        <v>4.25</v>
       </c>
       <c r="AG142">
         <v>1.57</v>
@@ -30314,97 +30314,97 @@
         <v>2.2</v>
       </c>
       <c r="AK142">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="AL142">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AM142">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AN142">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AO142">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="AS142">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AT142">
-        <v>3.79</v>
+        <v>2.83</v>
       </c>
       <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
         <v>6</v>
       </c>
-      <c r="AV142">
-        <v>2</v>
-      </c>
       <c r="AW142">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY142">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC142">
         <v>10</v>
       </c>
       <c r="BD142">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE142">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF142">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
       <c r="BG142">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH142">
         <v>3.05</v>
       </c>
       <c r="BI142">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BJ142">
         <v>2.3</v>
       </c>
       <c r="BK142">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BL142">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="BM142">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BN142">
         <v>1.5</v>
       </c>
       <c r="BO142">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BP142">
         <v>1.3</v>
@@ -30424,7 +30424,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45641.5</v>
+        <v>45640.875</v>
       </c>
       <c r="F143">
         <v>18</v>
@@ -30454,7 +30454,7 @@
         <v>4</v>
       </c>
       <c r="O143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P143" t="s">
         <v>205</v>
@@ -30621,7 +30621,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7453567</v>
+        <v>7453560</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30630,88 +30630,88 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45641.60416666666</v>
+        <v>45641.39583333334</v>
       </c>
       <c r="F144">
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H144" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>2</v>
       </c>
       <c r="O144" t="s">
+        <v>194</v>
+      </c>
+      <c r="P144" t="s">
         <v>87</v>
       </c>
-      <c r="P144" t="s">
-        <v>258</v>
-      </c>
       <c r="Q144">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R144">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S144">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T144">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V144">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W144">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X144">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y144">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z144">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="AA144">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AB144">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="AC144">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD144">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE144">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF144">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="AG144">
         <v>1.57</v>
@@ -30726,97 +30726,97 @@
         <v>2.2</v>
       </c>
       <c r="AK144">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="AL144">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AM144">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AN144">
+        <v>2.13</v>
+      </c>
+      <c r="AO144">
         <v>1.63</v>
       </c>
-      <c r="AO144">
-        <v>1.5</v>
-      </c>
       <c r="AP144">
+        <v>2.22</v>
+      </c>
+      <c r="AQ144">
         <v>1.44</v>
       </c>
-      <c r="AQ144">
-        <v>1.67</v>
-      </c>
       <c r="AR144">
-        <v>1.4</v>
+        <v>2.07</v>
       </c>
       <c r="AS144">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AT144">
-        <v>2.83</v>
+        <v>3.79</v>
       </c>
       <c r="AU144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>12</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>20</v>
+      </c>
+      <c r="AZ144">
         <v>6</v>
       </c>
-      <c r="AW144">
-        <v>11</v>
-      </c>
-      <c r="AX144">
-        <v>4</v>
-      </c>
-      <c r="AY144">
-        <v>26</v>
-      </c>
-      <c r="AZ144">
-        <v>11</v>
-      </c>
       <c r="BA144">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC144">
         <v>10</v>
       </c>
       <c r="BD144">
-        <v>2.23</v>
+        <v>1.5</v>
       </c>
       <c r="BE144">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF144">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="BG144">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH144">
         <v>3.05</v>
       </c>
       <c r="BI144">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BJ144">
         <v>2.3</v>
       </c>
       <c r="BK144">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BL144">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="BM144">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BN144">
         <v>1.5</v>
       </c>
       <c r="BO144">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BP144">
         <v>1.3</v>
@@ -30965,7 +30965,7 @@
         <v>6</v>
       </c>
       <c r="AV145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW145">
         <v>3</v>
@@ -30977,7 +30977,7 @@
         <v>16</v>
       </c>
       <c r="AZ145">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA145">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -595,10 +595,10 @@
     <t>['60']</t>
   </si>
   <si>
-    <t>['40', '45', '52']</t>
+    <t>['77', '86']</t>
   </si>
   <si>
-    <t>['77', '86']</t>
+    <t>['40', '45', '52']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -30209,7 +30209,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7453567</v>
+        <v>7453560</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30218,88 +30218,88 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45640.875</v>
+        <v>45641.39583333334</v>
       </c>
       <c r="F142">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H142" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>2</v>
       </c>
       <c r="O142" t="s">
+        <v>193</v>
+      </c>
+      <c r="P142" t="s">
         <v>87</v>
       </c>
-      <c r="P142" t="s">
-        <v>258</v>
-      </c>
       <c r="Q142">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R142">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S142">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T142">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V142">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X142">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y142">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z142">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="AA142">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AB142">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="AC142">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD142">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE142">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF142">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="AG142">
         <v>1.57</v>
@@ -30314,97 +30314,97 @@
         <v>2.2</v>
       </c>
       <c r="AK142">
-        <v>1.83</v>
+        <v>1.19</v>
       </c>
       <c r="AL142">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AM142">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AN142">
+        <v>2.13</v>
+      </c>
+      <c r="AO142">
         <v>1.63</v>
       </c>
-      <c r="AO142">
-        <v>1.5</v>
-      </c>
       <c r="AP142">
+        <v>2.22</v>
+      </c>
+      <c r="AQ142">
         <v>1.44</v>
       </c>
-      <c r="AQ142">
-        <v>1.67</v>
-      </c>
       <c r="AR142">
-        <v>1.4</v>
+        <v>2.07</v>
       </c>
       <c r="AS142">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AT142">
-        <v>2.83</v>
+        <v>3.79</v>
       </c>
       <c r="AU142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>12</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
         <v>6</v>
       </c>
-      <c r="AW142">
-        <v>11</v>
-      </c>
-      <c r="AX142">
-        <v>4</v>
-      </c>
-      <c r="AY142">
-        <v>26</v>
-      </c>
-      <c r="AZ142">
-        <v>11</v>
-      </c>
       <c r="BA142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC142">
         <v>10</v>
       </c>
       <c r="BD142">
-        <v>2.23</v>
+        <v>1.5</v>
       </c>
       <c r="BE142">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF142">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="BG142">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH142">
         <v>3.05</v>
       </c>
       <c r="BI142">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BJ142">
         <v>2.3</v>
       </c>
       <c r="BK142">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BL142">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="BM142">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BN142">
         <v>1.5</v>
       </c>
       <c r="BO142">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BP142">
         <v>1.3</v>
@@ -30424,7 +30424,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45640.875</v>
+        <v>45641.5</v>
       </c>
       <c r="F143">
         <v>18</v>
@@ -30454,7 +30454,7 @@
         <v>4</v>
       </c>
       <c r="O143" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P143" t="s">
         <v>205</v>
@@ -30621,7 +30621,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7453560</v>
+        <v>7453567</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30630,88 +30630,88 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45641.39583333334</v>
+        <v>45641.60416666666</v>
       </c>
       <c r="F144">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N144">
         <v>2</v>
       </c>
       <c r="O144" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="Q144">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R144">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S144">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T144">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V144">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W144">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X144">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y144">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z144">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="AA144">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB144">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AC144">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD144">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE144">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF144">
-        <v>4.65</v>
+        <v>4.25</v>
       </c>
       <c r="AG144">
         <v>1.57</v>
@@ -30726,97 +30726,97 @@
         <v>2.2</v>
       </c>
       <c r="AK144">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="AL144">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AM144">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AN144">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AO144">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AR144">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="AS144">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AT144">
-        <v>3.79</v>
+        <v>2.83</v>
       </c>
       <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
         <v>6</v>
       </c>
-      <c r="AV144">
-        <v>2</v>
-      </c>
       <c r="AW144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY144">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ144">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC144">
         <v>10</v>
       </c>
       <c r="BD144">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="BE144">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF144">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
       <c r="BG144">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH144">
         <v>3.05</v>
       </c>
       <c r="BI144">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BJ144">
         <v>2.3</v>
       </c>
       <c r="BK144">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BL144">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="BM144">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BN144">
         <v>1.5</v>
       </c>
       <c r="BO144">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BP144">
         <v>1.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
   </si>
   <si>
     <t>['27', '62']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1417,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2441,7 +2447,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2931,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>0.5600000000000001</v>
@@ -3265,7 +3271,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3677,7 +3683,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3883,7 +3889,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4089,7 +4095,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4501,7 +4507,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5119,7 +5125,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5197,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5531,7 +5537,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5737,7 +5743,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6149,7 +6155,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6561,7 +6567,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6767,7 +6773,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6973,7 +6979,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8003,7 +8009,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8081,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>0.89</v>
@@ -8209,7 +8215,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8415,7 +8421,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -9445,7 +9451,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9651,7 +9657,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10269,7 +10275,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10887,7 +10893,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11093,7 +11099,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11299,7 +11305,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11505,7 +11511,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12535,7 +12541,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12947,7 +12953,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13153,7 +13159,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13231,7 +13237,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13565,7 +13571,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14389,7 +14395,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15007,7 +15013,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15213,7 +15219,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -16037,7 +16043,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16243,7 +16249,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16321,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>0.11</v>
@@ -16655,7 +16661,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17891,7 +17897,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18097,7 +18103,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18175,7 +18181,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83">
         <v>1.89</v>
@@ -18715,7 +18721,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19745,7 +19751,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19951,7 +19957,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20363,7 +20369,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20775,7 +20781,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20981,7 +20987,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21265,7 +21271,7 @@
         <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21393,7 +21399,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21599,7 +21605,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21805,7 +21811,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22835,7 +22841,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23041,7 +23047,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23247,7 +23253,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23659,7 +23665,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24277,7 +24283,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24483,7 +24489,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -25513,7 +25519,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26003,7 +26009,7 @@
         <v>0.57</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121">
         <v>0.44</v>
@@ -26131,7 +26137,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26749,7 +26755,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27161,7 +27167,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27367,7 +27373,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27573,7 +27579,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27651,7 +27657,7 @@
         <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ129">
         <v>1.11</v>
@@ -27779,7 +27785,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28191,7 +28197,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28603,7 +28609,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29015,7 +29021,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30045,7 +30051,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30457,7 +30463,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30663,7 +30669,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31026,6 +31032,212 @@
       </c>
       <c r="BP145">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7453572</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>77</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>196</v>
+      </c>
+      <c r="P146" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q146">
+        <v>2.7</v>
+      </c>
+      <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>3.3</v>
+      </c>
+      <c r="T146">
+        <v>1.28</v>
+      </c>
+      <c r="U146">
+        <v>3.35</v>
+      </c>
+      <c r="V146">
+        <v>2.2</v>
+      </c>
+      <c r="W146">
+        <v>1.6</v>
+      </c>
+      <c r="X146">
+        <v>4.65</v>
+      </c>
+      <c r="Y146">
+        <v>1.16</v>
+      </c>
+      <c r="Z146">
+        <v>2.1</v>
+      </c>
+      <c r="AA146">
+        <v>3.9</v>
+      </c>
+      <c r="AB146">
+        <v>3.1</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>13</v>
+      </c>
+      <c r="AE146">
+        <v>1.17</v>
+      </c>
+      <c r="AF146">
+        <v>5</v>
+      </c>
+      <c r="AG146">
+        <v>1.5</v>
+      </c>
+      <c r="AH146">
+        <v>2.4</v>
+      </c>
+      <c r="AI146">
+        <v>1.42</v>
+      </c>
+      <c r="AJ146">
+        <v>2.6</v>
+      </c>
+      <c r="AK146">
+        <v>1.38</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>1.65</v>
+      </c>
+      <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>1</v>
+      </c>
+      <c r="AP146">
+        <v>1.6</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>1.85</v>
+      </c>
+      <c r="AS146">
+        <v>1.29</v>
+      </c>
+      <c r="AT146">
+        <v>3.14</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+      <c r="AY146">
+        <v>20</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>10</v>
+      </c>
+      <c r="BB146">
+        <v>17</v>
+      </c>
+      <c r="BC146">
+        <v>27</v>
+      </c>
+      <c r="BD146">
+        <v>1.7</v>
+      </c>
+      <c r="BE146">
+        <v>6.75</v>
+      </c>
+      <c r="BF146">
+        <v>2.4</v>
+      </c>
+      <c r="BG146">
+        <v>1.25</v>
+      </c>
+      <c r="BH146">
+        <v>3.45</v>
+      </c>
+      <c r="BI146">
+        <v>1.44</v>
+      </c>
+      <c r="BJ146">
+        <v>2.55</v>
+      </c>
+      <c r="BK146">
+        <v>1.73</v>
+      </c>
+      <c r="BL146">
+        <v>1.98</v>
+      </c>
+      <c r="BM146">
+        <v>2.1</v>
+      </c>
+      <c r="BN146">
+        <v>1.64</v>
+      </c>
+      <c r="BO146">
+        <v>2.65</v>
+      </c>
+      <c r="BP146">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['37', '53']</t>
+  </si>
+  <si>
+    <t>['55', '62']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -797,6 +803,12 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['6', '60', '72']</t>
+  </si>
+  <si>
+    <t>['49', '83']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1429,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1701,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>0.78</v>
@@ -1907,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ4">
         <v>0.89</v>
@@ -2116,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2447,7 +2459,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2731,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3271,7 +3283,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3683,7 +3695,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3889,7 +3901,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4095,7 +4107,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4176,7 +4188,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4507,7 +4519,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4997,10 +5009,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -5125,7 +5137,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5537,7 +5549,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5743,7 +5755,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5824,7 +5836,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>2.53</v>
@@ -6027,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -6155,7 +6167,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6567,7 +6579,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6645,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27">
         <v>1.44</v>
@@ -6773,7 +6785,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6979,7 +6991,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7266,7 +7278,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>2.35</v>
@@ -8009,7 +8021,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8215,7 +8227,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8421,7 +8433,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8499,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1.89</v>
@@ -9117,10 +9129,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ39">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9451,7 +9463,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9657,7 +9669,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9735,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -10275,7 +10287,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10356,7 +10368,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10768,7 +10780,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10893,7 +10905,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10971,7 +10983,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11099,7 +11111,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11305,7 +11317,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11511,7 +11523,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12207,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54">
         <v>0.11</v>
@@ -12541,7 +12553,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12953,7 +12965,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13031,10 +13043,10 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ58">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>0.9399999999999999</v>
@@ -13159,7 +13171,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13240,7 +13252,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13571,7 +13583,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14270,7 +14282,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14395,7 +14407,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14679,7 +14691,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
@@ -15013,7 +15025,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15219,7 +15231,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15297,7 +15309,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
         <v>1.67</v>
@@ -15712,7 +15724,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ71">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16043,7 +16055,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16124,7 +16136,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16249,7 +16261,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16661,7 +16673,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16945,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77">
         <v>0.7</v>
@@ -17897,7 +17909,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17975,7 +17987,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ82">
         <v>1.67</v>
@@ -18103,7 +18115,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18721,7 +18733,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18802,7 +18814,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ86">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.86</v>
@@ -19008,7 +19020,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19420,7 +19432,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19751,7 +19763,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19829,7 +19841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ91">
         <v>0.89</v>
@@ -19957,7 +19969,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20035,7 +20047,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20369,7 +20381,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20781,7 +20793,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20987,7 +20999,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21399,7 +21411,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21480,7 +21492,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21605,7 +21617,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21811,7 +21823,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22098,7 +22110,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.86</v>
@@ -22510,7 +22522,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22713,7 +22725,7 @@
         <v>1.33</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -22841,7 +22853,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23047,7 +23059,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23128,7 +23140,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.5</v>
@@ -23253,7 +23265,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23331,7 +23343,7 @@
         <v>0.86</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ108">
         <v>0.89</v>
@@ -23537,7 +23549,7 @@
         <v>1.17</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>0.78</v>
@@ -23665,7 +23677,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24283,7 +24295,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24361,7 +24373,7 @@
         <v>1.86</v>
       </c>
       <c r="AP113">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ113">
         <v>1.89</v>
@@ -24489,7 +24501,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24776,7 +24788,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ115">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR115">
         <v>2.07</v>
@@ -25519,7 +25531,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -26012,7 +26024,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -26137,7 +26149,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26627,7 +26639,7 @@
         <v>0.57</v>
       </c>
       <c r="AP124">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ124">
         <v>0.67</v>
@@ -26755,7 +26767,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27167,7 +27179,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27245,7 +27257,7 @@
         <v>0.57</v>
       </c>
       <c r="AP127">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ127">
         <v>0.5600000000000001</v>
@@ -27373,7 +27385,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27454,7 +27466,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.7</v>
@@ -27579,7 +27591,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27785,7 +27797,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -27866,7 +27878,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ130">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28197,7 +28209,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28484,7 +28496,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ133">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -28609,7 +28621,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29021,7 +29033,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29305,7 +29317,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
         <v>0.78</v>
@@ -29514,7 +29526,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -29717,7 +29729,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139">
         <v>0.67</v>
@@ -30051,7 +30063,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30463,7 +30475,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30669,7 +30681,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -31081,7 +31093,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31238,6 +31250,624 @@
       </c>
       <c r="BP146">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7453573</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>197</v>
+      </c>
+      <c r="P147" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q147">
+        <v>2.6</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147">
+        <v>1.36</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>2.49</v>
+      </c>
+      <c r="AA147">
+        <v>6.05</v>
+      </c>
+      <c r="AB147">
+        <v>1.84</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>11</v>
+      </c>
+      <c r="AE147">
+        <v>1.26</v>
+      </c>
+      <c r="AF147">
+        <v>3.67</v>
+      </c>
+      <c r="AG147">
+        <v>1.78</v>
+      </c>
+      <c r="AH147">
+        <v>1.9</v>
+      </c>
+      <c r="AI147">
+        <v>1.7</v>
+      </c>
+      <c r="AJ147">
+        <v>2.05</v>
+      </c>
+      <c r="AK147">
+        <v>1.3</v>
+      </c>
+      <c r="AL147">
+        <v>1.26</v>
+      </c>
+      <c r="AM147">
+        <v>1.83</v>
+      </c>
+      <c r="AN147">
+        <v>1.75</v>
+      </c>
+      <c r="AO147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP147">
+        <v>1.89</v>
+      </c>
+      <c r="AQ147">
+        <v>0.5</v>
+      </c>
+      <c r="AR147">
+        <v>1.75</v>
+      </c>
+      <c r="AS147">
+        <v>1.34</v>
+      </c>
+      <c r="AT147">
+        <v>3.09</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>5</v>
+      </c>
+      <c r="AY147">
+        <v>20</v>
+      </c>
+      <c r="AZ147">
+        <v>15</v>
+      </c>
+      <c r="BA147">
+        <v>12</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>17</v>
+      </c>
+      <c r="BD147">
+        <v>1.52</v>
+      </c>
+      <c r="BE147">
+        <v>6.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.8</v>
+      </c>
+      <c r="BG147">
+        <v>1.34</v>
+      </c>
+      <c r="BH147">
+        <v>2.9</v>
+      </c>
+      <c r="BI147">
+        <v>1.58</v>
+      </c>
+      <c r="BJ147">
+        <v>2.18</v>
+      </c>
+      <c r="BK147">
+        <v>1.95</v>
+      </c>
+      <c r="BL147">
+        <v>1.75</v>
+      </c>
+      <c r="BM147">
+        <v>2.45</v>
+      </c>
+      <c r="BN147">
+        <v>1.48</v>
+      </c>
+      <c r="BO147">
+        <v>3.2</v>
+      </c>
+      <c r="BP147">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7453574</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45647.59375</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>82</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>167</v>
+      </c>
+      <c r="P148" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>2.55</v>
+      </c>
+      <c r="T148">
+        <v>1.38</v>
+      </c>
+      <c r="U148">
+        <v>2.8</v>
+      </c>
+      <c r="V148">
+        <v>2.7</v>
+      </c>
+      <c r="W148">
+        <v>1.4</v>
+      </c>
+      <c r="X148">
+        <v>7.3</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>3.64</v>
+      </c>
+      <c r="AA148">
+        <v>3.65</v>
+      </c>
+      <c r="AB148">
+        <v>1.94</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>9</v>
+      </c>
+      <c r="AE148">
+        <v>1.28</v>
+      </c>
+      <c r="AF148">
+        <v>3.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.92</v>
+      </c>
+      <c r="AH148">
+        <v>1.92</v>
+      </c>
+      <c r="AI148">
+        <v>1.7</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>1.8</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.25</v>
+      </c>
+      <c r="AN148">
+        <v>1.33</v>
+      </c>
+      <c r="AO148">
+        <v>1.33</v>
+      </c>
+      <c r="AP148">
+        <v>1.2</v>
+      </c>
+      <c r="AQ148">
+        <v>1.5</v>
+      </c>
+      <c r="AR148">
+        <v>1.11</v>
+      </c>
+      <c r="AS148">
+        <v>1.23</v>
+      </c>
+      <c r="AT148">
+        <v>2.34</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>5</v>
+      </c>
+      <c r="AZ148">
+        <v>13</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>2.55</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>1.63</v>
+      </c>
+      <c r="BG148">
+        <v>1.28</v>
+      </c>
+      <c r="BH148">
+        <v>3.3</v>
+      </c>
+      <c r="BI148">
+        <v>1.49</v>
+      </c>
+      <c r="BJ148">
+        <v>2.43</v>
+      </c>
+      <c r="BK148">
+        <v>1.79</v>
+      </c>
+      <c r="BL148">
+        <v>1.9</v>
+      </c>
+      <c r="BM148">
+        <v>2.23</v>
+      </c>
+      <c r="BN148">
+        <v>1.57</v>
+      </c>
+      <c r="BO148">
+        <v>2.85</v>
+      </c>
+      <c r="BP148">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7453570</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45647.69791666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>198</v>
+      </c>
+      <c r="P149" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q149">
+        <v>3.1</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>3.1</v>
+      </c>
+      <c r="T149">
+        <v>1.38</v>
+      </c>
+      <c r="U149">
+        <v>2.8</v>
+      </c>
+      <c r="V149">
+        <v>2.65</v>
+      </c>
+      <c r="W149">
+        <v>1.42</v>
+      </c>
+      <c r="X149">
+        <v>6.05</v>
+      </c>
+      <c r="Y149">
+        <v>1.09</v>
+      </c>
+      <c r="Z149">
+        <v>2.68</v>
+      </c>
+      <c r="AA149">
+        <v>4.74</v>
+      </c>
+      <c r="AB149">
+        <v>1.91</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.3</v>
+      </c>
+      <c r="AF149">
+        <v>3.45</v>
+      </c>
+      <c r="AG149">
+        <v>1.96</v>
+      </c>
+      <c r="AH149">
+        <v>1.88</v>
+      </c>
+      <c r="AI149">
+        <v>1.62</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.45</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.48</v>
+      </c>
+      <c r="AN149">
+        <v>1.11</v>
+      </c>
+      <c r="AO149">
+        <v>0.44</v>
+      </c>
+      <c r="AP149">
+        <v>1.1</v>
+      </c>
+      <c r="AQ149">
+        <v>0.5</v>
+      </c>
+      <c r="AR149">
+        <v>1.18</v>
+      </c>
+      <c r="AS149">
+        <v>1.07</v>
+      </c>
+      <c r="AT149">
+        <v>2.25</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>3</v>
+      </c>
+      <c r="AY149">
+        <v>22</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>2</v>
+      </c>
+      <c r="BE149">
+        <v>6.5</v>
+      </c>
+      <c r="BF149">
+        <v>1.97</v>
+      </c>
+      <c r="BG149">
+        <v>1.32</v>
+      </c>
+      <c r="BH149">
+        <v>3</v>
+      </c>
+      <c r="BI149">
+        <v>1.54</v>
+      </c>
+      <c r="BJ149">
+        <v>2.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.86</v>
+      </c>
+      <c r="BL149">
+        <v>1.82</v>
+      </c>
+      <c r="BM149">
+        <v>2.33</v>
+      </c>
+      <c r="BN149">
+        <v>1.5</v>
+      </c>
+      <c r="BO149">
+        <v>3.05</v>
+      </c>
+      <c r="BP149">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['55', '62']</t>
   </si>
   <si>
+    <t>['45+3', '59']</t>
+  </si>
+  <si>
+    <t>['29', '72']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -809,6 +818,9 @@
   </si>
   <si>
     <t>['49', '83']</t>
+  </si>
+  <si>
+    <t>['66', '78']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1922,7 +1934,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2331,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2459,7 +2471,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2540,7 +2552,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3155,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10">
         <v>0.11</v>
@@ -3283,7 +3295,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3695,7 +3707,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3901,7 +3913,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3982,7 +3994,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,7 +4119,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4185,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4391,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4519,7 +4531,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4803,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5137,7 +5149,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5424,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>1.37</v>
@@ -5549,7 +5561,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5627,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ22">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>1.58</v>
@@ -5755,7 +5767,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6042,7 +6054,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
         <v>1.65</v>
@@ -6167,7 +6179,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6245,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.11</v>
@@ -6451,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ26">
         <v>0.7</v>
@@ -6579,7 +6591,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6785,7 +6797,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6991,7 +7003,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7072,7 +7084,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.96</v>
@@ -8021,7 +8033,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8102,7 +8114,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.74</v>
@@ -8227,7 +8239,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8433,7 +8445,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8514,7 +8526,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>0.9399999999999999</v>
@@ -8923,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>0.11</v>
@@ -9335,7 +9347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ40">
         <v>0.78</v>
@@ -9463,7 +9475,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9669,7 +9681,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10287,7 +10299,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10571,10 +10583,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.58</v>
@@ -10905,7 +10917,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11111,7 +11123,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11189,7 +11201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.44</v>
@@ -11317,7 +11329,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11398,7 +11410,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR50">
         <v>1.76</v>
@@ -11523,7 +11535,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12016,7 +12028,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>0.82</v>
@@ -12553,7 +12565,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12837,7 +12849,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>0.78</v>
@@ -12965,7 +12977,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13171,7 +13183,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13583,7 +13595,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13664,7 +13676,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR61">
         <v>2.01</v>
@@ -14073,7 +14085,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14407,7 +14419,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -14485,10 +14497,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR65">
         <v>1.79</v>
@@ -14694,7 +14706,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ66">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
         <v>1.81</v>
@@ -14897,7 +14909,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15025,7 +15037,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15103,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>0.78</v>
@@ -15231,7 +15243,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15312,7 +15324,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.21</v>
@@ -15721,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15930,7 +15942,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.82</v>
@@ -16055,7 +16067,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16133,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16261,7 +16273,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16548,7 +16560,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.41</v>
@@ -16673,7 +16685,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17784,7 +17796,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ81">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR81">
         <v>0.89</v>
@@ -17909,7 +17921,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17990,7 +18002,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.92</v>
@@ -18115,7 +18127,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18196,7 +18208,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.89</v>
@@ -18399,7 +18411,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.33</v>
@@ -18605,10 +18617,10 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR85">
         <v>1.67</v>
@@ -18733,7 +18745,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -18811,7 +18823,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -19223,7 +19235,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ88">
         <v>0.7</v>
@@ -19763,7 +19775,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19844,7 +19856,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -19969,7 +19981,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20381,7 +20393,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20462,7 +20474,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>2.03</v>
@@ -20793,7 +20805,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20999,7 +21011,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21077,7 +21089,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ97">
         <v>0.5600000000000001</v>
@@ -21411,7 +21423,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21489,7 +21501,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ99">
         <v>0.5</v>
@@ -21617,7 +21629,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21698,7 +21710,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21823,7 +21835,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22107,7 +22119,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22313,7 +22325,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>0.7</v>
@@ -22728,7 +22740,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR105">
         <v>0.83</v>
@@ -22853,7 +22865,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23059,7 +23071,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23265,7 +23277,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23346,7 +23358,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.16</v>
@@ -23677,7 +23689,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23755,10 +23767,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR110">
         <v>1.65</v>
@@ -24167,7 +24179,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ112">
         <v>1.44</v>
@@ -24295,7 +24307,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24376,7 +24388,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ113">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR113">
         <v>0.88</v>
@@ -24501,7 +24513,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24991,7 +25003,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ116">
         <v>0.5600000000000001</v>
@@ -25197,7 +25209,7 @@
         <v>0.57</v>
       </c>
       <c r="AP117">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ117">
         <v>0.7</v>
@@ -25531,7 +25543,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25818,7 +25830,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26149,7 +26161,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26767,7 +26779,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -27054,7 +27066,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.26</v>
@@ -27179,7 +27191,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27385,7 +27397,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27463,7 +27475,7 @@
         <v>1.57</v>
       </c>
       <c r="AP128">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27591,7 +27603,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27672,7 +27684,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -27797,7 +27809,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -27875,7 +27887,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28081,10 +28093,10 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ131">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28209,7 +28221,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28290,7 +28302,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ132">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28621,7 +28633,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -28905,7 +28917,7 @@
         <v>0.75</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>0.78</v>
@@ -29033,7 +29045,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -30063,7 +30075,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30475,7 +30487,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30553,7 +30565,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
         <v>0.78</v>
@@ -30681,7 +30693,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30762,7 +30774,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.4</v>
@@ -31093,7 +31105,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31266,7 +31278,7 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45647.5</v>
+        <v>45646.875</v>
       </c>
       <c r="F147">
         <v>19</v>
@@ -31505,7 +31517,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31711,7 +31723,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -31868,6 +31880,830 @@
       </c>
       <c r="BP149">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7453568</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45647.875</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>199</v>
+      </c>
+      <c r="P150" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q150">
+        <v>3.25</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>3.25</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.08</v>
+      </c>
+      <c r="Z150">
+        <v>2.66</v>
+      </c>
+      <c r="AA150">
+        <v>3.34</v>
+      </c>
+      <c r="AB150">
+        <v>2.54</v>
+      </c>
+      <c r="AC150">
+        <v>1.05</v>
+      </c>
+      <c r="AD150">
+        <v>11</v>
+      </c>
+      <c r="AE150">
+        <v>1.31</v>
+      </c>
+      <c r="AF150">
+        <v>3.35</v>
+      </c>
+      <c r="AG150">
+        <v>1.87</v>
+      </c>
+      <c r="AH150">
+        <v>1.87</v>
+      </c>
+      <c r="AI150">
+        <v>1.75</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>1.52</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.5</v>
+      </c>
+      <c r="AN150">
+        <v>2.22</v>
+      </c>
+      <c r="AO150">
+        <v>1.89</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.8</v>
+      </c>
+      <c r="AR150">
+        <v>1.81</v>
+      </c>
+      <c r="AS150">
+        <v>1.62</v>
+      </c>
+      <c r="AT150">
+        <v>3.43</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>7</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>15</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>6</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>1.79</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>2.23</v>
+      </c>
+      <c r="BG150">
+        <v>1.34</v>
+      </c>
+      <c r="BH150">
+        <v>2.9</v>
+      </c>
+      <c r="BI150">
+        <v>1.58</v>
+      </c>
+      <c r="BJ150">
+        <v>2.2</v>
+      </c>
+      <c r="BK150">
+        <v>1.95</v>
+      </c>
+      <c r="BL150">
+        <v>1.75</v>
+      </c>
+      <c r="BM150">
+        <v>2.45</v>
+      </c>
+      <c r="BN150">
+        <v>1.48</v>
+      </c>
+      <c r="BO150">
+        <v>3.15</v>
+      </c>
+      <c r="BP150">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7453569</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45648.39583333334</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q151">
+        <v>2.75</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>3.6</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>2.12</v>
+      </c>
+      <c r="AA151">
+        <v>3.56</v>
+      </c>
+      <c r="AB151">
+        <v>3.14</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>15</v>
+      </c>
+      <c r="AE151">
+        <v>1.21</v>
+      </c>
+      <c r="AF151">
+        <v>4.25</v>
+      </c>
+      <c r="AG151">
+        <v>1.61</v>
+      </c>
+      <c r="AH151">
+        <v>2.2</v>
+      </c>
+      <c r="AI151">
+        <v>1.57</v>
+      </c>
+      <c r="AJ151">
+        <v>2.25</v>
+      </c>
+      <c r="AK151">
+        <v>1.36</v>
+      </c>
+      <c r="AL151">
+        <v>1.24</v>
+      </c>
+      <c r="AM151">
+        <v>1.75</v>
+      </c>
+      <c r="AN151">
+        <v>2.78</v>
+      </c>
+      <c r="AO151">
+        <v>1.67</v>
+      </c>
+      <c r="AP151">
+        <v>2.8</v>
+      </c>
+      <c r="AQ151">
+        <v>1.5</v>
+      </c>
+      <c r="AR151">
+        <v>1.79</v>
+      </c>
+      <c r="AS151">
+        <v>1.42</v>
+      </c>
+      <c r="AT151">
+        <v>3.21</v>
+      </c>
+      <c r="AU151">
+        <v>7</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>20</v>
+      </c>
+      <c r="AZ151">
+        <v>8</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>15</v>
+      </c>
+      <c r="BD151">
+        <v>1.57</v>
+      </c>
+      <c r="BE151">
+        <v>6.75</v>
+      </c>
+      <c r="BF151">
+        <v>2.65</v>
+      </c>
+      <c r="BG151">
+        <v>1.29</v>
+      </c>
+      <c r="BH151">
+        <v>3.2</v>
+      </c>
+      <c r="BI151">
+        <v>1.5</v>
+      </c>
+      <c r="BJ151">
+        <v>2.4</v>
+      </c>
+      <c r="BK151">
+        <v>1.82</v>
+      </c>
+      <c r="BL151">
+        <v>1.86</v>
+      </c>
+      <c r="BM151">
+        <v>2.3</v>
+      </c>
+      <c r="BN151">
+        <v>1.54</v>
+      </c>
+      <c r="BO151">
+        <v>2.9</v>
+      </c>
+      <c r="BP151">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7454758</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45648.5</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>87</v>
+      </c>
+      <c r="P152" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q152">
+        <v>3.4</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>3.2</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>9</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>2.78</v>
+      </c>
+      <c r="AA152">
+        <v>3.28</v>
+      </c>
+      <c r="AB152">
+        <v>2.47</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE152">
+        <v>1.32</v>
+      </c>
+      <c r="AF152">
+        <v>3.26</v>
+      </c>
+      <c r="AG152">
+        <v>1.98</v>
+      </c>
+      <c r="AH152">
+        <v>1.77</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.55</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>1.45</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>1.11</v>
+      </c>
+      <c r="AP152">
+        <v>1.8</v>
+      </c>
+      <c r="AQ152">
+        <v>1.3</v>
+      </c>
+      <c r="AR152">
+        <v>1.23</v>
+      </c>
+      <c r="AS152">
+        <v>1.05</v>
+      </c>
+      <c r="AT152">
+        <v>2.28</v>
+      </c>
+      <c r="AU152">
+        <v>2</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
+        <v>5</v>
+      </c>
+      <c r="AX152">
+        <v>7</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>22</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>8</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>2</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>1.98</v>
+      </c>
+      <c r="BG152">
+        <v>1.27</v>
+      </c>
+      <c r="BH152">
+        <v>3.3</v>
+      </c>
+      <c r="BI152">
+        <v>1.48</v>
+      </c>
+      <c r="BJ152">
+        <v>2.43</v>
+      </c>
+      <c r="BK152">
+        <v>1.77</v>
+      </c>
+      <c r="BL152">
+        <v>1.92</v>
+      </c>
+      <c r="BM152">
+        <v>2.2</v>
+      </c>
+      <c r="BN152">
+        <v>1.57</v>
+      </c>
+      <c r="BO152">
+        <v>2.8</v>
+      </c>
+      <c r="BP152">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7453571</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45648.63541666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H153" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>201</v>
+      </c>
+      <c r="P153" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q153">
+        <v>2.75</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>8</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>2.2</v>
+      </c>
+      <c r="AA153">
+        <v>3.31</v>
+      </c>
+      <c r="AB153">
+        <v>3.2</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>11</v>
+      </c>
+      <c r="AE153">
+        <v>1.31</v>
+      </c>
+      <c r="AF153">
+        <v>3.35</v>
+      </c>
+      <c r="AG153">
+        <v>1.91</v>
+      </c>
+      <c r="AH153">
+        <v>1.83</v>
+      </c>
+      <c r="AI153">
+        <v>1.75</v>
+      </c>
+      <c r="AJ153">
+        <v>2</v>
+      </c>
+      <c r="AK153">
+        <v>1.33</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.72</v>
+      </c>
+      <c r="AN153">
+        <v>1.33</v>
+      </c>
+      <c r="AO153">
+        <v>0.89</v>
+      </c>
+      <c r="AP153">
+        <v>1.5</v>
+      </c>
+      <c r="AQ153">
+        <v>0.8</v>
+      </c>
+      <c r="AR153">
+        <v>1.62</v>
+      </c>
+      <c r="AS153">
+        <v>1.23</v>
+      </c>
+      <c r="AT153">
+        <v>2.85</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>11</v>
+      </c>
+      <c r="AZ153">
+        <v>12</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.67</v>
+      </c>
+      <c r="BE153">
+        <v>7</v>
+      </c>
+      <c r="BF153">
+        <v>2.4</v>
+      </c>
+      <c r="BG153">
+        <v>1.16</v>
+      </c>
+      <c r="BH153">
+        <v>4.6</v>
+      </c>
+      <c r="BI153">
+        <v>1.29</v>
+      </c>
+      <c r="BJ153">
+        <v>3.2</v>
+      </c>
+      <c r="BK153">
+        <v>1.49</v>
+      </c>
+      <c r="BL153">
+        <v>2.43</v>
+      </c>
+      <c r="BM153">
+        <v>1.78</v>
+      </c>
+      <c r="BN153">
+        <v>1.91</v>
+      </c>
+      <c r="BO153">
+        <v>2.18</v>
+      </c>
+      <c r="BP153">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -613,10 +613,10 @@
     <t>['55', '62']</t>
   </si>
   <si>
-    <t>['45+3', '59']</t>
+    <t>['29', '72']</t>
   </si>
   <si>
-    <t>['29', '72']</t>
+    <t>['45+3', '59']</t>
   </si>
   <si>
     <t>['90+10']</t>
@@ -31278,7 +31278,7 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45646.875</v>
+        <v>45647.5</v>
       </c>
       <c r="F147">
         <v>19</v>
@@ -31887,7 +31887,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7453568</v>
+        <v>7453569</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31896,16 +31896,16 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45647.875</v>
+        <v>45648.39583333334</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -31920,172 +31920,172 @@
         <v>2</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O150" t="s">
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="Q150">
+        <v>2.75</v>
+      </c>
+      <c r="R150">
+        <v>2.3</v>
+      </c>
+      <c r="S150">
+        <v>3.6</v>
+      </c>
+      <c r="T150">
+        <v>1.33</v>
+      </c>
+      <c r="U150">
         <v>3.25</v>
       </c>
-      <c r="R150">
-        <v>2.1</v>
-      </c>
-      <c r="S150">
-        <v>3.25</v>
-      </c>
-      <c r="T150">
-        <v>1.4</v>
-      </c>
-      <c r="U150">
-        <v>2.75</v>
-      </c>
       <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.11</v>
+      </c>
+      <c r="Z150">
+        <v>2.12</v>
+      </c>
+      <c r="AA150">
+        <v>3.56</v>
+      </c>
+      <c r="AB150">
+        <v>3.14</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>15</v>
+      </c>
+      <c r="AE150">
+        <v>1.21</v>
+      </c>
+      <c r="AF150">
+        <v>4.25</v>
+      </c>
+      <c r="AG150">
+        <v>1.61</v>
+      </c>
+      <c r="AH150">
+        <v>2.2</v>
+      </c>
+      <c r="AI150">
+        <v>1.57</v>
+      </c>
+      <c r="AJ150">
+        <v>2.25</v>
+      </c>
+      <c r="AK150">
+        <v>1.36</v>
+      </c>
+      <c r="AL150">
+        <v>1.24</v>
+      </c>
+      <c r="AM150">
+        <v>1.75</v>
+      </c>
+      <c r="AN150">
+        <v>2.78</v>
+      </c>
+      <c r="AO150">
+        <v>1.67</v>
+      </c>
+      <c r="AP150">
+        <v>2.8</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
+        <v>1.79</v>
+      </c>
+      <c r="AS150">
+        <v>1.42</v>
+      </c>
+      <c r="AT150">
+        <v>3.21</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
         <v>3</v>
       </c>
-      <c r="W150">
-        <v>1.36</v>
-      </c>
-      <c r="X150">
+      <c r="AW150">
         <v>8</v>
       </c>
-      <c r="Y150">
-        <v>1.08</v>
-      </c>
-      <c r="Z150">
-        <v>2.66</v>
-      </c>
-      <c r="AA150">
-        <v>3.34</v>
-      </c>
-      <c r="AB150">
-        <v>2.54</v>
-      </c>
-      <c r="AC150">
-        <v>1.05</v>
-      </c>
-      <c r="AD150">
-        <v>11</v>
-      </c>
-      <c r="AE150">
-        <v>1.31</v>
-      </c>
-      <c r="AF150">
-        <v>3.35</v>
-      </c>
-      <c r="AG150">
-        <v>1.87</v>
-      </c>
-      <c r="AH150">
-        <v>1.87</v>
-      </c>
-      <c r="AI150">
-        <v>1.75</v>
-      </c>
-      <c r="AJ150">
-        <v>2</v>
-      </c>
-      <c r="AK150">
-        <v>1.52</v>
-      </c>
-      <c r="AL150">
-        <v>1.28</v>
-      </c>
-      <c r="AM150">
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>20</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>10</v>
+      </c>
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>15</v>
+      </c>
+      <c r="BD150">
+        <v>1.57</v>
+      </c>
+      <c r="BE150">
+        <v>6.75</v>
+      </c>
+      <c r="BF150">
+        <v>2.65</v>
+      </c>
+      <c r="BG150">
+        <v>1.29</v>
+      </c>
+      <c r="BH150">
+        <v>3.2</v>
+      </c>
+      <c r="BI150">
         <v>1.5</v>
       </c>
-      <c r="AN150">
-        <v>2.22</v>
-      </c>
-      <c r="AO150">
-        <v>1.89</v>
-      </c>
-      <c r="AP150">
-        <v>2.1</v>
-      </c>
-      <c r="AQ150">
-        <v>1.8</v>
-      </c>
-      <c r="AR150">
-        <v>1.81</v>
-      </c>
-      <c r="AS150">
-        <v>1.62</v>
-      </c>
-      <c r="AT150">
-        <v>3.43</v>
-      </c>
-      <c r="AU150">
-        <v>5</v>
-      </c>
-      <c r="AV150">
-        <v>7</v>
-      </c>
-      <c r="AW150">
-        <v>3</v>
-      </c>
-      <c r="AX150">
-        <v>4</v>
-      </c>
-      <c r="AY150">
-        <v>12</v>
-      </c>
-      <c r="AZ150">
-        <v>15</v>
-      </c>
-      <c r="BA150">
-        <v>5</v>
-      </c>
-      <c r="BB150">
-        <v>6</v>
-      </c>
-      <c r="BC150">
-        <v>11</v>
-      </c>
-      <c r="BD150">
-        <v>1.79</v>
-      </c>
-      <c r="BE150">
-        <v>6.4</v>
-      </c>
-      <c r="BF150">
-        <v>2.23</v>
-      </c>
-      <c r="BG150">
+      <c r="BJ150">
+        <v>2.4</v>
+      </c>
+      <c r="BK150">
+        <v>1.82</v>
+      </c>
+      <c r="BL150">
+        <v>1.86</v>
+      </c>
+      <c r="BM150">
+        <v>2.3</v>
+      </c>
+      <c r="BN150">
+        <v>1.54</v>
+      </c>
+      <c r="BO150">
+        <v>2.9</v>
+      </c>
+      <c r="BP150">
         <v>1.34</v>
-      </c>
-      <c r="BH150">
-        <v>2.9</v>
-      </c>
-      <c r="BI150">
-        <v>1.58</v>
-      </c>
-      <c r="BJ150">
-        <v>2.2</v>
-      </c>
-      <c r="BK150">
-        <v>1.95</v>
-      </c>
-      <c r="BL150">
-        <v>1.75</v>
-      </c>
-      <c r="BM150">
-        <v>2.45</v>
-      </c>
-      <c r="BN150">
-        <v>1.48</v>
-      </c>
-      <c r="BO150">
-        <v>3.15</v>
-      </c>
-      <c r="BP150">
-        <v>1.29</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32093,7 +32093,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7453569</v>
+        <v>7454758</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32102,196 +32102,196 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45648.39583333334</v>
+        <v>45648.5</v>
       </c>
       <c r="F151">
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H151" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="P151" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="Q151">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R151">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T151">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U151">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="V151">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W151">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X151">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y151">
+        <v>1.07</v>
+      </c>
+      <c r="Z151">
+        <v>2.78</v>
+      </c>
+      <c r="AA151">
+        <v>3.28</v>
+      </c>
+      <c r="AB151">
+        <v>2.47</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE151">
+        <v>1.32</v>
+      </c>
+      <c r="AF151">
+        <v>3.26</v>
+      </c>
+      <c r="AG151">
+        <v>1.98</v>
+      </c>
+      <c r="AH151">
+        <v>1.77</v>
+      </c>
+      <c r="AI151">
+        <v>1.8</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.55</v>
+      </c>
+      <c r="AL151">
+        <v>1.28</v>
+      </c>
+      <c r="AM151">
+        <v>1.45</v>
+      </c>
+      <c r="AN151">
+        <v>2</v>
+      </c>
+      <c r="AO151">
         <v>1.11</v>
       </c>
-      <c r="Z151">
-        <v>2.12</v>
-      </c>
-      <c r="AA151">
-        <v>3.56</v>
-      </c>
-      <c r="AB151">
-        <v>3.14</v>
-      </c>
-      <c r="AC151">
-        <v>1.03</v>
-      </c>
-      <c r="AD151">
-        <v>15</v>
-      </c>
-      <c r="AE151">
-        <v>1.21</v>
-      </c>
-      <c r="AF151">
-        <v>4.25</v>
-      </c>
-      <c r="AG151">
-        <v>1.61</v>
-      </c>
-      <c r="AH151">
+      <c r="AP151">
+        <v>1.8</v>
+      </c>
+      <c r="AQ151">
+        <v>1.3</v>
+      </c>
+      <c r="AR151">
+        <v>1.23</v>
+      </c>
+      <c r="AS151">
+        <v>1.05</v>
+      </c>
+      <c r="AT151">
+        <v>2.28</v>
+      </c>
+      <c r="AU151">
+        <v>2</v>
+      </c>
+      <c r="AV151">
+        <v>10</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>7</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
+        <v>22</v>
+      </c>
+      <c r="BA151">
+        <v>4</v>
+      </c>
+      <c r="BB151">
+        <v>8</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>2</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>1.98</v>
+      </c>
+      <c r="BG151">
+        <v>1.27</v>
+      </c>
+      <c r="BH151">
+        <v>3.3</v>
+      </c>
+      <c r="BI151">
+        <v>1.48</v>
+      </c>
+      <c r="BJ151">
+        <v>2.43</v>
+      </c>
+      <c r="BK151">
+        <v>1.77</v>
+      </c>
+      <c r="BL151">
+        <v>1.92</v>
+      </c>
+      <c r="BM151">
         <v>2.2</v>
       </c>
-      <c r="AI151">
+      <c r="BN151">
         <v>1.57</v>
       </c>
-      <c r="AJ151">
-        <v>2.25</v>
-      </c>
-      <c r="AK151">
+      <c r="BO151">
+        <v>2.8</v>
+      </c>
+      <c r="BP151">
         <v>1.36</v>
-      </c>
-      <c r="AL151">
-        <v>1.24</v>
-      </c>
-      <c r="AM151">
-        <v>1.75</v>
-      </c>
-      <c r="AN151">
-        <v>2.78</v>
-      </c>
-      <c r="AO151">
-        <v>1.67</v>
-      </c>
-      <c r="AP151">
-        <v>2.8</v>
-      </c>
-      <c r="AQ151">
-        <v>1.5</v>
-      </c>
-      <c r="AR151">
-        <v>1.79</v>
-      </c>
-      <c r="AS151">
-        <v>1.42</v>
-      </c>
-      <c r="AT151">
-        <v>3.21</v>
-      </c>
-      <c r="AU151">
-        <v>7</v>
-      </c>
-      <c r="AV151">
-        <v>3</v>
-      </c>
-      <c r="AW151">
-        <v>8</v>
-      </c>
-      <c r="AX151">
-        <v>3</v>
-      </c>
-      <c r="AY151">
-        <v>20</v>
-      </c>
-      <c r="AZ151">
-        <v>8</v>
-      </c>
-      <c r="BA151">
-        <v>10</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
-      <c r="BC151">
-        <v>15</v>
-      </c>
-      <c r="BD151">
-        <v>1.57</v>
-      </c>
-      <c r="BE151">
-        <v>6.75</v>
-      </c>
-      <c r="BF151">
-        <v>2.65</v>
-      </c>
-      <c r="BG151">
-        <v>1.29</v>
-      </c>
-      <c r="BH151">
-        <v>3.2</v>
-      </c>
-      <c r="BI151">
-        <v>1.5</v>
-      </c>
-      <c r="BJ151">
-        <v>2.4</v>
-      </c>
-      <c r="BK151">
-        <v>1.82</v>
-      </c>
-      <c r="BL151">
-        <v>1.86</v>
-      </c>
-      <c r="BM151">
-        <v>2.3</v>
-      </c>
-      <c r="BN151">
-        <v>1.54</v>
-      </c>
-      <c r="BO151">
-        <v>2.9</v>
-      </c>
-      <c r="BP151">
-        <v>1.34</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32299,7 +32299,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7454758</v>
+        <v>7453568</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32308,55 +32308,55 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45648.5</v>
+        <v>45648.60416666666</v>
       </c>
       <c r="F152">
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H152" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="Q152">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R152">
         <v>2.1</v>
       </c>
       <c r="S152">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U152">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
         <v>3</v>
@@ -32365,139 +32365,139 @@
         <v>1.36</v>
       </c>
       <c r="X152">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y152">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z152">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="AA152">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="AB152">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="AC152">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD152">
-        <v>9.449999999999999</v>
+        <v>11</v>
       </c>
       <c r="AE152">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF152">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="AG152">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AH152">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AI152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK152">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AL152">
         <v>1.28</v>
       </c>
       <c r="AM152">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
       <c r="AP152">
+        <v>2.1</v>
+      </c>
+      <c r="AQ152">
         <v>1.8</v>
       </c>
-      <c r="AQ152">
-        <v>1.3</v>
-      </c>
       <c r="AR152">
-        <v>1.23</v>
+        <v>1.81</v>
       </c>
       <c r="AS152">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="AT152">
-        <v>2.28</v>
+        <v>3.43</v>
       </c>
       <c r="AU152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW152">
+        <v>3</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>12</v>
+      </c>
+      <c r="AZ152">
+        <v>15</v>
+      </c>
+      <c r="BA152">
         <v>5</v>
       </c>
-      <c r="AX152">
-        <v>7</v>
-      </c>
-      <c r="AY152">
+      <c r="BB152">
+        <v>6</v>
+      </c>
+      <c r="BC152">
         <v>11</v>
       </c>
-      <c r="AZ152">
-        <v>22</v>
-      </c>
-      <c r="BA152">
-        <v>4</v>
-      </c>
-      <c r="BB152">
-        <v>8</v>
-      </c>
-      <c r="BC152">
-        <v>12</v>
-      </c>
       <c r="BD152">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="BE152">
         <v>6.4</v>
       </c>
       <c r="BF152">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="BG152">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BH152">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BI152">
+        <v>1.58</v>
+      </c>
+      <c r="BJ152">
+        <v>2.2</v>
+      </c>
+      <c r="BK152">
+        <v>1.95</v>
+      </c>
+      <c r="BL152">
+        <v>1.75</v>
+      </c>
+      <c r="BM152">
+        <v>2.45</v>
+      </c>
+      <c r="BN152">
         <v>1.48</v>
       </c>
-      <c r="BJ152">
-        <v>2.43</v>
-      </c>
-      <c r="BK152">
-        <v>1.77</v>
-      </c>
-      <c r="BL152">
-        <v>1.92</v>
-      </c>
-      <c r="BM152">
-        <v>2.2</v>
-      </c>
-      <c r="BN152">
-        <v>1.57</v>
-      </c>
       <c r="BO152">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP152">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="153" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,12 @@
     <t>['90+10']</t>
   </si>
   <si>
+    <t>['9', '32']</t>
+  </si>
+  <si>
+    <t>['5', '16', '64', '90+4']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -821,6 +827,18 @@
   </si>
   <si>
     <t>['66', '78']</t>
+  </si>
+  <si>
+    <t>['12', '51']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['45+2', '56', '71']</t>
+  </si>
+  <si>
+    <t>['30', '51', '54']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1459,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -1519,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1728,7 +1746,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2346,7 +2364,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2471,7 +2489,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2549,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>1.3</v>
@@ -3295,7 +3313,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3373,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3582,7 +3600,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3707,7 +3725,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3788,7 +3806,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3913,7 +3931,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -3991,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4119,7 +4137,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4531,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4609,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5149,7 +5167,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5230,7 +5248,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5561,7 +5579,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5767,7 +5785,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -5845,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -6179,7 +6197,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6466,7 +6484,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ26">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.53</v>
@@ -6591,7 +6609,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6672,7 +6690,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ27">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>0.45</v>
@@ -6797,7 +6815,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7003,7 +7021,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7081,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7287,7 +7305,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7699,10 +7717,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR32">
         <v>1.43</v>
@@ -7905,10 +7923,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR33">
         <v>1.52</v>
@@ -8033,7 +8051,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8239,7 +8257,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8317,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8445,7 +8463,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8732,7 +8750,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.03</v>
@@ -9350,7 +9368,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9475,7 +9493,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9553,10 +9571,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>1.62</v>
@@ -9681,7 +9699,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9968,7 +9986,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR43">
         <v>1.33</v>
@@ -10171,7 +10189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ44">
         <v>0.5600000000000001</v>
@@ -10299,7 +10317,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10377,7 +10395,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10789,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -10917,7 +10935,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -10998,7 +11016,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -11123,7 +11141,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11204,7 +11222,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>2.18</v>
@@ -11329,7 +11347,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11407,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50">
         <v>1.8</v>
@@ -11535,7 +11553,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11616,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR51">
         <v>1.42</v>
@@ -11819,10 +11837,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ52">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>2.07</v>
@@ -12437,7 +12455,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12565,7 +12583,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12646,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.68</v>
@@ -12852,7 +12870,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -12977,7 +12995,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13183,7 +13201,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13470,7 +13488,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
         <v>1.66</v>
@@ -13595,7 +13613,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13673,7 +13691,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ61">
         <v>1.3</v>
@@ -13879,7 +13897,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14419,7 +14437,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15037,7 +15055,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15118,7 +15136,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
         <v>1.04</v>
@@ -15243,7 +15261,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15527,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
         <v>0.11</v>
@@ -15939,7 +15957,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -16067,7 +16085,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16273,7 +16291,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16557,7 +16575,7 @@
         <v>0.6</v>
       </c>
       <c r="AP75">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -16685,7 +16703,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -16763,10 +16781,10 @@
         <v>2.25</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.57</v>
@@ -16972,7 +16990,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR77">
         <v>1.23</v>
@@ -17178,7 +17196,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17381,7 +17399,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ79">
         <v>0.5600000000000001</v>
@@ -17587,10 +17605,10 @@
         <v>0.6</v>
       </c>
       <c r="AP80">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ80">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17921,7 +17939,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18127,7 +18145,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18745,7 +18763,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19238,7 +19256,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ88">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19441,7 +19459,7 @@
         <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19647,7 +19665,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ90">
         <v>0.11</v>
@@ -19775,7 +19793,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19981,7 +19999,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20268,7 +20286,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
         <v>1.23</v>
@@ -20393,7 +20411,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20471,7 +20489,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20677,10 +20695,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR95">
         <v>1.79</v>
@@ -20805,7 +20823,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20883,10 +20901,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21011,7 +21029,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21423,7 +21441,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21629,7 +21647,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21835,7 +21853,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21913,10 +21931,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ101">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.52</v>
@@ -22328,7 +22346,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR103">
         <v>1.64</v>
@@ -22865,7 +22883,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23071,7 +23089,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23149,7 +23167,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23277,7 +23295,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23564,7 +23582,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -23689,7 +23707,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -23973,10 +23991,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24182,7 +24200,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.71</v>
@@ -24307,7 +24325,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24513,7 +24531,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24591,7 +24609,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -24797,7 +24815,7 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ115">
         <v>0.5</v>
@@ -25212,7 +25230,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ117">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
         <v>1.85</v>
@@ -25415,7 +25433,7 @@
         <v>0.14</v>
       </c>
       <c r="AP118">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118">
         <v>0.11</v>
@@ -25543,7 +25561,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25624,7 +25642,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26161,7 +26179,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26239,7 +26257,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26445,7 +26463,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26654,7 +26672,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -26779,7 +26797,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -26860,7 +26878,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ125">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR125">
         <v>1.37</v>
@@ -27191,7 +27209,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27397,7 +27415,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27603,7 +27621,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27809,7 +27827,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28221,7 +28239,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28299,7 +28317,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132">
         <v>1.8</v>
@@ -28505,7 +28523,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ133">
         <v>0.5</v>
@@ -28633,7 +28651,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -28711,10 +28729,10 @@
         <v>0.5</v>
       </c>
       <c r="AP134">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ134">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR134">
         <v>1.76</v>
@@ -28920,7 +28938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.6</v>
@@ -29045,7 +29063,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29332,7 +29350,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR137">
         <v>1.17</v>
@@ -29535,7 +29553,7 @@
         <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ138">
         <v>1.5</v>
@@ -29744,7 +29762,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -29950,7 +29968,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR140">
         <v>1.25</v>
@@ -30075,7 +30093,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30153,7 +30171,7 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
         <v>1.33</v>
@@ -30359,10 +30377,10 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30487,7 +30505,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30568,7 +30586,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR143">
         <v>1.68</v>
@@ -30693,7 +30711,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30977,7 +30995,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ145">
         <v>0.5600000000000001</v>
@@ -31105,7 +31123,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31517,7 +31535,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31723,7 +31741,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32341,7 +32359,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32704,6 +32722,1036 @@
       </c>
       <c r="BP153">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7453578</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45652.39583333334</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" t="s">
+        <v>74</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>202</v>
+      </c>
+      <c r="P154" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>3</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
+        <v>3.1</v>
+      </c>
+      <c r="V154">
+        <v>2.4</v>
+      </c>
+      <c r="W154">
+        <v>1.5</v>
+      </c>
+      <c r="X154">
+        <v>5.5</v>
+      </c>
+      <c r="Y154">
+        <v>1.11</v>
+      </c>
+      <c r="Z154">
+        <v>2.55</v>
+      </c>
+      <c r="AA154">
+        <v>3.5</v>
+      </c>
+      <c r="AB154">
+        <v>2.6</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.2</v>
+      </c>
+      <c r="AF154">
+        <v>4.33</v>
+      </c>
+      <c r="AG154">
+        <v>1.69</v>
+      </c>
+      <c r="AH154">
+        <v>2.11</v>
+      </c>
+      <c r="AI154">
+        <v>1.48</v>
+      </c>
+      <c r="AJ154">
+        <v>2.4</v>
+      </c>
+      <c r="AK154">
+        <v>1.48</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.48</v>
+      </c>
+      <c r="AN154">
+        <v>1.78</v>
+      </c>
+      <c r="AO154">
+        <v>1.44</v>
+      </c>
+      <c r="AP154">
+        <v>1.7</v>
+      </c>
+      <c r="AQ154">
+        <v>1.4</v>
+      </c>
+      <c r="AR154">
+        <v>1.81</v>
+      </c>
+      <c r="AS154">
+        <v>1.61</v>
+      </c>
+      <c r="AT154">
+        <v>3.42</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>12</v>
+      </c>
+      <c r="AW154">
+        <v>3</v>
+      </c>
+      <c r="AX154">
+        <v>11</v>
+      </c>
+      <c r="AY154">
+        <v>10</v>
+      </c>
+      <c r="AZ154">
+        <v>30</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>9</v>
+      </c>
+      <c r="BC154">
+        <v>14</v>
+      </c>
+      <c r="BD154">
+        <v>1.81</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>2.18</v>
+      </c>
+      <c r="BG154">
+        <v>1.24</v>
+      </c>
+      <c r="BH154">
+        <v>3.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.43</v>
+      </c>
+      <c r="BJ154">
+        <v>2.63</v>
+      </c>
+      <c r="BK154">
+        <v>1.7</v>
+      </c>
+      <c r="BL154">
+        <v>2.02</v>
+      </c>
+      <c r="BM154">
+        <v>2.07</v>
+      </c>
+      <c r="BN154">
+        <v>1.66</v>
+      </c>
+      <c r="BO154">
+        <v>2.63</v>
+      </c>
+      <c r="BP154">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7453579</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>87</v>
+      </c>
+      <c r="P155" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q155">
+        <v>3.6</v>
+      </c>
+      <c r="R155">
+        <v>2.15</v>
+      </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
+      <c r="T155">
+        <v>1.42</v>
+      </c>
+      <c r="U155">
+        <v>2.9</v>
+      </c>
+      <c r="V155">
+        <v>2.9</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>7.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>3.3</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>2.1</v>
+      </c>
+      <c r="AC155">
+        <v>1.04</v>
+      </c>
+      <c r="AD155">
+        <v>10.06</v>
+      </c>
+      <c r="AE155">
+        <v>1.31</v>
+      </c>
+      <c r="AF155">
+        <v>3.35</v>
+      </c>
+      <c r="AG155">
+        <v>1.85</v>
+      </c>
+      <c r="AH155">
+        <v>1.85</v>
+      </c>
+      <c r="AI155">
+        <v>1.75</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>1.63</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.38</v>
+      </c>
+      <c r="AN155">
+        <v>1.44</v>
+      </c>
+      <c r="AO155">
+        <v>0.7</v>
+      </c>
+      <c r="AP155">
+        <v>1.3</v>
+      </c>
+      <c r="AQ155">
+        <v>0.91</v>
+      </c>
+      <c r="AR155">
+        <v>1.43</v>
+      </c>
+      <c r="AS155">
+        <v>1.4</v>
+      </c>
+      <c r="AT155">
+        <v>2.83</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>8</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>8</v>
+      </c>
+      <c r="AY155">
+        <v>14</v>
+      </c>
+      <c r="AZ155">
+        <v>20</v>
+      </c>
+      <c r="BA155">
+        <v>8</v>
+      </c>
+      <c r="BB155">
+        <v>10</v>
+      </c>
+      <c r="BC155">
+        <v>18</v>
+      </c>
+      <c r="BD155">
+        <v>2.08</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>1.9</v>
+      </c>
+      <c r="BG155">
+        <v>1.26</v>
+      </c>
+      <c r="BH155">
+        <v>3.4</v>
+      </c>
+      <c r="BI155">
+        <v>1.47</v>
+      </c>
+      <c r="BJ155">
+        <v>2.48</v>
+      </c>
+      <c r="BK155">
+        <v>1.75</v>
+      </c>
+      <c r="BL155">
+        <v>1.95</v>
+      </c>
+      <c r="BM155">
+        <v>2.18</v>
+      </c>
+      <c r="BN155">
+        <v>1.58</v>
+      </c>
+      <c r="BO155">
+        <v>2.8</v>
+      </c>
+      <c r="BP155">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7453575</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>70</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>7</v>
+      </c>
+      <c r="O156" t="s">
+        <v>203</v>
+      </c>
+      <c r="P156" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q156">
+        <v>1.7</v>
+      </c>
+      <c r="R156">
+        <v>2.65</v>
+      </c>
+      <c r="S156">
+        <v>6.5</v>
+      </c>
+      <c r="T156">
+        <v>1.22</v>
+      </c>
+      <c r="U156">
+        <v>3.8</v>
+      </c>
+      <c r="V156">
+        <v>2.05</v>
+      </c>
+      <c r="W156">
+        <v>1.7</v>
+      </c>
+      <c r="X156">
+        <v>4.4</v>
+      </c>
+      <c r="Y156">
+        <v>1.22</v>
+      </c>
+      <c r="Z156">
+        <v>1.22</v>
+      </c>
+      <c r="AA156">
+        <v>6</v>
+      </c>
+      <c r="AB156">
+        <v>10</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>18.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.12</v>
+      </c>
+      <c r="AF156">
+        <v>5.75</v>
+      </c>
+      <c r="AG156">
+        <v>1.36</v>
+      </c>
+      <c r="AH156">
+        <v>2.9</v>
+      </c>
+      <c r="AI156">
+        <v>1.65</v>
+      </c>
+      <c r="AJ156">
+        <v>2.05</v>
+      </c>
+      <c r="AK156">
+        <v>1.06</v>
+      </c>
+      <c r="AL156">
+        <v>1.13</v>
+      </c>
+      <c r="AM156">
+        <v>3.4</v>
+      </c>
+      <c r="AN156">
+        <v>2.22</v>
+      </c>
+      <c r="AO156">
+        <v>0.78</v>
+      </c>
+      <c r="AP156">
+        <v>2.3</v>
+      </c>
+      <c r="AQ156">
+        <v>0.7</v>
+      </c>
+      <c r="AR156">
+        <v>2.05</v>
+      </c>
+      <c r="AS156">
+        <v>1.41</v>
+      </c>
+      <c r="AT156">
+        <v>3.46</v>
+      </c>
+      <c r="AU156">
+        <v>10</v>
+      </c>
+      <c r="AV156">
+        <v>10</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>6</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>19</v>
+      </c>
+      <c r="BA156">
+        <v>1</v>
+      </c>
+      <c r="BB156">
+        <v>8</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>1.3</v>
+      </c>
+      <c r="BE156">
+        <v>7.5</v>
+      </c>
+      <c r="BF156">
+        <v>3.8</v>
+      </c>
+      <c r="BG156">
+        <v>1.27</v>
+      </c>
+      <c r="BH156">
+        <v>3.3</v>
+      </c>
+      <c r="BI156">
+        <v>1.48</v>
+      </c>
+      <c r="BJ156">
+        <v>2.45</v>
+      </c>
+      <c r="BK156">
+        <v>1.76</v>
+      </c>
+      <c r="BL156">
+        <v>1.94</v>
+      </c>
+      <c r="BM156">
+        <v>2.17</v>
+      </c>
+      <c r="BN156">
+        <v>1.58</v>
+      </c>
+      <c r="BO156">
+        <v>2.75</v>
+      </c>
+      <c r="BP156">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7453581</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45652.60416666666</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>87</v>
+      </c>
+      <c r="P157" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q157">
+        <v>2.4</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.38</v>
+      </c>
+      <c r="U157">
+        <v>2.8</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>6.8</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>1.8</v>
+      </c>
+      <c r="AA157">
+        <v>3.5</v>
+      </c>
+      <c r="AB157">
+        <v>4.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>9</v>
+      </c>
+      <c r="AE157">
+        <v>1.3</v>
+      </c>
+      <c r="AF157">
+        <v>3.45</v>
+      </c>
+      <c r="AG157">
+        <v>1.85</v>
+      </c>
+      <c r="AH157">
+        <v>1.85</v>
+      </c>
+      <c r="AI157">
+        <v>1.73</v>
+      </c>
+      <c r="AJ157">
+        <v>1.95</v>
+      </c>
+      <c r="AK157">
+        <v>1.2</v>
+      </c>
+      <c r="AL157">
+        <v>1.22</v>
+      </c>
+      <c r="AM157">
+        <v>1.93</v>
+      </c>
+      <c r="AN157">
+        <v>1.7</v>
+      </c>
+      <c r="AO157">
+        <v>0.67</v>
+      </c>
+      <c r="AP157">
+        <v>1.64</v>
+      </c>
+      <c r="AQ157">
+        <v>0.7</v>
+      </c>
+      <c r="AR157">
+        <v>1.54</v>
+      </c>
+      <c r="AS157">
+        <v>0.96</v>
+      </c>
+      <c r="AT157">
+        <v>2.5</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>18</v>
+      </c>
+      <c r="AZ157">
+        <v>11</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>1</v>
+      </c>
+      <c r="BC157">
+        <v>4</v>
+      </c>
+      <c r="BD157">
+        <v>1.49</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>2.9</v>
+      </c>
+      <c r="BG157">
+        <v>1.26</v>
+      </c>
+      <c r="BH157">
+        <v>3.4</v>
+      </c>
+      <c r="BI157">
+        <v>1.47</v>
+      </c>
+      <c r="BJ157">
+        <v>2.48</v>
+      </c>
+      <c r="BK157">
+        <v>1.75</v>
+      </c>
+      <c r="BL157">
+        <v>1.95</v>
+      </c>
+      <c r="BM157">
+        <v>2.17</v>
+      </c>
+      <c r="BN157">
+        <v>1.6</v>
+      </c>
+      <c r="BO157">
+        <v>2.75</v>
+      </c>
+      <c r="BP157">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7453577</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45652.69791666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>85</v>
+      </c>
+      <c r="H158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>192</v>
+      </c>
+      <c r="P158" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q158">
+        <v>3.7</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>2.65</v>
+      </c>
+      <c r="T158">
+        <v>1.36</v>
+      </c>
+      <c r="U158">
+        <v>2.88</v>
+      </c>
+      <c r="V158">
+        <v>2.62</v>
+      </c>
+      <c r="W158">
+        <v>1.42</v>
+      </c>
+      <c r="X158">
+        <v>7</v>
+      </c>
+      <c r="Y158">
+        <v>1.11</v>
+      </c>
+      <c r="Z158">
+        <v>3.3</v>
+      </c>
+      <c r="AA158">
+        <v>3.6</v>
+      </c>
+      <c r="AB158">
+        <v>2</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>9.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.25</v>
+      </c>
+      <c r="AF158">
+        <v>3.7</v>
+      </c>
+      <c r="AG158">
+        <v>1.75</v>
+      </c>
+      <c r="AH158">
+        <v>1.95</v>
+      </c>
+      <c r="AI158">
+        <v>1.65</v>
+      </c>
+      <c r="AJ158">
+        <v>2.05</v>
+      </c>
+      <c r="AK158">
+        <v>1.7</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.3</v>
+      </c>
+      <c r="AN158">
+        <v>1.89</v>
+      </c>
+      <c r="AO158">
+        <v>0.78</v>
+      </c>
+      <c r="AP158">
+        <v>1.7</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.6</v>
+      </c>
+      <c r="AS158">
+        <v>1.41</v>
+      </c>
+      <c r="AT158">
+        <v>3.01</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>8</v>
+      </c>
+      <c r="AW158">
+        <v>1</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>6</v>
+      </c>
+      <c r="AZ158">
+        <v>16</v>
+      </c>
+      <c r="BA158">
+        <v>2</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>6</v>
+      </c>
+      <c r="BD158">
+        <v>2.43</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>1.67</v>
+      </c>
+      <c r="BG158">
+        <v>1.24</v>
+      </c>
+      <c r="BH158">
+        <v>3.55</v>
+      </c>
+      <c r="BI158">
+        <v>1.43</v>
+      </c>
+      <c r="BJ158">
+        <v>2.6</v>
+      </c>
+      <c r="BK158">
+        <v>1.71</v>
+      </c>
+      <c r="BL158">
+        <v>2</v>
+      </c>
+      <c r="BM158">
+        <v>2.1</v>
+      </c>
+      <c r="BN158">
+        <v>1.64</v>
+      </c>
+      <c r="BO158">
+        <v>2.65</v>
+      </c>
+      <c r="BP158">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,12 @@
     <t>['5', '16', '64', '90+4']</t>
   </si>
   <si>
+    <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['21', '30']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -839,6 +845,12 @@
   </si>
   <si>
     <t>['30', '51', '54']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['9', '77', '88']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1471,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2155,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2489,7 +2501,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2982,7 +2994,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3188,7 +3200,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3313,7 +3325,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3597,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3725,7 +3737,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3803,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.91</v>
@@ -3931,7 +3943,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4137,7 +4149,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4549,7 +4561,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4630,7 +4642,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5167,7 +5179,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5451,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.8</v>
@@ -5579,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5785,7 +5797,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6197,7 +6209,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6278,7 +6290,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR25">
         <v>2.16</v>
@@ -6609,7 +6621,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6815,7 +6827,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -6893,10 +6905,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>0.79</v>
@@ -7021,7 +7033,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -7511,10 +7523,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -8051,7 +8063,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8257,7 +8269,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8463,7 +8475,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8747,7 +8759,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8956,7 +8968,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9493,7 +9505,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9699,7 +9711,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9780,7 +9792,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>0.95</v>
@@ -9983,7 +9995,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43">
         <v>0.7</v>
@@ -10192,7 +10204,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ44">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.89</v>
@@ -10317,7 +10329,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10935,7 +10947,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11141,7 +11153,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11347,7 +11359,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11553,7 +11565,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -11631,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51">
         <v>0.7</v>
@@ -12043,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -12252,7 +12264,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ54">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12583,7 +12595,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12661,7 +12673,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -12995,7 +13007,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13201,7 +13213,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13485,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>0.91</v>
@@ -13613,7 +13625,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -13900,7 +13912,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ62">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.5</v>
@@ -14106,7 +14118,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14309,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14437,7 +14449,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15055,7 +15067,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15261,7 +15273,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15548,7 +15560,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ70">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR70">
         <v>1.88</v>
@@ -16085,7 +16097,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16291,7 +16303,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16372,7 +16384,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -16703,7 +16715,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17193,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>0.7</v>
@@ -17402,7 +17414,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR79">
         <v>1.88</v>
@@ -17811,7 +17823,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81">
         <v>1.3</v>
@@ -17939,7 +17951,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18145,7 +18157,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18432,7 +18444,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18763,7 +18775,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>1.91</v>
@@ -19047,7 +19059,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19668,7 +19680,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ90">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19793,7 +19805,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19999,7 +20011,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20283,7 +20295,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
         <v>0.7</v>
@@ -20411,7 +20423,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20823,7 +20835,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -21029,7 +21041,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -21110,7 +21122,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR97">
         <v>1.7</v>
@@ -21316,7 +21328,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.83</v>
@@ -21441,7 +21453,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.9</v>
@@ -21647,7 +21659,7 @@
         <v>87</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -21725,7 +21737,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ100">
         <v>1.8</v>
@@ -21853,7 +21865,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22549,7 +22561,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -22883,7 +22895,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22961,7 +22973,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23089,7 +23101,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23295,7 +23307,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23707,7 +23719,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3.2</v>
@@ -24325,7 +24337,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>7.5</v>
@@ -24531,7 +24543,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>1.95</v>
@@ -24612,7 +24624,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -25024,7 +25036,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ116">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.18</v>
@@ -25436,7 +25448,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25561,7 +25573,7 @@
         <v>150</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>4.5</v>
@@ -25639,7 +25651,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25845,7 +25857,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120">
         <v>1.3</v>
@@ -26179,7 +26191,7 @@
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26466,7 +26478,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>2.07</v>
@@ -26797,7 +26809,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>4.75</v>
@@ -26875,7 +26887,7 @@
         <v>1.71</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
         <v>1.4</v>
@@ -27081,7 +27093,7 @@
         <v>1.57</v>
       </c>
       <c r="AP126">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27209,7 +27221,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27290,7 +27302,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
         <v>0.92</v>
@@ -27415,7 +27427,7 @@
         <v>183</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27621,7 +27633,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2.75</v>
@@ -27827,7 +27839,7 @@
         <v>185</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>1.72</v>
@@ -28239,7 +28251,7 @@
         <v>186</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -28651,7 +28663,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.55</v>
@@ -29063,7 +29075,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>1.7</v>
@@ -29141,10 +29153,10 @@
         <v>0.13</v>
       </c>
       <c r="AP136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ136">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -29965,7 +29977,7 @@
         <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ140">
         <v>0.91</v>
@@ -30093,7 +30105,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30174,7 +30186,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30505,7 +30517,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -30711,7 +30723,7 @@
         <v>87</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>3.75</v>
@@ -30789,7 +30801,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -30998,7 +31010,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ145">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR145">
         <v>1.64</v>
@@ -31123,7 +31135,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31535,7 +31547,7 @@
         <v>167</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31741,7 +31753,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32359,7 +32371,7 @@
         <v>200</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32771,7 +32783,7 @@
         <v>202</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32977,7 +32989,7 @@
         <v>87</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33183,7 +33195,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>1.7</v>
@@ -33592,10 +33604,10 @@
         <v>4</v>
       </c>
       <c r="O158" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>3.7</v>
@@ -33752,6 +33764,624 @@
       </c>
       <c r="BP158">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7453580</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45653.60416666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>80</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>204</v>
+      </c>
+      <c r="P159" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q159">
+        <v>2.2</v>
+      </c>
+      <c r="R159">
+        <v>2.15</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>2.88</v>
+      </c>
+      <c r="V159">
+        <v>2.65</v>
+      </c>
+      <c r="W159">
+        <v>1.42</v>
+      </c>
+      <c r="X159">
+        <v>7.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>1.6</v>
+      </c>
+      <c r="AA159">
+        <v>3.97</v>
+      </c>
+      <c r="AB159">
+        <v>5.06</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.28</v>
+      </c>
+      <c r="AF159">
+        <v>3.55</v>
+      </c>
+      <c r="AG159">
+        <v>1.95</v>
+      </c>
+      <c r="AH159">
+        <v>1.89</v>
+      </c>
+      <c r="AI159">
+        <v>1.83</v>
+      </c>
+      <c r="AJ159">
+        <v>1.85</v>
+      </c>
+      <c r="AK159">
+        <v>1.15</v>
+      </c>
+      <c r="AL159">
+        <v>1.2</v>
+      </c>
+      <c r="AM159">
+        <v>2.2</v>
+      </c>
+      <c r="AN159">
+        <v>1.56</v>
+      </c>
+      <c r="AO159">
+        <v>0.11</v>
+      </c>
+      <c r="AP159">
+        <v>1.7</v>
+      </c>
+      <c r="AQ159">
+        <v>0.1</v>
+      </c>
+      <c r="AR159">
+        <v>1.19</v>
+      </c>
+      <c r="AS159">
+        <v>1.01</v>
+      </c>
+      <c r="AT159">
+        <v>2.2</v>
+      </c>
+      <c r="AU159">
+        <v>11</v>
+      </c>
+      <c r="AV159">
+        <v>7</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>25</v>
+      </c>
+      <c r="AZ159">
+        <v>12</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>10</v>
+      </c>
+      <c r="BD159">
+        <v>1.38</v>
+      </c>
+      <c r="BE159">
+        <v>7</v>
+      </c>
+      <c r="BF159">
+        <v>3.4</v>
+      </c>
+      <c r="BG159">
+        <v>1.22</v>
+      </c>
+      <c r="BH159">
+        <v>3.8</v>
+      </c>
+      <c r="BI159">
+        <v>1.38</v>
+      </c>
+      <c r="BJ159">
+        <v>2.8</v>
+      </c>
+      <c r="BK159">
+        <v>1.61</v>
+      </c>
+      <c r="BL159">
+        <v>2.15</v>
+      </c>
+      <c r="BM159">
+        <v>1.97</v>
+      </c>
+      <c r="BN159">
+        <v>1.74</v>
+      </c>
+      <c r="BO159">
+        <v>2.4</v>
+      </c>
+      <c r="BP159">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7453582</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45653.69791666666</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+      <c r="H160" t="s">
+        <v>83</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>115</v>
+      </c>
+      <c r="P160" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q160">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>2.15</v>
+      </c>
+      <c r="S160">
+        <v>3.1</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.48</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>2.48</v>
+      </c>
+      <c r="AA160">
+        <v>3.45</v>
+      </c>
+      <c r="AB160">
+        <v>2.62</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>9.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.95</v>
+      </c>
+      <c r="AG160">
+        <v>1.77</v>
+      </c>
+      <c r="AH160">
+        <v>1.98</v>
+      </c>
+      <c r="AI160">
+        <v>1.55</v>
+      </c>
+      <c r="AJ160">
+        <v>2.25</v>
+      </c>
+      <c r="AK160">
+        <v>1.45</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.5</v>
+      </c>
+      <c r="AN160">
+        <v>1.44</v>
+      </c>
+      <c r="AO160">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP160">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160">
+        <v>0.6</v>
+      </c>
+      <c r="AR160">
+        <v>1.47</v>
+      </c>
+      <c r="AS160">
+        <v>1.39</v>
+      </c>
+      <c r="AT160">
+        <v>2.86</v>
+      </c>
+      <c r="AU160">
+        <v>8</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>8</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>28</v>
+      </c>
+      <c r="AZ160">
+        <v>8</v>
+      </c>
+      <c r="BA160">
+        <v>7</v>
+      </c>
+      <c r="BB160">
+        <v>2</v>
+      </c>
+      <c r="BC160">
+        <v>9</v>
+      </c>
+      <c r="BD160">
+        <v>1.97</v>
+      </c>
+      <c r="BE160">
+        <v>6.5</v>
+      </c>
+      <c r="BF160">
+        <v>2</v>
+      </c>
+      <c r="BG160">
+        <v>1.24</v>
+      </c>
+      <c r="BH160">
+        <v>3.55</v>
+      </c>
+      <c r="BI160">
+        <v>1.44</v>
+      </c>
+      <c r="BJ160">
+        <v>2.55</v>
+      </c>
+      <c r="BK160">
+        <v>1.71</v>
+      </c>
+      <c r="BL160">
+        <v>2</v>
+      </c>
+      <c r="BM160">
+        <v>2.08</v>
+      </c>
+      <c r="BN160">
+        <v>1.66</v>
+      </c>
+      <c r="BO160">
+        <v>2.65</v>
+      </c>
+      <c r="BP160">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7453576</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45653.69791666666</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161" t="s">
+        <v>205</v>
+      </c>
+      <c r="P161" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q161">
+        <v>1.9</v>
+      </c>
+      <c r="R161">
+        <v>2.5</v>
+      </c>
+      <c r="S161">
+        <v>6.5</v>
+      </c>
+      <c r="T161">
+        <v>1.32</v>
+      </c>
+      <c r="U161">
+        <v>3.4</v>
+      </c>
+      <c r="V161">
+        <v>2.5</v>
+      </c>
+      <c r="W161">
+        <v>1.52</v>
+      </c>
+      <c r="X161">
+        <v>6</v>
+      </c>
+      <c r="Y161">
+        <v>1.12</v>
+      </c>
+      <c r="Z161">
+        <v>1.71</v>
+      </c>
+      <c r="AA161">
+        <v>7.38</v>
+      </c>
+      <c r="AB161">
+        <v>2.55</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.21</v>
+      </c>
+      <c r="AF161">
+        <v>4.25</v>
+      </c>
+      <c r="AG161">
+        <v>1.57</v>
+      </c>
+      <c r="AH161">
+        <v>2.25</v>
+      </c>
+      <c r="AI161">
+        <v>1.92</v>
+      </c>
+      <c r="AJ161">
+        <v>1.87</v>
+      </c>
+      <c r="AK161">
+        <v>1.08</v>
+      </c>
+      <c r="AL161">
+        <v>1.15</v>
+      </c>
+      <c r="AM161">
+        <v>2.95</v>
+      </c>
+      <c r="AN161">
+        <v>2</v>
+      </c>
+      <c r="AO161">
+        <v>1.33</v>
+      </c>
+      <c r="AP161">
+        <v>1.8</v>
+      </c>
+      <c r="AQ161">
+        <v>1.5</v>
+      </c>
+      <c r="AR161">
+        <v>1.75</v>
+      </c>
+      <c r="AS161">
+        <v>1.08</v>
+      </c>
+      <c r="AT161">
+        <v>2.83</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>6</v>
+      </c>
+      <c r="AY161">
+        <v>14</v>
+      </c>
+      <c r="AZ161">
+        <v>17</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>1.34</v>
+      </c>
+      <c r="BE161">
+        <v>7</v>
+      </c>
+      <c r="BF161">
+        <v>3.55</v>
+      </c>
+      <c r="BG161">
+        <v>1.32</v>
+      </c>
+      <c r="BH161">
+        <v>3</v>
+      </c>
+      <c r="BI161">
+        <v>1.55</v>
+      </c>
+      <c r="BJ161">
+        <v>2.28</v>
+      </c>
+      <c r="BK161">
+        <v>1.9</v>
+      </c>
+      <c r="BL161">
+        <v>1.79</v>
+      </c>
+      <c r="BM161">
+        <v>2.4</v>
+      </c>
+      <c r="BN161">
+        <v>1.5</v>
+      </c>
+      <c r="BO161">
+        <v>3.05</v>
+      </c>
+      <c r="BP161">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,9 @@
     <t>['21', '30']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -734,9 +737,6 @@
   </si>
   <si>
     <t>['6']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['4', '24']</t>
@@ -1212,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1471,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>1.91</v>
@@ -2501,7 +2501,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3325,7 +3325,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -3737,7 +3737,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3943,7 +3943,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3.25</v>
@@ -4149,7 +4149,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4230,7 +4230,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ16">
         <v>1.8</v>
@@ -4561,7 +4561,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR19">
         <v>0.45</v>
@@ -5179,7 +5179,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>4.1</v>
@@ -5591,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5797,7 +5797,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>1.91</v>
@@ -6209,7 +6209,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>1.93</v>
@@ -6621,7 +6621,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3.9</v>
@@ -6827,7 +6827,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3.06</v>
@@ -7033,7 +7033,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>3.75</v>
@@ -8063,7 +8063,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2.45</v>
@@ -8269,7 +8269,7 @@
         <v>87</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>4.75</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38">
         <v>0.1</v>
@@ -9174,7 +9174,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9505,7 +9505,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9711,7 +9711,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10329,7 +10329,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10947,7 +10947,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11153,7 +11153,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11359,7 +11359,7 @@
         <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>5.85</v>
@@ -11565,7 +11565,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.2</v>
@@ -12595,7 +12595,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>2.75</v>
@@ -12879,7 +12879,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13007,7 +13007,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>3.1</v>
@@ -13213,7 +13213,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.52</v>
@@ -13625,7 +13625,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2.05</v>
@@ -14324,7 +14324,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14449,7 +14449,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>3.02</v>
@@ -15067,7 +15067,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68">
         <v>0.7</v>
@@ -15273,7 +15273,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.76</v>
@@ -15766,7 +15766,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16097,7 +16097,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.27</v>
@@ -16303,7 +16303,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>1.91</v>
@@ -16715,7 +16715,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>4.75</v>
@@ -17951,7 +17951,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -19265,7 +19265,7 @@
         <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ88">
         <v>0.91</v>
@@ -19474,7 +19474,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -21531,7 +21531,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ99">
         <v>0.5</v>
@@ -22564,7 +22564,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -25033,7 +25033,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -26066,7 +26066,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -27920,7 +27920,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ130">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28123,7 +28123,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131">
         <v>0.8</v>
@@ -30517,7 +30517,7 @@
         <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q143">
         <v>1.95</v>
@@ -31834,7 +31834,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ149">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR149">
         <v>1.18</v>
@@ -32243,7 +32243,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ151">
         <v>1.3</v>
@@ -34382,6 +34382,212 @@
       </c>
       <c r="BP161">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7453585</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45667.69791666666</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>84</v>
+      </c>
+      <c r="H162" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>206</v>
+      </c>
+      <c r="P162" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>4.1</v>
+      </c>
+      <c r="T162">
+        <v>1.39</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>2.8</v>
+      </c>
+      <c r="W162">
+        <v>1.38</v>
+      </c>
+      <c r="X162">
+        <v>7.25</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>1.95</v>
+      </c>
+      <c r="AA162">
+        <v>3.48</v>
+      </c>
+      <c r="AB162">
+        <v>3.94</v>
+      </c>
+      <c r="AC162">
+        <v>1.04</v>
+      </c>
+      <c r="AD162">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE162">
+        <v>1.32</v>
+      </c>
+      <c r="AF162">
+        <v>3.26</v>
+      </c>
+      <c r="AG162">
+        <v>2.01</v>
+      </c>
+      <c r="AH162">
+        <v>1.81</v>
+      </c>
+      <c r="AI162">
+        <v>1.82</v>
+      </c>
+      <c r="AJ162">
+        <v>1.87</v>
+      </c>
+      <c r="AK162">
+        <v>1.25</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.83</v>
+      </c>
+      <c r="AN162">
+        <v>1.8</v>
+      </c>
+      <c r="AO162">
+        <v>0.5</v>
+      </c>
+      <c r="AP162">
+        <v>1.91</v>
+      </c>
+      <c r="AQ162">
+        <v>0.45</v>
+      </c>
+      <c r="AR162">
+        <v>1.18</v>
+      </c>
+      <c r="AS162">
+        <v>1.07</v>
+      </c>
+      <c r="AT162">
+        <v>2.25</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>8</v>
+      </c>
+      <c r="AX162">
+        <v>14</v>
+      </c>
+      <c r="AY162">
+        <v>16</v>
+      </c>
+      <c r="AZ162">
+        <v>24</v>
+      </c>
+      <c r="BA162">
+        <v>3</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.68</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>2.4</v>
+      </c>
+      <c r="BG162">
+        <v>1.27</v>
+      </c>
+      <c r="BH162">
+        <v>3.3</v>
+      </c>
+      <c r="BI162">
+        <v>1.48</v>
+      </c>
+      <c r="BJ162">
+        <v>2.43</v>
+      </c>
+      <c r="BK162">
+        <v>1.77</v>
+      </c>
+      <c r="BL162">
+        <v>1.93</v>
+      </c>
+      <c r="BM162">
+        <v>2.18</v>
+      </c>
+      <c r="BN162">
+        <v>1.58</v>
+      </c>
+      <c r="BO162">
+        <v>2.8</v>
+      </c>
+      <c r="BP162">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
